--- a/BackTest/2019-10-30 BackTest BTG.xlsx
+++ b/BackTest/2019-10-30 BackTest BTG.xlsx
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4756,20 +4756,14 @@
         <v>9628.5</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>9555</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4797,20 +4791,14 @@
         <v>9622.25</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>9565</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4838,20 +4826,14 @@
         <v>9614.75</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>9570</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4879,20 +4861,14 @@
         <v>9610.75</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>9600</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4920,20 +4896,14 @@
         <v>9597.5</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>9575</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4961,20 +4931,14 @@
         <v>9594.75</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>9575</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5002,20 +4966,14 @@
         <v>9592.75</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>9590</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5043,20 +5001,14 @@
         <v>9589</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>9570</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5084,20 +5036,14 @@
         <v>9586.25</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>9590</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5125,20 +5071,14 @@
         <v>9577</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>9590</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5166,20 +5106,14 @@
         <v>9574.5</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>9590</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5207,20 +5141,14 @@
         <v>9572</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>9590</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5248,20 +5176,14 @@
         <v>9571.25</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>9570</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5289,20 +5211,14 @@
         <v>9574</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>9635</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5330,20 +5246,14 @@
         <v>9574.25</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>9565</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5371,20 +5281,14 @@
         <v>9574.5</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>9560</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5418,14 +5322,12 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>9635</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>9560</v>
+      </c>
+      <c r="K141" t="n">
+        <v>9560</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5459,12 +5361,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>9690</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+        <v>9635</v>
+      </c>
+      <c r="K142" t="n">
+        <v>9560</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M142" t="n">
@@ -5500,12 +5404,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>9565</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
+        <v>9690</v>
+      </c>
+      <c r="K143" t="n">
+        <v>9560</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M143" t="n">
@@ -5542,11 +5448,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5574,20 +5476,14 @@
         <v>9600.25</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>9690</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5622,11 +5518,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5661,11 +5553,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5700,11 +5588,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5739,11 +5623,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5778,11 +5658,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5817,11 +5693,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5849,20 +5721,14 @@
         <v>9601.5</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>9555</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5890,20 +5756,14 @@
         <v>9603</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>9620</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5931,20 +5791,14 @@
         <v>9601.25</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>9555</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5972,20 +5826,14 @@
         <v>9603.25</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>9630</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6013,20 +5861,14 @@
         <v>9606.25</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>9650</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +5903,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6100,11 +5938,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6139,11 +5973,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6178,11 +6008,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6217,11 +6043,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6256,11 +6078,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6295,11 +6113,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6330,16 +6144,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6402,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -6437,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -6472,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -6507,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -6612,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
@@ -6647,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
@@ -6752,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -7032,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>

--- a/BackTest/2019-10-30 BackTest BTG.xlsx
+++ b/BackTest/2019-10-30 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M256"/>
+  <dimension ref="A1:M257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9725</v>
+        <v>9760</v>
       </c>
       <c r="C2" t="n">
-        <v>9770</v>
+        <v>9760</v>
       </c>
       <c r="D2" t="n">
-        <v>9770</v>
+        <v>9760</v>
       </c>
       <c r="E2" t="n">
-        <v>9720</v>
+        <v>9760</v>
       </c>
       <c r="F2" t="n">
-        <v>85.581</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>9728.25</v>
+        <v>9723.916666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9780</v>
+        <v>9725</v>
       </c>
       <c r="C3" t="n">
-        <v>9720</v>
+        <v>9770</v>
       </c>
       <c r="D3" t="n">
-        <v>9780</v>
+        <v>9770</v>
       </c>
       <c r="E3" t="n">
         <v>9720</v>
       </c>
       <c r="F3" t="n">
-        <v>6.0005</v>
+        <v>85.581</v>
       </c>
       <c r="G3" t="n">
-        <v>9731</v>
+        <v>9725.583333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9725</v>
+        <v>9780</v>
       </c>
       <c r="C4" t="n">
-        <v>9780</v>
+        <v>9720</v>
       </c>
       <c r="D4" t="n">
         <v>9780</v>
       </c>
       <c r="E4" t="n">
-        <v>9725</v>
+        <v>9720</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2714</v>
+        <v>6.0005</v>
       </c>
       <c r="G4" t="n">
-        <v>9730.5</v>
+        <v>9726.416666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9780</v>
+        <v>9725</v>
       </c>
       <c r="C5" t="n">
         <v>9780</v>
@@ -547,13 +547,13 @@
         <v>9780</v>
       </c>
       <c r="E5" t="n">
-        <v>9780</v>
+        <v>9725</v>
       </c>
       <c r="F5" t="n">
-        <v>28.5208</v>
+        <v>0.2714</v>
       </c>
       <c r="G5" t="n">
-        <v>9732.75</v>
+        <v>9727.666666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9760</v>
+        <v>9780</v>
       </c>
       <c r="C6" t="n">
-        <v>9760</v>
+        <v>9780</v>
       </c>
       <c r="D6" t="n">
-        <v>9760</v>
+        <v>9780</v>
       </c>
       <c r="E6" t="n">
-        <v>9760</v>
+        <v>9780</v>
       </c>
       <c r="F6" t="n">
-        <v>53.1216</v>
+        <v>28.5208</v>
       </c>
       <c r="G6" t="n">
-        <v>9735.25</v>
+        <v>9728.833333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9725</v>
+        <v>9760</v>
       </c>
       <c r="C7" t="n">
-        <v>9725</v>
+        <v>9760</v>
       </c>
       <c r="D7" t="n">
-        <v>9725</v>
+        <v>9760</v>
       </c>
       <c r="E7" t="n">
-        <v>9725</v>
+        <v>9760</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1919</v>
+        <v>53.1216</v>
       </c>
       <c r="G7" t="n">
-        <v>9736.25</v>
+        <v>9729.583333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9785</v>
+        <v>9725</v>
       </c>
       <c r="C8" t="n">
-        <v>9785</v>
+        <v>9725</v>
       </c>
       <c r="D8" t="n">
-        <v>9785</v>
+        <v>9725</v>
       </c>
       <c r="E8" t="n">
-        <v>9785</v>
+        <v>9725</v>
       </c>
       <c r="F8" t="n">
-        <v>352.5961</v>
+        <v>0.1919</v>
       </c>
       <c r="G8" t="n">
-        <v>9740.5</v>
+        <v>9729.75</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>9785</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>352.5961</v>
       </c>
       <c r="G9" t="n">
-        <v>9743.75</v>
+        <v>9730.25</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>9785</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>9747.75</v>
+        <v>9730.75</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9765</v>
+        <v>9785</v>
       </c>
       <c r="C11" t="n">
-        <v>9765</v>
+        <v>9785</v>
       </c>
       <c r="D11" t="n">
-        <v>9770</v>
+        <v>9785</v>
       </c>
       <c r="E11" t="n">
-        <v>9765</v>
+        <v>9785</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>9750.75</v>
+        <v>9732</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9785</v>
+        <v>9765</v>
       </c>
       <c r="C12" t="n">
-        <v>9785</v>
+        <v>9765</v>
       </c>
       <c r="D12" t="n">
-        <v>9785</v>
+        <v>9770</v>
       </c>
       <c r="E12" t="n">
-        <v>9785</v>
+        <v>9765</v>
       </c>
       <c r="F12" t="n">
         <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>9755</v>
+        <v>9732.916666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9795</v>
+        <v>9785</v>
       </c>
       <c r="C13" t="n">
-        <v>9810</v>
+        <v>9785</v>
       </c>
       <c r="D13" t="n">
-        <v>9820</v>
+        <v>9785</v>
       </c>
       <c r="E13" t="n">
-        <v>9735</v>
+        <v>9785</v>
       </c>
       <c r="F13" t="n">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>9757.25</v>
+        <v>9733.583333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9740</v>
+        <v>9795</v>
       </c>
       <c r="C14" t="n">
-        <v>9720</v>
+        <v>9810</v>
       </c>
       <c r="D14" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="E14" t="n">
-        <v>9720</v>
+        <v>9735</v>
       </c>
       <c r="F14" t="n">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="G14" t="n">
-        <v>9756.25</v>
+        <v>9734.416666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>9740</v>
+      </c>
+      <c r="C15" t="n">
         <v>9720</v>
       </c>
-      <c r="C15" t="n">
-        <v>9705</v>
-      </c>
       <c r="D15" t="n">
-        <v>9735</v>
+        <v>9740</v>
       </c>
       <c r="E15" t="n">
-        <v>9705</v>
+        <v>9720</v>
       </c>
       <c r="F15" t="n">
-        <v>65.2366</v>
+        <v>48</v>
       </c>
       <c r="G15" t="n">
-        <v>9754.25</v>
+        <v>9733.833333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9745</v>
+        <v>9720</v>
       </c>
       <c r="C16" t="n">
-        <v>9770</v>
+        <v>9705</v>
       </c>
       <c r="D16" t="n">
-        <v>9770</v>
+        <v>9735</v>
       </c>
       <c r="E16" t="n">
-        <v>9745</v>
+        <v>9705</v>
       </c>
       <c r="F16" t="n">
-        <v>43.5642</v>
+        <v>65.2366</v>
       </c>
       <c r="G16" t="n">
-        <v>9753.5</v>
+        <v>9733</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9765</v>
+        <v>9745</v>
       </c>
       <c r="C17" t="n">
-        <v>9700</v>
+        <v>9770</v>
       </c>
       <c r="D17" t="n">
-        <v>9765</v>
+        <v>9770</v>
       </c>
       <c r="E17" t="n">
-        <v>9700</v>
+        <v>9745</v>
       </c>
       <c r="F17" t="n">
-        <v>81.3747</v>
+        <v>43.5642</v>
       </c>
       <c r="G17" t="n">
-        <v>9756.75</v>
+        <v>9733.166666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9715</v>
+        <v>9765</v>
       </c>
       <c r="C18" t="n">
-        <v>9685</v>
+        <v>9700</v>
       </c>
       <c r="D18" t="n">
-        <v>9715</v>
+        <v>9765</v>
       </c>
       <c r="E18" t="n">
-        <v>9685</v>
+        <v>9700</v>
       </c>
       <c r="F18" t="n">
-        <v>181</v>
+        <v>81.3747</v>
       </c>
       <c r="G18" t="n">
-        <v>9757.5</v>
+        <v>9732.25</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>9715</v>
+      </c>
+      <c r="C19" t="n">
         <v>9685</v>
       </c>
-      <c r="C19" t="n">
-        <v>9735</v>
-      </c>
       <c r="D19" t="n">
-        <v>9735</v>
+        <v>9715</v>
       </c>
       <c r="E19" t="n">
         <v>9685</v>
       </c>
       <c r="F19" t="n">
-        <v>22.5827</v>
+        <v>181</v>
       </c>
       <c r="G19" t="n">
-        <v>9754</v>
+        <v>9731.083333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9760</v>
+        <v>9685</v>
       </c>
       <c r="C20" t="n">
-        <v>9820</v>
+        <v>9735</v>
       </c>
       <c r="D20" t="n">
-        <v>9820</v>
+        <v>9735</v>
       </c>
       <c r="E20" t="n">
-        <v>9760</v>
+        <v>9685</v>
       </c>
       <c r="F20" t="n">
-        <v>394.3674</v>
+        <v>22.5827</v>
       </c>
       <c r="G20" t="n">
-        <v>9754.25</v>
+        <v>9730.75</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9725</v>
+        <v>9760</v>
       </c>
       <c r="C21" t="n">
-        <v>9720</v>
+        <v>9820</v>
       </c>
       <c r="D21" t="n">
-        <v>9725</v>
+        <v>9820</v>
       </c>
       <c r="E21" t="n">
-        <v>9720</v>
+        <v>9760</v>
       </c>
       <c r="F21" t="n">
-        <v>18.3</v>
+        <v>394.3674</v>
       </c>
       <c r="G21" t="n">
-        <v>9752.5</v>
+        <v>9731.833333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9710</v>
+        <v>9725</v>
       </c>
       <c r="C22" t="n">
-        <v>9710</v>
+        <v>9720</v>
       </c>
       <c r="D22" t="n">
-        <v>9710</v>
+        <v>9725</v>
       </c>
       <c r="E22" t="n">
-        <v>9710</v>
+        <v>9720</v>
       </c>
       <c r="F22" t="n">
-        <v>12.1109</v>
+        <v>18.3</v>
       </c>
       <c r="G22" t="n">
-        <v>9751.75</v>
+        <v>9732.083333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9820</v>
+        <v>9710</v>
       </c>
       <c r="C23" t="n">
-        <v>9820</v>
+        <v>9710</v>
       </c>
       <c r="D23" t="n">
-        <v>9820</v>
+        <v>9710</v>
       </c>
       <c r="E23" t="n">
-        <v>9820</v>
+        <v>9710</v>
       </c>
       <c r="F23" t="n">
-        <v>25.49297352</v>
+        <v>12.1109</v>
       </c>
       <c r="G23" t="n">
-        <v>9753.75</v>
+        <v>9732.166666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9840</v>
+        <v>9820</v>
       </c>
       <c r="C24" t="n">
-        <v>9845</v>
+        <v>9820</v>
       </c>
       <c r="D24" t="n">
-        <v>9845</v>
+        <v>9820</v>
       </c>
       <c r="E24" t="n">
-        <v>9840</v>
+        <v>9820</v>
       </c>
       <c r="F24" t="n">
-        <v>24.36378872</v>
+        <v>25.49297352</v>
       </c>
       <c r="G24" t="n">
-        <v>9759.5</v>
+        <v>9734.583333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9720</v>
+        <v>9840</v>
       </c>
       <c r="C25" t="n">
         <v>9845</v>
@@ -1247,13 +1247,13 @@
         <v>9845</v>
       </c>
       <c r="E25" t="n">
-        <v>9690</v>
+        <v>9840</v>
       </c>
       <c r="F25" t="n">
-        <v>190.6574</v>
+        <v>24.36378872</v>
       </c>
       <c r="G25" t="n">
-        <v>9756.5</v>
+        <v>9737.333333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9700</v>
+        <v>9720</v>
       </c>
       <c r="C26" t="n">
-        <v>9700</v>
+        <v>9845</v>
       </c>
       <c r="D26" t="n">
-        <v>9700</v>
+        <v>9845</v>
       </c>
       <c r="E26" t="n">
-        <v>9700</v>
+        <v>9690</v>
       </c>
       <c r="F26" t="n">
-        <v>123.4355</v>
+        <v>190.6574</v>
       </c>
       <c r="G26" t="n">
-        <v>9753.5</v>
+        <v>9740.083333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="C27" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="D27" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="E27" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="F27" t="n">
-        <v>8.044600000000001</v>
+        <v>123.4355</v>
       </c>
       <c r="G27" t="n">
-        <v>9752</v>
+        <v>9740.416666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9690</v>
+        <v>9695</v>
       </c>
       <c r="C28" t="n">
-        <v>9690</v>
+        <v>9695</v>
       </c>
       <c r="D28" t="n">
-        <v>9690</v>
+        <v>9695</v>
       </c>
       <c r="E28" t="n">
-        <v>9690</v>
+        <v>9695</v>
       </c>
       <c r="F28" t="n">
-        <v>2.4</v>
+        <v>8.044600000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>9747.25</v>
+        <v>9740.666666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9745</v>
+        <v>9690</v>
       </c>
       <c r="C29" t="n">
-        <v>9745</v>
+        <v>9690</v>
       </c>
       <c r="D29" t="n">
-        <v>9745</v>
+        <v>9690</v>
       </c>
       <c r="E29" t="n">
-        <v>9745</v>
+        <v>9690</v>
       </c>
       <c r="F29" t="n">
-        <v>11.2704</v>
+        <v>2.4</v>
       </c>
       <c r="G29" t="n">
-        <v>9745.25</v>
+        <v>9740</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>9745</v>
       </c>
       <c r="F30" t="n">
-        <v>11.6789</v>
+        <v>11.2704</v>
       </c>
       <c r="G30" t="n">
-        <v>9743.25</v>
+        <v>9740.416666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9695</v>
+        <v>9745</v>
       </c>
       <c r="C31" t="n">
-        <v>9695</v>
+        <v>9745</v>
       </c>
       <c r="D31" t="n">
-        <v>9695</v>
+        <v>9745</v>
       </c>
       <c r="E31" t="n">
-        <v>9695</v>
+        <v>9745</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>11.6789</v>
       </c>
       <c r="G31" t="n">
-        <v>9739.75</v>
+        <v>9740.333333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>9695</v>
       </c>
       <c r="C32" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="D32" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="E32" t="n">
         <v>9695</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G32" t="n">
-        <v>9735.25</v>
+        <v>9739.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9730</v>
+        <v>9695</v>
       </c>
       <c r="C33" t="n">
-        <v>9730</v>
+        <v>9700</v>
       </c>
       <c r="D33" t="n">
-        <v>9730</v>
+        <v>9700</v>
       </c>
       <c r="E33" t="n">
-        <v>9730</v>
+        <v>9695</v>
       </c>
       <c r="F33" t="n">
-        <v>4.9297</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>9732</v>
+        <v>9739.75</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9745</v>
+        <v>9730</v>
       </c>
       <c r="C34" t="n">
-        <v>9745</v>
+        <v>9730</v>
       </c>
       <c r="D34" t="n">
-        <v>9745</v>
+        <v>9730</v>
       </c>
       <c r="E34" t="n">
-        <v>9745</v>
+        <v>9730</v>
       </c>
       <c r="F34" t="n">
-        <v>6.9779</v>
+        <v>4.9297</v>
       </c>
       <c r="G34" t="n">
-        <v>9732.25</v>
+        <v>9739.416666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9705</v>
+        <v>9745</v>
       </c>
       <c r="C35" t="n">
-        <v>9705</v>
+        <v>9745</v>
       </c>
       <c r="D35" t="n">
-        <v>9705</v>
+        <v>9745</v>
       </c>
       <c r="E35" t="n">
-        <v>9705</v>
+        <v>9745</v>
       </c>
       <c r="F35" t="n">
-        <v>0.101</v>
+        <v>6.9779</v>
       </c>
       <c r="G35" t="n">
-        <v>9731.5</v>
+        <v>9739.333333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9820</v>
+        <v>9705</v>
       </c>
       <c r="C36" t="n">
-        <v>9820</v>
+        <v>9705</v>
       </c>
       <c r="D36" t="n">
-        <v>9820</v>
+        <v>9705</v>
       </c>
       <c r="E36" t="n">
-        <v>9820</v>
+        <v>9705</v>
       </c>
       <c r="F36" t="n">
-        <v>3.055</v>
+        <v>0.101</v>
       </c>
       <c r="G36" t="n">
-        <v>9735.25</v>
+        <v>9738</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9715</v>
+        <v>9820</v>
       </c>
       <c r="C37" t="n">
-        <v>9710</v>
+        <v>9820</v>
       </c>
       <c r="D37" t="n">
-        <v>9715</v>
+        <v>9820</v>
       </c>
       <c r="E37" t="n">
-        <v>9710</v>
+        <v>9820</v>
       </c>
       <c r="F37" t="n">
-        <v>266.9603</v>
+        <v>3.055</v>
       </c>
       <c r="G37" t="n">
-        <v>9732.75</v>
+        <v>9738.833333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9705</v>
+        <v>9715</v>
       </c>
       <c r="C38" t="n">
-        <v>9690</v>
+        <v>9710</v>
       </c>
       <c r="D38" t="n">
-        <v>9705</v>
+        <v>9715</v>
       </c>
       <c r="E38" t="n">
-        <v>9690</v>
+        <v>9710</v>
       </c>
       <c r="F38" t="n">
-        <v>174.1726</v>
+        <v>266.9603</v>
       </c>
       <c r="G38" t="n">
-        <v>9732.25</v>
+        <v>9737.833333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9695</v>
+        <v>9705</v>
       </c>
       <c r="C39" t="n">
-        <v>9600</v>
+        <v>9690</v>
       </c>
       <c r="D39" t="n">
-        <v>9695</v>
+        <v>9705</v>
       </c>
       <c r="E39" t="n">
-        <v>9600</v>
+        <v>9690</v>
       </c>
       <c r="F39" t="n">
-        <v>181</v>
+        <v>174.1726</v>
       </c>
       <c r="G39" t="n">
-        <v>9732.75</v>
+        <v>9737.916666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9605</v>
+        <v>9695</v>
       </c>
       <c r="C40" t="n">
-        <v>9605</v>
+        <v>9600</v>
       </c>
       <c r="D40" t="n">
-        <v>9605</v>
+        <v>9695</v>
       </c>
       <c r="E40" t="n">
-        <v>9605</v>
+        <v>9600</v>
       </c>
       <c r="F40" t="n">
-        <v>35.311</v>
+        <v>181</v>
       </c>
       <c r="G40" t="n">
-        <v>9725</v>
+        <v>9736.333333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9780</v>
+        <v>9605</v>
       </c>
       <c r="C41" t="n">
-        <v>9635</v>
+        <v>9605</v>
       </c>
       <c r="D41" t="n">
-        <v>9780</v>
+        <v>9605</v>
       </c>
       <c r="E41" t="n">
-        <v>9635</v>
+        <v>9605</v>
       </c>
       <c r="F41" t="n">
-        <v>8.101599999999999</v>
+        <v>35.311</v>
       </c>
       <c r="G41" t="n">
-        <v>9727.75</v>
+        <v>9734.833333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9650</v>
+        <v>9780</v>
       </c>
       <c r="C42" t="n">
-        <v>9655</v>
+        <v>9635</v>
       </c>
       <c r="D42" t="n">
-        <v>9655</v>
+        <v>9780</v>
       </c>
       <c r="E42" t="n">
-        <v>9650</v>
+        <v>9635</v>
       </c>
       <c r="F42" t="n">
-        <v>8</v>
+        <v>8.101599999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>9724.75</v>
+        <v>9734</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9620</v>
+        <v>9650</v>
       </c>
       <c r="C43" t="n">
-        <v>9620</v>
+        <v>9655</v>
       </c>
       <c r="D43" t="n">
-        <v>9620</v>
+        <v>9655</v>
       </c>
       <c r="E43" t="n">
-        <v>9620</v>
+        <v>9650</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G43" t="n">
-        <v>9714.75</v>
+        <v>9733.25</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>9703.75</v>
+        <v>9732.083333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>9698.75</v>
+        <v>9730.166666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9695</v>
+        <v>9620</v>
       </c>
       <c r="C46" t="n">
-        <v>9695</v>
+        <v>9620</v>
       </c>
       <c r="D46" t="n">
-        <v>9695</v>
+        <v>9620</v>
       </c>
       <c r="E46" t="n">
-        <v>9695</v>
+        <v>9620</v>
       </c>
       <c r="F46" t="n">
-        <v>1.0412</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>9698.5</v>
+        <v>9728.25</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9680</v>
+        <v>9695</v>
       </c>
       <c r="C47" t="n">
-        <v>9680</v>
+        <v>9695</v>
       </c>
       <c r="D47" t="n">
-        <v>9680</v>
+        <v>9695</v>
       </c>
       <c r="E47" t="n">
-        <v>9680</v>
+        <v>9695</v>
       </c>
       <c r="F47" t="n">
-        <v>26.9579</v>
+        <v>1.0412</v>
       </c>
       <c r="G47" t="n">
-        <v>9697.75</v>
+        <v>9728.083333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9675</v>
+        <v>9680</v>
       </c>
       <c r="C48" t="n">
-        <v>9675</v>
+        <v>9680</v>
       </c>
       <c r="D48" t="n">
-        <v>9675</v>
+        <v>9680</v>
       </c>
       <c r="E48" t="n">
-        <v>9675</v>
+        <v>9680</v>
       </c>
       <c r="F48" t="n">
-        <v>10.2311</v>
+        <v>26.9579</v>
       </c>
       <c r="G48" t="n">
-        <v>9697</v>
+        <v>9727.666666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9620</v>
+        <v>9675</v>
       </c>
       <c r="C49" t="n">
-        <v>9605</v>
+        <v>9675</v>
       </c>
       <c r="D49" t="n">
-        <v>9625</v>
+        <v>9675</v>
       </c>
       <c r="E49" t="n">
-        <v>9605</v>
+        <v>9675</v>
       </c>
       <c r="F49" t="n">
-        <v>85.4782</v>
+        <v>10.2311</v>
       </c>
       <c r="G49" t="n">
-        <v>9690.75</v>
+        <v>9727.25</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9650</v>
+        <v>9620</v>
       </c>
       <c r="C50" t="n">
-        <v>9650</v>
+        <v>9605</v>
       </c>
       <c r="D50" t="n">
-        <v>9650</v>
+        <v>9625</v>
       </c>
       <c r="E50" t="n">
-        <v>9650</v>
+        <v>9605</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4788</v>
+        <v>85.4782</v>
       </c>
       <c r="G50" t="n">
-        <v>9686</v>
+        <v>9725.333333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9680</v>
+        <v>9650</v>
       </c>
       <c r="C51" t="n">
-        <v>9680</v>
+        <v>9650</v>
       </c>
       <c r="D51" t="n">
-        <v>9680</v>
+        <v>9650</v>
       </c>
       <c r="E51" t="n">
-        <v>9680</v>
+        <v>9650</v>
       </c>
       <c r="F51" t="n">
-        <v>1.5197</v>
+        <v>0.4788</v>
       </c>
       <c r="G51" t="n">
-        <v>9685.25</v>
+        <v>9724.416666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9615</v>
+        <v>9680</v>
       </c>
       <c r="C52" t="n">
-        <v>9615</v>
+        <v>9680</v>
       </c>
       <c r="D52" t="n">
-        <v>9615</v>
+        <v>9680</v>
       </c>
       <c r="E52" t="n">
-        <v>9615</v>
+        <v>9680</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1312</v>
+        <v>1.5197</v>
       </c>
       <c r="G52" t="n">
-        <v>9681.25</v>
+        <v>9724.083333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>9615</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4776</v>
+        <v>0.1312</v>
       </c>
       <c r="G53" t="n">
-        <v>9675.5</v>
+        <v>9722.666666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9700</v>
+        <v>9615</v>
       </c>
       <c r="C54" t="n">
-        <v>9700</v>
+        <v>9615</v>
       </c>
       <c r="D54" t="n">
-        <v>9700</v>
+        <v>9615</v>
       </c>
       <c r="E54" t="n">
-        <v>9700</v>
+        <v>9615</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2268</v>
+        <v>0.4776</v>
       </c>
       <c r="G54" t="n">
-        <v>9673.25</v>
+        <v>9721.166666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>9700</v>
       </c>
       <c r="F55" t="n">
-        <v>3.0266</v>
+        <v>0.2268</v>
       </c>
       <c r="G55" t="n">
-        <v>9673</v>
+        <v>9720.166666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>9700</v>
       </c>
       <c r="C56" t="n">
-        <v>9615</v>
+        <v>9700</v>
       </c>
       <c r="D56" t="n">
         <v>9700</v>
       </c>
       <c r="E56" t="n">
-        <v>9615</v>
+        <v>9700</v>
       </c>
       <c r="F56" t="n">
-        <v>104.1742</v>
+        <v>3.0266</v>
       </c>
       <c r="G56" t="n">
-        <v>9667</v>
+        <v>9719.166666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>9700</v>
       </c>
       <c r="C57" t="n">
-        <v>9700</v>
+        <v>9615</v>
       </c>
       <c r="D57" t="n">
         <v>9700</v>
       </c>
       <c r="E57" t="n">
-        <v>9700</v>
+        <v>9615</v>
       </c>
       <c r="F57" t="n">
-        <v>23.8587</v>
+        <v>104.1742</v>
       </c>
       <c r="G57" t="n">
-        <v>9666.25</v>
+        <v>9716.833333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="C58" t="n">
         <v>9700</v>
@@ -2402,13 +2402,13 @@
         <v>9700</v>
       </c>
       <c r="E58" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="F58" t="n">
-        <v>37.92</v>
+        <v>23.8587</v>
       </c>
       <c r="G58" t="n">
-        <v>9665.75</v>
+        <v>9716.833333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9705</v>
+        <v>9695</v>
       </c>
       <c r="C59" t="n">
-        <v>9715</v>
+        <v>9700</v>
       </c>
       <c r="D59" t="n">
-        <v>9715</v>
+        <v>9700</v>
       </c>
       <c r="E59" t="n">
-        <v>9705</v>
+        <v>9695</v>
       </c>
       <c r="F59" t="n">
-        <v>158.9946</v>
+        <v>37.92</v>
       </c>
       <c r="G59" t="n">
-        <v>9666.25</v>
+        <v>9715.916666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>9705</v>
+      </c>
+      <c r="C60" t="n">
         <v>9715</v>
       </c>
-      <c r="C60" t="n">
-        <v>9730</v>
-      </c>
       <c r="D60" t="n">
-        <v>9730</v>
+        <v>9715</v>
       </c>
       <c r="E60" t="n">
-        <v>9715</v>
+        <v>9705</v>
       </c>
       <c r="F60" t="n">
-        <v>46.9238</v>
+        <v>158.9946</v>
       </c>
       <c r="G60" t="n">
-        <v>9671.75</v>
+        <v>9715.25</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9735</v>
+        <v>9715</v>
       </c>
       <c r="C61" t="n">
-        <v>9735</v>
+        <v>9730</v>
       </c>
       <c r="D61" t="n">
-        <v>9735</v>
+        <v>9730</v>
       </c>
       <c r="E61" t="n">
-        <v>9735</v>
+        <v>9715</v>
       </c>
       <c r="F61" t="n">
-        <v>1.7661</v>
+        <v>46.9238</v>
       </c>
       <c r="G61" t="n">
-        <v>9669.5</v>
+        <v>9714.75</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9645</v>
+        <v>9735</v>
       </c>
       <c r="C62" t="n">
         <v>9735</v>
@@ -2542,13 +2542,13 @@
         <v>9735</v>
       </c>
       <c r="E62" t="n">
-        <v>9640</v>
+        <v>9735</v>
       </c>
       <c r="F62" t="n">
-        <v>25.7322</v>
+        <v>1.7661</v>
       </c>
       <c r="G62" t="n">
-        <v>9669.25</v>
+        <v>9714.333333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="C63" t="n">
-        <v>9660</v>
+        <v>9735</v>
       </c>
       <c r="D63" t="n">
-        <v>9660</v>
+        <v>9735</v>
       </c>
       <c r="E63" t="n">
         <v>9640</v>
       </c>
       <c r="F63" t="n">
-        <v>7</v>
+        <v>25.7322</v>
       </c>
       <c r="G63" t="n">
-        <v>9670.25</v>
+        <v>9713.75</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9630</v>
+        <v>9640</v>
       </c>
       <c r="C64" t="n">
-        <v>9620</v>
+        <v>9660</v>
       </c>
       <c r="D64" t="n">
-        <v>9630</v>
+        <v>9660</v>
       </c>
       <c r="E64" t="n">
-        <v>9620</v>
+        <v>9640</v>
       </c>
       <c r="F64" t="n">
-        <v>164.7056</v>
+        <v>7</v>
       </c>
       <c r="G64" t="n">
-        <v>9670.75</v>
+        <v>9712.75</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,7 +2641,7 @@
         <v>9630</v>
       </c>
       <c r="C65" t="n">
-        <v>9625</v>
+        <v>9620</v>
       </c>
       <c r="D65" t="n">
         <v>9630</v>
@@ -2650,10 +2650,10 @@
         <v>9620</v>
       </c>
       <c r="F65" t="n">
-        <v>150.3952</v>
+        <v>164.7056</v>
       </c>
       <c r="G65" t="n">
-        <v>9671.25</v>
+        <v>9710.083333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>9630</v>
       </c>
       <c r="C66" t="n">
-        <v>9670</v>
+        <v>9625</v>
       </c>
       <c r="D66" t="n">
-        <v>9670</v>
+        <v>9630</v>
       </c>
       <c r="E66" t="n">
-        <v>9630</v>
+        <v>9620</v>
       </c>
       <c r="F66" t="n">
-        <v>13.9105</v>
+        <v>150.3952</v>
       </c>
       <c r="G66" t="n">
-        <v>9668</v>
+        <v>9707.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2711,19 @@
         <v>9630</v>
       </c>
       <c r="C67" t="n">
-        <v>9630</v>
+        <v>9670</v>
       </c>
       <c r="D67" t="n">
-        <v>9630</v>
+        <v>9670</v>
       </c>
       <c r="E67" t="n">
         <v>9630</v>
       </c>
       <c r="F67" t="n">
-        <v>2.0655</v>
+        <v>13.9105</v>
       </c>
       <c r="G67" t="n">
-        <v>9665.5</v>
+        <v>9706</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>9630</v>
       </c>
       <c r="F68" t="n">
-        <v>4.5376</v>
+        <v>2.0655</v>
       </c>
       <c r="G68" t="n">
-        <v>9663.25</v>
+        <v>9704.416666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9655</v>
+        <v>9630</v>
       </c>
       <c r="C69" t="n">
-        <v>9655</v>
+        <v>9630</v>
       </c>
       <c r="D69" t="n">
-        <v>9655</v>
+        <v>9630</v>
       </c>
       <c r="E69" t="n">
-        <v>9655</v>
+        <v>9630</v>
       </c>
       <c r="F69" t="n">
-        <v>38.7338</v>
+        <v>4.5376</v>
       </c>
       <c r="G69" t="n">
-        <v>9665</v>
+        <v>9701.833333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9635</v>
+        <v>9655</v>
       </c>
       <c r="C70" t="n">
-        <v>9635</v>
+        <v>9655</v>
       </c>
       <c r="D70" t="n">
-        <v>9635</v>
+        <v>9655</v>
       </c>
       <c r="E70" t="n">
-        <v>9635</v>
+        <v>9655</v>
       </c>
       <c r="F70" t="n">
-        <v>31.4278</v>
+        <v>38.7338</v>
       </c>
       <c r="G70" t="n">
-        <v>9664.25</v>
+        <v>9699.666666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +2851,19 @@
         <v>9635</v>
       </c>
       <c r="C71" t="n">
-        <v>9655</v>
+        <v>9635</v>
       </c>
       <c r="D71" t="n">
-        <v>9655</v>
+        <v>9635</v>
       </c>
       <c r="E71" t="n">
-        <v>9600</v>
+        <v>9635</v>
       </c>
       <c r="F71" t="n">
-        <v>223.8597</v>
+        <v>31.4278</v>
       </c>
       <c r="G71" t="n">
-        <v>9662</v>
+        <v>9697.166666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9650</v>
+        <v>9635</v>
       </c>
       <c r="C72" t="n">
-        <v>9650</v>
+        <v>9655</v>
       </c>
       <c r="D72" t="n">
-        <v>9650</v>
+        <v>9655</v>
       </c>
       <c r="E72" t="n">
-        <v>9650</v>
+        <v>9600</v>
       </c>
       <c r="F72" t="n">
-        <v>6.929</v>
+        <v>223.8597</v>
       </c>
       <c r="G72" t="n">
-        <v>9663.75</v>
+        <v>9695.333333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9670</v>
+        <v>9650</v>
       </c>
       <c r="C73" t="n">
-        <v>9670</v>
+        <v>9650</v>
       </c>
       <c r="D73" t="n">
-        <v>9670</v>
+        <v>9650</v>
       </c>
       <c r="E73" t="n">
-        <v>9670</v>
+        <v>9650</v>
       </c>
       <c r="F73" t="n">
-        <v>10.3166</v>
+        <v>6.929</v>
       </c>
       <c r="G73" t="n">
-        <v>9666.5</v>
+        <v>9693.083333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9665</v>
+        <v>9670</v>
       </c>
       <c r="C74" t="n">
-        <v>9665</v>
+        <v>9670</v>
       </c>
       <c r="D74" t="n">
-        <v>9665</v>
+        <v>9670</v>
       </c>
       <c r="E74" t="n">
-        <v>9665</v>
+        <v>9670</v>
       </c>
       <c r="F74" t="n">
-        <v>25.909</v>
+        <v>10.3166</v>
       </c>
       <c r="G74" t="n">
-        <v>9664.75</v>
+        <v>9690.75</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>9665</v>
       </c>
       <c r="F75" t="n">
-        <v>50.9841</v>
+        <v>25.909</v>
       </c>
       <c r="G75" t="n">
-        <v>9663</v>
+        <v>9689.833333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9605</v>
+        <v>9665</v>
       </c>
       <c r="C76" t="n">
-        <v>9595</v>
+        <v>9665</v>
       </c>
       <c r="D76" t="n">
-        <v>9605</v>
+        <v>9665</v>
       </c>
       <c r="E76" t="n">
-        <v>9595</v>
+        <v>9665</v>
       </c>
       <c r="F76" t="n">
-        <v>25.1006</v>
+        <v>50.9841</v>
       </c>
       <c r="G76" t="n">
-        <v>9658.25</v>
+        <v>9689.166666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9650</v>
+        <v>9605</v>
       </c>
       <c r="C77" t="n">
-        <v>9650</v>
+        <v>9595</v>
       </c>
       <c r="D77" t="n">
-        <v>9650</v>
+        <v>9605</v>
       </c>
       <c r="E77" t="n">
-        <v>9650</v>
+        <v>9595</v>
       </c>
       <c r="F77" t="n">
-        <v>134.7308</v>
+        <v>25.1006</v>
       </c>
       <c r="G77" t="n">
-        <v>9655.75</v>
+        <v>9686.25</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3096,19 @@
         <v>9650</v>
       </c>
       <c r="C78" t="n">
-        <v>9660</v>
+        <v>9650</v>
       </c>
       <c r="D78" t="n">
-        <v>9660</v>
+        <v>9650</v>
       </c>
       <c r="E78" t="n">
         <v>9650</v>
       </c>
       <c r="F78" t="n">
-        <v>75.3135</v>
+        <v>134.7308</v>
       </c>
       <c r="G78" t="n">
-        <v>9653.5</v>
+        <v>9685.416666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>9650</v>
       </c>
       <c r="C79" t="n">
-        <v>9650</v>
+        <v>9660</v>
       </c>
       <c r="D79" t="n">
-        <v>9650</v>
+        <v>9660</v>
       </c>
       <c r="E79" t="n">
         <v>9650</v>
       </c>
       <c r="F79" t="n">
-        <v>6</v>
+        <v>75.3135</v>
       </c>
       <c r="G79" t="n">
-        <v>9650.75</v>
+        <v>9685</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>9650</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1173</v>
+        <v>6</v>
       </c>
       <c r="G80" t="n">
-        <v>9647.5</v>
+        <v>9683.583333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9660</v>
+        <v>9650</v>
       </c>
       <c r="C81" t="n">
-        <v>9660</v>
+        <v>9650</v>
       </c>
       <c r="D81" t="n">
-        <v>9660</v>
+        <v>9650</v>
       </c>
       <c r="E81" t="n">
-        <v>9660</v>
+        <v>9650</v>
       </c>
       <c r="F81" t="n">
-        <v>14.6815</v>
+        <v>0.1173</v>
       </c>
       <c r="G81" t="n">
-        <v>9643.75</v>
+        <v>9680.75</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>9660</v>
       </c>
       <c r="F82" t="n">
-        <v>30.6477</v>
+        <v>14.6815</v>
       </c>
       <c r="G82" t="n">
-        <v>9644.5</v>
+        <v>9679.75</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>9660</v>
       </c>
       <c r="F83" t="n">
-        <v>39.4355</v>
+        <v>30.6477</v>
       </c>
       <c r="G83" t="n">
-        <v>9645.5</v>
+        <v>9678.916666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9650</v>
+        <v>9660</v>
       </c>
       <c r="C84" t="n">
-        <v>9650</v>
+        <v>9660</v>
       </c>
       <c r="D84" t="n">
-        <v>9650</v>
+        <v>9660</v>
       </c>
       <c r="E84" t="n">
-        <v>9650</v>
+        <v>9660</v>
       </c>
       <c r="F84" t="n">
-        <v>90.1093</v>
+        <v>39.4355</v>
       </c>
       <c r="G84" t="n">
-        <v>9646.5</v>
+        <v>9676.25</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9630</v>
+        <v>9650</v>
       </c>
       <c r="C85" t="n">
-        <v>9630</v>
+        <v>9650</v>
       </c>
       <c r="D85" t="n">
-        <v>9630</v>
+        <v>9650</v>
       </c>
       <c r="E85" t="n">
-        <v>9630</v>
+        <v>9650</v>
       </c>
       <c r="F85" t="n">
-        <v>11.3824</v>
+        <v>90.1093</v>
       </c>
       <c r="G85" t="n">
-        <v>9646.5</v>
+        <v>9673</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9625</v>
+        <v>9630</v>
       </c>
       <c r="C86" t="n">
         <v>9630</v>
@@ -3382,13 +3382,13 @@
         <v>9630</v>
       </c>
       <c r="E86" t="n">
-        <v>9625</v>
+        <v>9630</v>
       </c>
       <c r="F86" t="n">
-        <v>234.7254</v>
+        <v>11.3824</v>
       </c>
       <c r="G86" t="n">
-        <v>9646.25</v>
+        <v>9669.416666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3411,19 +3411,19 @@
         <v>9625</v>
       </c>
       <c r="C87" t="n">
-        <v>9625</v>
+        <v>9630</v>
       </c>
       <c r="D87" t="n">
-        <v>9625</v>
+        <v>9630</v>
       </c>
       <c r="E87" t="n">
         <v>9625</v>
       </c>
       <c r="F87" t="n">
-        <v>33.2404</v>
+        <v>234.7254</v>
       </c>
       <c r="G87" t="n">
-        <v>9646</v>
+        <v>9668.25</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>9625</v>
       </c>
       <c r="F88" t="n">
-        <v>8.3536</v>
+        <v>33.2404</v>
       </c>
       <c r="G88" t="n">
-        <v>9645.75</v>
+        <v>9667.083333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9620</v>
+        <v>9625</v>
       </c>
       <c r="C89" t="n">
-        <v>9620</v>
+        <v>9625</v>
       </c>
       <c r="D89" t="n">
-        <v>9620</v>
+        <v>9625</v>
       </c>
       <c r="E89" t="n">
-        <v>9620</v>
+        <v>9625</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>8.3536</v>
       </c>
       <c r="G89" t="n">
-        <v>9644</v>
+        <v>9666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3516,19 @@
         <v>9620</v>
       </c>
       <c r="C90" t="n">
-        <v>9630</v>
+        <v>9620</v>
       </c>
       <c r="D90" t="n">
-        <v>9630</v>
+        <v>9620</v>
       </c>
       <c r="E90" t="n">
-        <v>9585</v>
+        <v>9620</v>
       </c>
       <c r="F90" t="n">
-        <v>40.15337632</v>
+        <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>9643.25</v>
+        <v>9663.916666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>9620</v>
+      </c>
+      <c r="C91" t="n">
         <v>9630</v>
       </c>
-      <c r="C91" t="n">
-        <v>9665</v>
-      </c>
       <c r="D91" t="n">
-        <v>9665</v>
+        <v>9630</v>
       </c>
       <c r="E91" t="n">
-        <v>9630</v>
+        <v>9585</v>
       </c>
       <c r="F91" t="n">
-        <v>76.355</v>
+        <v>40.15337632</v>
       </c>
       <c r="G91" t="n">
-        <v>9643</v>
+        <v>9662</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9625</v>
+        <v>9630</v>
       </c>
       <c r="C92" t="n">
-        <v>9610</v>
+        <v>9665</v>
       </c>
       <c r="D92" t="n">
-        <v>9625</v>
+        <v>9665</v>
       </c>
       <c r="E92" t="n">
-        <v>9610</v>
+        <v>9630</v>
       </c>
       <c r="F92" t="n">
-        <v>4</v>
+        <v>76.355</v>
       </c>
       <c r="G92" t="n">
-        <v>9641.75</v>
+        <v>9661.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9610</v>
+        <v>9625</v>
       </c>
       <c r="C93" t="n">
         <v>9610</v>
       </c>
       <c r="D93" t="n">
-        <v>9610</v>
+        <v>9625</v>
       </c>
       <c r="E93" t="n">
         <v>9610</v>
       </c>
       <c r="F93" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G93" t="n">
-        <v>9638.75</v>
+        <v>9660</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>9610</v>
       </c>
       <c r="C94" t="n">
-        <v>9605</v>
+        <v>9610</v>
       </c>
       <c r="D94" t="n">
         <v>9610</v>
       </c>
       <c r="E94" t="n">
-        <v>9605</v>
+        <v>9610</v>
       </c>
       <c r="F94" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G94" t="n">
-        <v>9636</v>
+        <v>9658</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9595</v>
+        <v>9610</v>
       </c>
       <c r="C95" t="n">
-        <v>9595</v>
+        <v>9605</v>
       </c>
       <c r="D95" t="n">
-        <v>9595</v>
+        <v>9610</v>
       </c>
       <c r="E95" t="n">
-        <v>9595</v>
+        <v>9605</v>
       </c>
       <c r="F95" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G95" t="n">
-        <v>9632.5</v>
+        <v>9655.666666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9665</v>
+        <v>9595</v>
       </c>
       <c r="C96" t="n">
-        <v>9795</v>
+        <v>9595</v>
       </c>
       <c r="D96" t="n">
-        <v>9795</v>
+        <v>9595</v>
       </c>
       <c r="E96" t="n">
-        <v>9665</v>
+        <v>9595</v>
       </c>
       <c r="F96" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G96" t="n">
-        <v>9635.5</v>
+        <v>9653.833333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9790</v>
+        <v>9665</v>
       </c>
       <c r="C97" t="n">
-        <v>9835</v>
+        <v>9795</v>
       </c>
       <c r="D97" t="n">
-        <v>9850</v>
+        <v>9795</v>
       </c>
       <c r="E97" t="n">
-        <v>9610</v>
+        <v>9665</v>
       </c>
       <c r="F97" t="n">
-        <v>14.92122368</v>
+        <v>32</v>
       </c>
       <c r="G97" t="n">
-        <v>9642.5</v>
+        <v>9653.416666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9630</v>
+        <v>9790</v>
       </c>
       <c r="C98" t="n">
-        <v>9650</v>
+        <v>9835</v>
       </c>
       <c r="D98" t="n">
-        <v>9835</v>
+        <v>9850</v>
       </c>
       <c r="E98" t="n">
-        <v>9630</v>
+        <v>9610</v>
       </c>
       <c r="F98" t="n">
-        <v>54.321</v>
+        <v>14.92122368</v>
       </c>
       <c r="G98" t="n">
-        <v>9641.5</v>
+        <v>9655.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,28 +3828,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9625</v>
+        <v>9630</v>
       </c>
       <c r="C99" t="n">
-        <v>9625</v>
+        <v>9650</v>
       </c>
       <c r="D99" t="n">
-        <v>9625</v>
+        <v>9835</v>
       </c>
       <c r="E99" t="n">
-        <v>9625</v>
+        <v>9630</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1</v>
+        <v>54.321</v>
       </c>
       <c r="G99" t="n">
-        <v>9640.25</v>
+        <v>9654.833333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9730</v>
+        <v>9625</v>
       </c>
       <c r="C100" t="n">
         <v>9625</v>
       </c>
       <c r="D100" t="n">
-        <v>9730</v>
+        <v>9625</v>
       </c>
       <c r="E100" t="n">
         <v>9625</v>
       </c>
       <c r="F100" t="n">
-        <v>7.44176053</v>
+        <v>0.1</v>
       </c>
       <c r="G100" t="n">
-        <v>9644.25</v>
+        <v>9655.25</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9625</v>
+        <v>9730</v>
       </c>
       <c r="C101" t="n">
         <v>9625</v>
       </c>
       <c r="D101" t="n">
-        <v>9625</v>
+        <v>9730</v>
       </c>
       <c r="E101" t="n">
         <v>9625</v>
       </c>
       <c r="F101" t="n">
-        <v>0.225</v>
+        <v>7.44176053</v>
       </c>
       <c r="G101" t="n">
-        <v>9642.5</v>
+        <v>9655.583333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9795</v>
+        <v>9625</v>
       </c>
       <c r="C102" t="n">
-        <v>9605</v>
+        <v>9625</v>
       </c>
       <c r="D102" t="n">
-        <v>9795</v>
+        <v>9625</v>
       </c>
       <c r="E102" t="n">
-        <v>9605</v>
+        <v>9625</v>
       </c>
       <c r="F102" t="n">
-        <v>19.763</v>
+        <v>0.225</v>
       </c>
       <c r="G102" t="n">
-        <v>9649.25</v>
+        <v>9655.416666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9735</v>
+        <v>9795</v>
       </c>
       <c r="C103" t="n">
-        <v>9740</v>
+        <v>9605</v>
       </c>
       <c r="D103" t="n">
-        <v>9740</v>
+        <v>9795</v>
       </c>
       <c r="E103" t="n">
-        <v>9735</v>
+        <v>9605</v>
       </c>
       <c r="F103" t="n">
-        <v>147.1182</v>
+        <v>19.763</v>
       </c>
       <c r="G103" t="n">
-        <v>9653</v>
+        <v>9654.583333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>9735</v>
+      </c>
+      <c r="C104" t="n">
         <v>9740</v>
       </c>
-      <c r="C104" t="n">
-        <v>9850</v>
-      </c>
       <c r="D104" t="n">
-        <v>9850</v>
+        <v>9740</v>
       </c>
       <c r="E104" t="n">
-        <v>9610</v>
+        <v>9735</v>
       </c>
       <c r="F104" t="n">
-        <v>8.312799999999999</v>
+        <v>147.1182</v>
       </c>
       <c r="G104" t="n">
-        <v>9657.5</v>
+        <v>9656.583333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9670</v>
+        <v>9740</v>
       </c>
       <c r="C105" t="n">
-        <v>9840</v>
+        <v>9850</v>
       </c>
       <c r="D105" t="n">
-        <v>9840</v>
+        <v>9850</v>
       </c>
       <c r="E105" t="n">
-        <v>9670</v>
+        <v>9610</v>
       </c>
       <c r="F105" t="n">
-        <v>6.1</v>
+        <v>8.312799999999999</v>
       </c>
       <c r="G105" t="n">
-        <v>9659.5</v>
+        <v>9660.416666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9690</v>
+        <v>9670</v>
       </c>
       <c r="C106" t="n">
-        <v>9830</v>
+        <v>9840</v>
       </c>
       <c r="D106" t="n">
-        <v>9835</v>
+        <v>9840</v>
       </c>
       <c r="E106" t="n">
-        <v>9605</v>
+        <v>9670</v>
       </c>
       <c r="F106" t="n">
-        <v>32.5</v>
+        <v>6.1</v>
       </c>
       <c r="G106" t="n">
-        <v>9662.75</v>
+        <v>9664.083333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9720</v>
+        <v>9690</v>
       </c>
       <c r="C107" t="n">
-        <v>9615</v>
+        <v>9830</v>
       </c>
       <c r="D107" t="n">
-        <v>9830</v>
+        <v>9835</v>
       </c>
       <c r="E107" t="n">
-        <v>9615</v>
+        <v>9605</v>
       </c>
       <c r="F107" t="n">
-        <v>16.3</v>
+        <v>32.5</v>
       </c>
       <c r="G107" t="n">
-        <v>9667.5</v>
+        <v>9666.333333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9680</v>
+        <v>9720</v>
       </c>
       <c r="C108" t="n">
-        <v>9800</v>
+        <v>9615</v>
       </c>
       <c r="D108" t="n">
-        <v>9800</v>
+        <v>9830</v>
       </c>
       <c r="E108" t="n">
-        <v>9660</v>
+        <v>9615</v>
       </c>
       <c r="F108" t="n">
-        <v>20.1031</v>
+        <v>16.3</v>
       </c>
       <c r="G108" t="n">
-        <v>9670.25</v>
+        <v>9665.25</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9840</v>
+        <v>9680</v>
       </c>
       <c r="C109" t="n">
-        <v>9840</v>
+        <v>9800</v>
       </c>
       <c r="D109" t="n">
-        <v>9840</v>
+        <v>9800</v>
       </c>
       <c r="E109" t="n">
-        <v>9840</v>
+        <v>9660</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1</v>
+        <v>20.1031</v>
       </c>
       <c r="G109" t="n">
-        <v>9681.25</v>
+        <v>9667.333333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9630</v>
+        <v>9840</v>
       </c>
       <c r="C110" t="n">
-        <v>9630</v>
+        <v>9840</v>
       </c>
       <c r="D110" t="n">
-        <v>9630</v>
+        <v>9840</v>
       </c>
       <c r="E110" t="n">
-        <v>9630</v>
+        <v>9840</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G110" t="n">
-        <v>9681.75</v>
+        <v>9671.25</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>9630</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9937</v>
+        <v>0.5</v>
       </c>
       <c r="G111" t="n">
-        <v>9681.75</v>
+        <v>9670.916666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9645</v>
+        <v>9630</v>
       </c>
       <c r="C112" t="n">
-        <v>9645</v>
+        <v>9630</v>
       </c>
       <c r="D112" t="n">
-        <v>9645</v>
+        <v>9630</v>
       </c>
       <c r="E112" t="n">
-        <v>9645</v>
+        <v>9630</v>
       </c>
       <c r="F112" t="n">
-        <v>107.1735</v>
+        <v>0.9937</v>
       </c>
       <c r="G112" t="n">
-        <v>9682.75</v>
+        <v>9670.083333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>9645</v>
       </c>
       <c r="F113" t="n">
-        <v>37.5</v>
+        <v>107.1735</v>
       </c>
       <c r="G113" t="n">
-        <v>9684.5</v>
+        <v>9670.583333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9775</v>
+        <v>9645</v>
       </c>
       <c r="C114" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="D114" t="n">
-        <v>9775</v>
+        <v>9645</v>
       </c>
       <c r="E114" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4418</v>
+        <v>37.5</v>
       </c>
       <c r="G114" t="n">
-        <v>9692.75</v>
+        <v>9671.083333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9640</v>
+        <v>9775</v>
       </c>
       <c r="C115" t="n">
         <v>9640</v>
       </c>
       <c r="D115" t="n">
-        <v>9640</v>
+        <v>9775</v>
       </c>
       <c r="E115" t="n">
         <v>9640</v>
       </c>
       <c r="F115" t="n">
-        <v>9.2242</v>
+        <v>0.4418</v>
       </c>
       <c r="G115" t="n">
-        <v>9695</v>
+        <v>9670.083333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4426,19 +4426,19 @@
         <v>9640</v>
       </c>
       <c r="C116" t="n">
-        <v>9580</v>
+        <v>9640</v>
       </c>
       <c r="D116" t="n">
         <v>9640</v>
       </c>
       <c r="E116" t="n">
-        <v>9580</v>
+        <v>9640</v>
       </c>
       <c r="F116" t="n">
-        <v>182</v>
+        <v>9.2242</v>
       </c>
       <c r="G116" t="n">
-        <v>9693.75</v>
+        <v>9669.083333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9585</v>
+        <v>9640</v>
       </c>
       <c r="C117" t="n">
-        <v>9575</v>
+        <v>9580</v>
       </c>
       <c r="D117" t="n">
-        <v>9585</v>
+        <v>9640</v>
       </c>
       <c r="E117" t="n">
-        <v>9575</v>
+        <v>9580</v>
       </c>
       <c r="F117" t="n">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="G117" t="n">
-        <v>9683.5</v>
+        <v>9668.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9580</v>
+        <v>9585</v>
       </c>
       <c r="C118" t="n">
-        <v>9595</v>
+        <v>9575</v>
       </c>
       <c r="D118" t="n">
-        <v>9595</v>
+        <v>9585</v>
       </c>
       <c r="E118" t="n">
-        <v>9550</v>
+        <v>9575</v>
       </c>
       <c r="F118" t="n">
-        <v>173.6321</v>
+        <v>259</v>
       </c>
       <c r="G118" t="n">
-        <v>9681</v>
+        <v>9666.416666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9560</v>
+        <v>9580</v>
       </c>
       <c r="C119" t="n">
-        <v>9550</v>
+        <v>9595</v>
       </c>
       <c r="D119" t="n">
-        <v>9560</v>
+        <v>9595</v>
       </c>
       <c r="E119" t="n">
         <v>9550</v>
       </c>
       <c r="F119" t="n">
-        <v>49.9583</v>
+        <v>173.6321</v>
       </c>
       <c r="G119" t="n">
-        <v>9677.75</v>
+        <v>9664.666666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9555</v>
+        <v>9560</v>
       </c>
       <c r="C120" t="n">
         <v>9550</v>
       </c>
       <c r="D120" t="n">
-        <v>9600</v>
+        <v>9560</v>
       </c>
       <c r="E120" t="n">
         <v>9550</v>
       </c>
       <c r="F120" t="n">
-        <v>85.3</v>
+        <v>49.9583</v>
       </c>
       <c r="G120" t="n">
-        <v>9669</v>
+        <v>9661.916666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9550</v>
+        <v>9555</v>
       </c>
       <c r="C121" t="n">
         <v>9550</v>
       </c>
       <c r="D121" t="n">
-        <v>9550</v>
+        <v>9600</v>
       </c>
       <c r="E121" t="n">
         <v>9550</v>
       </c>
       <c r="F121" t="n">
-        <v>29</v>
+        <v>85.3</v>
       </c>
       <c r="G121" t="n">
-        <v>9665.25</v>
+        <v>9658.916666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,19 +4645,23 @@
         <v>9550</v>
       </c>
       <c r="F122" t="n">
-        <v>86.9494</v>
+        <v>29</v>
       </c>
       <c r="G122" t="n">
-        <v>9653</v>
+        <v>9655.833333333334</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K122" t="n">
+        <v>9550</v>
+      </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
@@ -4680,10 +4684,10 @@
         <v>9550</v>
       </c>
       <c r="F123" t="n">
-        <v>147.6525</v>
+        <v>86.9494</v>
       </c>
       <c r="G123" t="n">
-        <v>9643.75</v>
+        <v>9652.75</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4692,8 +4696,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4706,19 +4716,19 @@
         <v>9550</v>
       </c>
       <c r="C124" t="n">
-        <v>9565</v>
+        <v>9550</v>
       </c>
       <c r="D124" t="n">
-        <v>9565</v>
+        <v>9550</v>
       </c>
       <c r="E124" t="n">
         <v>9550</v>
       </c>
       <c r="F124" t="n">
-        <v>84.4032</v>
+        <v>147.6525</v>
       </c>
       <c r="G124" t="n">
-        <v>9634.25</v>
+        <v>9650.916666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4727,8 +4737,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4738,7 +4754,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9555</v>
+        <v>9550</v>
       </c>
       <c r="C125" t="n">
         <v>9565</v>
@@ -4747,23 +4763,31 @@
         <v>9565</v>
       </c>
       <c r="E125" t="n">
-        <v>9555</v>
+        <v>9550</v>
       </c>
       <c r="F125" t="n">
-        <v>24</v>
+        <v>84.4032</v>
       </c>
       <c r="G125" t="n">
-        <v>9628.5</v>
+        <v>9650</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K125" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4773,22 +4797,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>9555</v>
+      </c>
+      <c r="C126" t="n">
         <v>9565</v>
-      </c>
-      <c r="C126" t="n">
-        <v>9560</v>
       </c>
       <c r="D126" t="n">
         <v>9565</v>
       </c>
       <c r="E126" t="n">
-        <v>9560</v>
+        <v>9555</v>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G126" t="n">
-        <v>9622.25</v>
+        <v>9649</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,8 +4821,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4808,22 +4838,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9570</v>
+        <v>9565</v>
       </c>
       <c r="C127" t="n">
-        <v>9570</v>
+        <v>9560</v>
       </c>
       <c r="D127" t="n">
-        <v>9570</v>
+        <v>9565</v>
       </c>
       <c r="E127" t="n">
-        <v>9570</v>
+        <v>9560</v>
       </c>
       <c r="F127" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>9614.75</v>
+        <v>9647.166666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,8 +4862,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4843,22 +4879,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9600</v>
+        <v>9570</v>
       </c>
       <c r="C128" t="n">
-        <v>9600</v>
+        <v>9570</v>
       </c>
       <c r="D128" t="n">
-        <v>9600</v>
+        <v>9570</v>
       </c>
       <c r="E128" t="n">
-        <v>9600</v>
+        <v>9570</v>
       </c>
       <c r="F128" t="n">
-        <v>2.8125</v>
+        <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>9610.75</v>
+        <v>9646.166666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,8 +4903,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4878,22 +4920,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9575</v>
+        <v>9600</v>
       </c>
       <c r="C129" t="n">
-        <v>9575</v>
+        <v>9600</v>
       </c>
       <c r="D129" t="n">
-        <v>9575</v>
+        <v>9600</v>
       </c>
       <c r="E129" t="n">
-        <v>9575</v>
+        <v>9600</v>
       </c>
       <c r="F129" t="n">
-        <v>28</v>
+        <v>2.8125</v>
       </c>
       <c r="G129" t="n">
-        <v>9597.5</v>
+        <v>9645.666666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,8 +4944,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4916,19 +4964,19 @@
         <v>9575</v>
       </c>
       <c r="C130" t="n">
-        <v>9580</v>
+        <v>9575</v>
       </c>
       <c r="D130" t="n">
-        <v>9580</v>
+        <v>9575</v>
       </c>
       <c r="E130" t="n">
         <v>9575</v>
       </c>
       <c r="F130" t="n">
-        <v>46.7765</v>
+        <v>28</v>
       </c>
       <c r="G130" t="n">
-        <v>9594.75</v>
+        <v>9644.333333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4937,8 +4985,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4948,22 +5002,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9590</v>
+        <v>9575</v>
       </c>
       <c r="C131" t="n">
-        <v>9590</v>
+        <v>9580</v>
       </c>
       <c r="D131" t="n">
-        <v>9590</v>
+        <v>9580</v>
       </c>
       <c r="E131" t="n">
-        <v>9590</v>
+        <v>9575</v>
       </c>
       <c r="F131" t="n">
-        <v>22.8415</v>
+        <v>46.7765</v>
       </c>
       <c r="G131" t="n">
-        <v>9592.75</v>
+        <v>9643.416666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4972,8 +5026,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4983,22 +5043,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9570</v>
+        <v>9590</v>
       </c>
       <c r="C132" t="n">
-        <v>9570</v>
+        <v>9590</v>
       </c>
       <c r="D132" t="n">
-        <v>9570</v>
+        <v>9590</v>
       </c>
       <c r="E132" t="n">
-        <v>9570</v>
+        <v>9590</v>
       </c>
       <c r="F132" t="n">
-        <v>7</v>
+        <v>22.8415</v>
       </c>
       <c r="G132" t="n">
-        <v>9589</v>
+        <v>9642.333333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5007,8 +5067,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5018,22 +5084,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9590</v>
+        <v>9570</v>
       </c>
       <c r="C133" t="n">
-        <v>9590</v>
+        <v>9570</v>
       </c>
       <c r="D133" t="n">
-        <v>9590</v>
+        <v>9570</v>
       </c>
       <c r="E133" t="n">
-        <v>9590</v>
+        <v>9570</v>
       </c>
       <c r="F133" t="n">
-        <v>7.249827</v>
+        <v>7</v>
       </c>
       <c r="G133" t="n">
-        <v>9586.25</v>
+        <v>9641</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5042,8 +5108,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5065,10 +5137,10 @@
         <v>9590</v>
       </c>
       <c r="F134" t="n">
-        <v>3.0869</v>
+        <v>7.249827</v>
       </c>
       <c r="G134" t="n">
-        <v>9577</v>
+        <v>9639.666666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5077,8 +5149,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5097,13 +5175,13 @@
         <v>9590</v>
       </c>
       <c r="E135" t="n">
-        <v>9570</v>
+        <v>9590</v>
       </c>
       <c r="F135" t="n">
-        <v>30.337773</v>
+        <v>3.0869</v>
       </c>
       <c r="G135" t="n">
-        <v>9574.5</v>
+        <v>9638.416666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5112,8 +5190,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5126,19 +5210,19 @@
         <v>9590</v>
       </c>
       <c r="C136" t="n">
-        <v>9555</v>
+        <v>9590</v>
       </c>
       <c r="D136" t="n">
         <v>9590</v>
       </c>
       <c r="E136" t="n">
-        <v>9555</v>
+        <v>9570</v>
       </c>
       <c r="F136" t="n">
-        <v>24.4448</v>
+        <v>30.337773</v>
       </c>
       <c r="G136" t="n">
-        <v>9572</v>
+        <v>9637.166666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5147,8 +5231,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5158,22 +5248,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9570</v>
+        <v>9590</v>
       </c>
       <c r="C137" t="n">
         <v>9555</v>
       </c>
       <c r="D137" t="n">
-        <v>9570</v>
+        <v>9590</v>
       </c>
       <c r="E137" t="n">
         <v>9555</v>
       </c>
       <c r="F137" t="n">
-        <v>268.7819</v>
+        <v>24.4448</v>
       </c>
       <c r="G137" t="n">
-        <v>9571.25</v>
+        <v>9636.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5182,8 +5272,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5193,22 +5289,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9635</v>
+        <v>9570</v>
       </c>
       <c r="C138" t="n">
-        <v>9635</v>
+        <v>9555</v>
       </c>
       <c r="D138" t="n">
-        <v>9635</v>
+        <v>9570</v>
       </c>
       <c r="E138" t="n">
-        <v>9635</v>
+        <v>9555</v>
       </c>
       <c r="F138" t="n">
-        <v>1.4075</v>
+        <v>268.7819</v>
       </c>
       <c r="G138" t="n">
-        <v>9574</v>
+        <v>9634.916666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5217,8 +5313,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5228,22 +5330,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9565</v>
+        <v>9635</v>
       </c>
       <c r="C139" t="n">
-        <v>9560</v>
+        <v>9635</v>
       </c>
       <c r="D139" t="n">
-        <v>9565</v>
+        <v>9635</v>
       </c>
       <c r="E139" t="n">
-        <v>9560</v>
+        <v>9635</v>
       </c>
       <c r="F139" t="n">
-        <v>136.6796</v>
+        <v>1.4075</v>
       </c>
       <c r="G139" t="n">
-        <v>9574.25</v>
+        <v>9634.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5252,8 +5354,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5263,22 +5371,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9560</v>
+        <v>9565</v>
       </c>
       <c r="C140" t="n">
         <v>9560</v>
       </c>
       <c r="D140" t="n">
-        <v>9560</v>
+        <v>9565</v>
       </c>
       <c r="E140" t="n">
         <v>9560</v>
       </c>
       <c r="F140" t="n">
-        <v>2.2179</v>
+        <v>136.6796</v>
       </c>
       <c r="G140" t="n">
-        <v>9574.5</v>
+        <v>9633</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5287,8 +5395,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5298,36 +5412,38 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9635</v>
+        <v>9560</v>
       </c>
       <c r="C141" t="n">
-        <v>9635</v>
+        <v>9560</v>
       </c>
       <c r="D141" t="n">
-        <v>9635</v>
+        <v>9560</v>
       </c>
       <c r="E141" t="n">
-        <v>9635</v>
+        <v>9560</v>
       </c>
       <c r="F141" t="n">
-        <v>15.583</v>
+        <v>2.2179</v>
       </c>
       <c r="G141" t="n">
-        <v>9578.75</v>
+        <v>9631.5</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>9560</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>9560</v>
-      </c>
-      <c r="L141" t="inlineStr"/>
+        <v>9550</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5337,38 +5453,36 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9690</v>
+        <v>9635</v>
       </c>
       <c r="C142" t="n">
-        <v>9690</v>
+        <v>9635</v>
       </c>
       <c r="D142" t="n">
-        <v>9690</v>
+        <v>9635</v>
       </c>
       <c r="E142" t="n">
-        <v>9690</v>
+        <v>9635</v>
       </c>
       <c r="F142" t="n">
-        <v>15.4945</v>
+        <v>15.583</v>
       </c>
       <c r="G142" t="n">
-        <v>9585.75</v>
+        <v>9631.083333333334</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>9635</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>9560</v>
+        <v>9550</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M142" t="n">
@@ -5380,38 +5494,36 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>9565</v>
+        <v>9690</v>
       </c>
       <c r="C143" t="n">
-        <v>9565</v>
+        <v>9690</v>
       </c>
       <c r="D143" t="n">
-        <v>9565</v>
+        <v>9690</v>
       </c>
       <c r="E143" t="n">
-        <v>9565</v>
+        <v>9690</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1557</v>
+        <v>15.4945</v>
       </c>
       <c r="G143" t="n">
-        <v>9586.5</v>
+        <v>9631.583333333334</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>9690</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>9560</v>
+        <v>9550</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M143" t="n">
@@ -5423,22 +5535,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>9690</v>
+        <v>9565</v>
       </c>
       <c r="C144" t="n">
-        <v>9690</v>
+        <v>9565</v>
       </c>
       <c r="D144" t="n">
-        <v>9690</v>
+        <v>9565</v>
       </c>
       <c r="E144" t="n">
-        <v>9690</v>
+        <v>9565</v>
       </c>
       <c r="F144" t="n">
-        <v>10</v>
+        <v>0.1557</v>
       </c>
       <c r="G144" t="n">
-        <v>9593.5</v>
+        <v>9630</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5447,8 +5559,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5473,7 +5591,7 @@
         <v>10</v>
       </c>
       <c r="G145" t="n">
-        <v>9600.25</v>
+        <v>9630.666666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5482,8 +5600,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5493,22 +5617,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9585</v>
+        <v>9690</v>
       </c>
       <c r="C146" t="n">
-        <v>9585</v>
+        <v>9690</v>
       </c>
       <c r="D146" t="n">
-        <v>9585</v>
+        <v>9690</v>
       </c>
       <c r="E146" t="n">
-        <v>9585</v>
+        <v>9690</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9046999999999999</v>
+        <v>10</v>
       </c>
       <c r="G146" t="n">
-        <v>9601.25</v>
+        <v>9631.666666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5517,8 +5641,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5528,22 +5658,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9670</v>
+        <v>9585</v>
       </c>
       <c r="C147" t="n">
-        <v>9670</v>
+        <v>9585</v>
       </c>
       <c r="D147" t="n">
-        <v>9670</v>
+        <v>9585</v>
       </c>
       <c r="E147" t="n">
-        <v>9670</v>
+        <v>9585</v>
       </c>
       <c r="F147" t="n">
-        <v>5</v>
+        <v>0.9046999999999999</v>
       </c>
       <c r="G147" t="n">
-        <v>9606.25</v>
+        <v>9630.916666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5552,8 +5682,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5563,7 +5699,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9580</v>
+        <v>9670</v>
       </c>
       <c r="C148" t="n">
         <v>9670</v>
@@ -5572,13 +5708,13 @@
         <v>9670</v>
       </c>
       <c r="E148" t="n">
-        <v>9555</v>
+        <v>9670</v>
       </c>
       <c r="F148" t="n">
-        <v>189.712</v>
+        <v>5</v>
       </c>
       <c r="G148" t="n">
-        <v>9605.25</v>
+        <v>9631.666666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5587,8 +5723,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5598,22 +5740,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9560</v>
+        <v>9580</v>
       </c>
       <c r="C149" t="n">
-        <v>9560</v>
+        <v>9670</v>
       </c>
       <c r="D149" t="n">
-        <v>9560</v>
+        <v>9670</v>
       </c>
       <c r="E149" t="n">
-        <v>9560</v>
+        <v>9555</v>
       </c>
       <c r="F149" t="n">
-        <v>2</v>
+        <v>189.712</v>
       </c>
       <c r="G149" t="n">
-        <v>9604.5</v>
+        <v>9632.416666666666</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5622,8 +5764,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5645,10 +5793,10 @@
         <v>9560</v>
       </c>
       <c r="F150" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G150" t="n">
-        <v>9603.75</v>
+        <v>9631.416666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5657,8 +5805,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5671,19 +5825,19 @@
         <v>9560</v>
       </c>
       <c r="C151" t="n">
-        <v>9555</v>
+        <v>9560</v>
       </c>
       <c r="D151" t="n">
         <v>9560</v>
       </c>
       <c r="E151" t="n">
-        <v>9555</v>
+        <v>9560</v>
       </c>
       <c r="F151" t="n">
-        <v>46.5</v>
+        <v>10</v>
       </c>
       <c r="G151" t="n">
-        <v>9602.25</v>
+        <v>9630.25</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5692,8 +5846,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5703,22 +5863,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9555</v>
+        <v>9560</v>
       </c>
       <c r="C152" t="n">
         <v>9555</v>
       </c>
       <c r="D152" t="n">
-        <v>9555</v>
+        <v>9560</v>
       </c>
       <c r="E152" t="n">
         <v>9555</v>
       </c>
       <c r="F152" t="n">
-        <v>6.8554</v>
+        <v>46.5</v>
       </c>
       <c r="G152" t="n">
-        <v>9601.5</v>
+        <v>9628.416666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5727,8 +5887,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5738,22 +5904,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>9620</v>
+        <v>9555</v>
       </c>
       <c r="C153" t="n">
-        <v>9620</v>
+        <v>9555</v>
       </c>
       <c r="D153" t="n">
-        <v>9620</v>
+        <v>9555</v>
       </c>
       <c r="E153" t="n">
-        <v>9620</v>
+        <v>9555</v>
       </c>
       <c r="F153" t="n">
-        <v>1.0335</v>
+        <v>6.8554</v>
       </c>
       <c r="G153" t="n">
-        <v>9603</v>
+        <v>9627.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5762,8 +5928,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5773,22 +5945,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9555</v>
+        <v>9620</v>
       </c>
       <c r="C154" t="n">
-        <v>9555</v>
+        <v>9620</v>
       </c>
       <c r="D154" t="n">
-        <v>9555</v>
+        <v>9620</v>
       </c>
       <c r="E154" t="n">
-        <v>9555</v>
+        <v>9620</v>
       </c>
       <c r="F154" t="n">
-        <v>0.1295</v>
+        <v>1.0335</v>
       </c>
       <c r="G154" t="n">
-        <v>9601.25</v>
+        <v>9627.666666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5797,8 +5969,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5808,22 +5986,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>9630</v>
+        <v>9555</v>
       </c>
       <c r="C155" t="n">
-        <v>9695</v>
+        <v>9555</v>
       </c>
       <c r="D155" t="n">
-        <v>9695</v>
+        <v>9555</v>
       </c>
       <c r="E155" t="n">
-        <v>9630</v>
+        <v>9555</v>
       </c>
       <c r="F155" t="n">
-        <v>64</v>
+        <v>0.1295</v>
       </c>
       <c r="G155" t="n">
-        <v>9603.25</v>
+        <v>9626.833333333334</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5832,8 +6010,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5843,22 +6027,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>9650</v>
+        <v>9630</v>
       </c>
       <c r="C156" t="n">
-        <v>9650</v>
+        <v>9695</v>
       </c>
       <c r="D156" t="n">
-        <v>9650</v>
+        <v>9695</v>
       </c>
       <c r="E156" t="n">
-        <v>9650</v>
+        <v>9630</v>
       </c>
       <c r="F156" t="n">
-        <v>2.7828</v>
+        <v>64</v>
       </c>
       <c r="G156" t="n">
-        <v>9606.25</v>
+        <v>9628.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5867,8 +6051,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5878,22 +6068,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>9700</v>
+        <v>9650</v>
       </c>
       <c r="C157" t="n">
-        <v>9735</v>
+        <v>9650</v>
       </c>
       <c r="D157" t="n">
-        <v>9735</v>
+        <v>9650</v>
       </c>
       <c r="E157" t="n">
-        <v>9700</v>
+        <v>9650</v>
       </c>
       <c r="F157" t="n">
-        <v>16.5</v>
+        <v>2.7828</v>
       </c>
       <c r="G157" t="n">
-        <v>9612.75</v>
+        <v>9626.083333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5902,8 +6092,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5913,22 +6109,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>9740</v>
+        <v>9700</v>
       </c>
       <c r="C158" t="n">
-        <v>9775</v>
+        <v>9735</v>
       </c>
       <c r="D158" t="n">
-        <v>9775</v>
+        <v>9735</v>
       </c>
       <c r="E158" t="n">
-        <v>9740</v>
+        <v>9700</v>
       </c>
       <c r="F158" t="n">
-        <v>29.91025534</v>
+        <v>16.5</v>
       </c>
       <c r="G158" t="n">
-        <v>9618</v>
+        <v>9624.416666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5937,8 +6133,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5948,22 +6150,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9665</v>
+        <v>9740</v>
       </c>
       <c r="C159" t="n">
-        <v>9665</v>
+        <v>9775</v>
       </c>
       <c r="D159" t="n">
-        <v>9665</v>
+        <v>9775</v>
       </c>
       <c r="E159" t="n">
-        <v>9665</v>
+        <v>9740</v>
       </c>
       <c r="F159" t="n">
-        <v>3.3659</v>
+        <v>29.91025534</v>
       </c>
       <c r="G159" t="n">
-        <v>9623</v>
+        <v>9626.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5972,8 +6174,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5983,22 +6191,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9660</v>
+        <v>9665</v>
       </c>
       <c r="C160" t="n">
-        <v>9660</v>
+        <v>9665</v>
       </c>
       <c r="D160" t="n">
-        <v>9660</v>
+        <v>9665</v>
       </c>
       <c r="E160" t="n">
-        <v>9660</v>
+        <v>9665</v>
       </c>
       <c r="F160" t="n">
-        <v>36.1348</v>
+        <v>3.3659</v>
       </c>
       <c r="G160" t="n">
-        <v>9628</v>
+        <v>9627.166666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6007,8 +6215,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6018,34 +6232,40 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9645</v>
+        <v>9660</v>
       </c>
       <c r="C161" t="n">
-        <v>9745</v>
+        <v>9660</v>
       </c>
       <c r="D161" t="n">
-        <v>9745</v>
+        <v>9660</v>
       </c>
       <c r="E161" t="n">
-        <v>9600</v>
+        <v>9660</v>
       </c>
       <c r="F161" t="n">
-        <v>119.4727</v>
+        <v>36.1348</v>
       </c>
       <c r="G161" t="n">
-        <v>9628.5</v>
+        <v>9627.75</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M161" t="n">
-        <v>1</v>
+        <v>1.00651832460733</v>
       </c>
     </row>
     <row r="162">
@@ -6053,7 +6273,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>9745</v>
+        <v>9645</v>
       </c>
       <c r="C162" t="n">
         <v>9745</v>
@@ -6062,13 +6282,13 @@
         <v>9745</v>
       </c>
       <c r="E162" t="n">
-        <v>9745</v>
+        <v>9600</v>
       </c>
       <c r="F162" t="n">
-        <v>31.9097</v>
+        <v>119.4727</v>
       </c>
       <c r="G162" t="n">
-        <v>9631.25</v>
+        <v>9629.75</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6088,22 +6308,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>9740</v>
+        <v>9745</v>
       </c>
       <c r="C163" t="n">
-        <v>9675</v>
+        <v>9745</v>
       </c>
       <c r="D163" t="n">
-        <v>9780</v>
+        <v>9745</v>
       </c>
       <c r="E163" t="n">
-        <v>9675</v>
+        <v>9745</v>
       </c>
       <c r="F163" t="n">
-        <v>86.8969</v>
+        <v>31.9097</v>
       </c>
       <c r="G163" t="n">
-        <v>9640</v>
+        <v>9632.083333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6123,22 +6343,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>9800</v>
+        <v>9740</v>
       </c>
       <c r="C164" t="n">
-        <v>9815</v>
+        <v>9675</v>
       </c>
       <c r="D164" t="n">
-        <v>9815</v>
+        <v>9780</v>
       </c>
       <c r="E164" t="n">
-        <v>9800</v>
+        <v>9675</v>
       </c>
       <c r="F164" t="n">
-        <v>0.1111</v>
+        <v>86.8969</v>
       </c>
       <c r="G164" t="n">
-        <v>9645.5</v>
+        <v>9631</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6158,22 +6378,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>9710</v>
+        <v>9800</v>
       </c>
       <c r="C165" t="n">
-        <v>9710</v>
+        <v>9815</v>
       </c>
       <c r="D165" t="n">
-        <v>9710</v>
+        <v>9815</v>
       </c>
       <c r="E165" t="n">
-        <v>9710</v>
+        <v>9800</v>
       </c>
       <c r="F165" t="n">
-        <v>0.1003</v>
+        <v>0.1111</v>
       </c>
       <c r="G165" t="n">
-        <v>9646.5</v>
+        <v>9630.416666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6193,22 +6413,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>9830</v>
+        <v>9710</v>
       </c>
       <c r="C166" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="D166" t="n">
-        <v>9830</v>
+        <v>9710</v>
       </c>
       <c r="E166" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="F166" t="n">
-        <v>27.5215</v>
+        <v>0.1003</v>
       </c>
       <c r="G166" t="n">
-        <v>9658.75</v>
+        <v>9628.25</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6231,19 +6451,19 @@
         <v>9830</v>
       </c>
       <c r="C167" t="n">
-        <v>9830</v>
+        <v>9705</v>
       </c>
       <c r="D167" t="n">
         <v>9830</v>
       </c>
       <c r="E167" t="n">
-        <v>9830</v>
+        <v>9705</v>
       </c>
       <c r="F167" t="n">
-        <v>0.1</v>
+        <v>27.5215</v>
       </c>
       <c r="G167" t="n">
-        <v>9666.75</v>
+        <v>9626.166666666666</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6263,22 +6483,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>9735</v>
+        <v>9830</v>
       </c>
       <c r="C168" t="n">
-        <v>9735</v>
+        <v>9830</v>
       </c>
       <c r="D168" t="n">
-        <v>9735</v>
+        <v>9830</v>
       </c>
       <c r="E168" t="n">
-        <v>9735</v>
+        <v>9830</v>
       </c>
       <c r="F168" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G168" t="n">
-        <v>9674.5</v>
+        <v>9629.75</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6298,22 +6518,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>9740</v>
+        <v>9735</v>
       </c>
       <c r="C169" t="n">
-        <v>9730</v>
+        <v>9735</v>
       </c>
       <c r="D169" t="n">
-        <v>9740</v>
+        <v>9735</v>
       </c>
       <c r="E169" t="n">
-        <v>9730</v>
+        <v>9735</v>
       </c>
       <c r="F169" t="n">
-        <v>57.9852</v>
+        <v>10</v>
       </c>
       <c r="G169" t="n">
-        <v>9683.5</v>
+        <v>9628.666666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6333,22 +6553,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>9775</v>
+        <v>9740</v>
       </c>
       <c r="C170" t="n">
-        <v>9775</v>
+        <v>9730</v>
       </c>
       <c r="D170" t="n">
-        <v>9780</v>
+        <v>9740</v>
       </c>
       <c r="E170" t="n">
-        <v>9765</v>
+        <v>9730</v>
       </c>
       <c r="F170" t="n">
-        <v>44.4896</v>
+        <v>57.9852</v>
       </c>
       <c r="G170" t="n">
-        <v>9694.25</v>
+        <v>9626.833333333334</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6368,22 +6588,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>9750</v>
+        <v>9775</v>
       </c>
       <c r="C171" t="n">
-        <v>9750</v>
+        <v>9775</v>
       </c>
       <c r="D171" t="n">
-        <v>9750</v>
+        <v>9780</v>
       </c>
       <c r="E171" t="n">
-        <v>9750</v>
+        <v>9765</v>
       </c>
       <c r="F171" t="n">
-        <v>2</v>
+        <v>44.4896</v>
       </c>
       <c r="G171" t="n">
-        <v>9703.75</v>
+        <v>9629.25</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6403,22 +6623,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>9795</v>
+        <v>9750</v>
       </c>
       <c r="C172" t="n">
-        <v>9795</v>
+        <v>9750</v>
       </c>
       <c r="D172" t="n">
-        <v>9795</v>
+        <v>9750</v>
       </c>
       <c r="E172" t="n">
-        <v>9795</v>
+        <v>9750</v>
       </c>
       <c r="F172" t="n">
-        <v>10.1936</v>
+        <v>2</v>
       </c>
       <c r="G172" t="n">
-        <v>9715.75</v>
+        <v>9631.25</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6438,22 +6658,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>9800</v>
+        <v>9795</v>
       </c>
       <c r="C173" t="n">
-        <v>9790</v>
+        <v>9795</v>
       </c>
       <c r="D173" t="n">
-        <v>9800</v>
+        <v>9795</v>
       </c>
       <c r="E173" t="n">
-        <v>9790</v>
+        <v>9795</v>
       </c>
       <c r="F173" t="n">
-        <v>22</v>
+        <v>10.1936</v>
       </c>
       <c r="G173" t="n">
-        <v>9724.75</v>
+        <v>9633.75</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6473,22 +6693,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>9800</v>
+      </c>
+      <c r="C174" t="n">
         <v>9790</v>
       </c>
-      <c r="C174" t="n">
-        <v>9785</v>
-      </c>
       <c r="D174" t="n">
+        <v>9800</v>
+      </c>
+      <c r="E174" t="n">
         <v>9790</v>
       </c>
-      <c r="E174" t="n">
-        <v>9785</v>
-      </c>
       <c r="F174" t="n">
-        <v>42.04</v>
+        <v>22</v>
       </c>
       <c r="G174" t="n">
-        <v>9736.5</v>
+        <v>9636.166666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6508,22 +6728,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>9810</v>
+        <v>9790</v>
       </c>
       <c r="C175" t="n">
+        <v>9785</v>
+      </c>
+      <c r="D175" t="n">
         <v>9790</v>
       </c>
-      <c r="D175" t="n">
-        <v>9810</v>
-      </c>
       <c r="E175" t="n">
-        <v>9790</v>
+        <v>9785</v>
       </c>
       <c r="F175" t="n">
-        <v>9</v>
+        <v>42.04</v>
       </c>
       <c r="G175" t="n">
-        <v>9745.5</v>
+        <v>9638.583333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6543,22 +6763,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>9790</v>
+        <v>9810</v>
       </c>
       <c r="C176" t="n">
         <v>9790</v>
       </c>
       <c r="D176" t="n">
-        <v>9790</v>
+        <v>9810</v>
       </c>
       <c r="E176" t="n">
         <v>9790</v>
       </c>
       <c r="F176" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G176" t="n">
-        <v>9752.5</v>
+        <v>9641.083333333334</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6581,19 +6801,19 @@
         <v>9790</v>
       </c>
       <c r="C177" t="n">
-        <v>9680</v>
+        <v>9790</v>
       </c>
       <c r="D177" t="n">
         <v>9790</v>
       </c>
       <c r="E177" t="n">
-        <v>9680</v>
+        <v>9790</v>
       </c>
       <c r="F177" t="n">
-        <v>60.7837</v>
+        <v>2</v>
       </c>
       <c r="G177" t="n">
-        <v>9757</v>
+        <v>9644.583333333334</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6613,22 +6833,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>9690</v>
+        <v>9790</v>
       </c>
       <c r="C178" t="n">
-        <v>9690</v>
+        <v>9680</v>
       </c>
       <c r="D178" t="n">
-        <v>9690</v>
+        <v>9790</v>
       </c>
       <c r="E178" t="n">
-        <v>9690</v>
+        <v>9680</v>
       </c>
       <c r="F178" t="n">
-        <v>7.0671</v>
+        <v>60.7837</v>
       </c>
       <c r="G178" t="n">
-        <v>9754.5</v>
+        <v>9646.333333333334</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6648,22 +6868,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>9790</v>
+        <v>9690</v>
       </c>
       <c r="C179" t="n">
-        <v>9790</v>
+        <v>9690</v>
       </c>
       <c r="D179" t="n">
-        <v>9790</v>
+        <v>9690</v>
       </c>
       <c r="E179" t="n">
-        <v>9790</v>
+        <v>9690</v>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>7.0671</v>
       </c>
       <c r="G179" t="n">
-        <v>9760.75</v>
+        <v>9647.916666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6698,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>9767.25</v>
+        <v>9651.916666666666</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6733,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>9774.5</v>
+        <v>9655.916666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6765,10 +6985,10 @@
         <v>9790</v>
       </c>
       <c r="F182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>9776.75</v>
+        <v>9659.916666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6803,7 +7023,7 @@
         <v>2</v>
       </c>
       <c r="G183" t="n">
-        <v>9779.25</v>
+        <v>9663.916666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6835,10 +7055,10 @@
         <v>9790</v>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G184" t="n">
-        <v>9778.75</v>
+        <v>9667.916666666666</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6858,22 +7078,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>9690</v>
+        <v>9790</v>
       </c>
       <c r="C185" t="n">
-        <v>9685</v>
+        <v>9790</v>
       </c>
       <c r="D185" t="n">
-        <v>9690</v>
+        <v>9790</v>
       </c>
       <c r="E185" t="n">
-        <v>9685</v>
+        <v>9790</v>
       </c>
       <c r="F185" t="n">
-        <v>59.66</v>
+        <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>9777.75</v>
+        <v>9671.666666666666</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6896,19 +7116,19 @@
         <v>9690</v>
       </c>
       <c r="C186" t="n">
-        <v>9730</v>
+        <v>9685</v>
       </c>
       <c r="D186" t="n">
-        <v>9730</v>
+        <v>9690</v>
       </c>
       <c r="E186" t="n">
-        <v>9690</v>
+        <v>9685</v>
       </c>
       <c r="F186" t="n">
-        <v>34.2022</v>
+        <v>59.66</v>
       </c>
       <c r="G186" t="n">
-        <v>9770.75</v>
+        <v>9673.666666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6928,22 +7148,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>9720</v>
+        <v>9690</v>
       </c>
       <c r="C187" t="n">
-        <v>9720</v>
+        <v>9730</v>
       </c>
       <c r="D187" t="n">
-        <v>9720</v>
+        <v>9730</v>
       </c>
       <c r="E187" t="n">
-        <v>9720</v>
+        <v>9690</v>
       </c>
       <c r="F187" t="n">
-        <v>2</v>
+        <v>34.2022</v>
       </c>
       <c r="G187" t="n">
-        <v>9765.25</v>
+        <v>9676.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6963,22 +7183,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>9715</v>
+        <v>9720</v>
       </c>
       <c r="C188" t="n">
-        <v>9740</v>
+        <v>9720</v>
       </c>
       <c r="D188" t="n">
-        <v>9740</v>
+        <v>9720</v>
       </c>
       <c r="E188" t="n">
-        <v>9715</v>
+        <v>9720</v>
       </c>
       <c r="F188" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G188" t="n">
-        <v>9764.25</v>
+        <v>9679</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6998,22 +7218,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>9750</v>
+        <v>9715</v>
       </c>
       <c r="C189" t="n">
-        <v>9760</v>
+        <v>9740</v>
       </c>
       <c r="D189" t="n">
-        <v>9760</v>
+        <v>9740</v>
       </c>
       <c r="E189" t="n">
-        <v>9750</v>
+        <v>9715</v>
       </c>
       <c r="F189" t="n">
-        <v>27.3785</v>
+        <v>4</v>
       </c>
       <c r="G189" t="n">
-        <v>9764.75</v>
+        <v>9681.333333333334</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7033,22 +7253,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>9745</v>
+        <v>9750</v>
       </c>
       <c r="C190" t="n">
-        <v>9745</v>
+        <v>9760</v>
       </c>
       <c r="D190" t="n">
-        <v>9745</v>
+        <v>9760</v>
       </c>
       <c r="E190" t="n">
-        <v>9745</v>
+        <v>9750</v>
       </c>
       <c r="F190" t="n">
-        <v>3.3275</v>
+        <v>27.3785</v>
       </c>
       <c r="G190" t="n">
-        <v>9763.25</v>
+        <v>9684.416666666666</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7068,22 +7288,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>9795</v>
+        <v>9745</v>
       </c>
       <c r="C191" t="n">
-        <v>9795</v>
+        <v>9745</v>
       </c>
       <c r="D191" t="n">
-        <v>9795</v>
+        <v>9745</v>
       </c>
       <c r="E191" t="n">
-        <v>9795</v>
+        <v>9745</v>
       </c>
       <c r="F191" t="n">
-        <v>151.2593</v>
+        <v>3.3275</v>
       </c>
       <c r="G191" t="n">
-        <v>9765.5</v>
+        <v>9687.166666666666</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7103,22 +7323,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>9805</v>
+        <v>9795</v>
       </c>
       <c r="C192" t="n">
-        <v>9705</v>
+        <v>9795</v>
       </c>
       <c r="D192" t="n">
-        <v>9805</v>
+        <v>9795</v>
       </c>
       <c r="E192" t="n">
-        <v>9705</v>
+        <v>9795</v>
       </c>
       <c r="F192" t="n">
-        <v>9.099399999999999</v>
+        <v>151.2593</v>
       </c>
       <c r="G192" t="n">
-        <v>9766</v>
+        <v>9690.583333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7138,22 +7358,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="C193" t="n">
-        <v>9805</v>
+        <v>9705</v>
       </c>
       <c r="D193" t="n">
         <v>9805</v>
       </c>
       <c r="E193" t="n">
-        <v>9800</v>
+        <v>9705</v>
       </c>
       <c r="F193" t="n">
-        <v>31.7687</v>
+        <v>9.099399999999999</v>
       </c>
       <c r="G193" t="n">
-        <v>9766</v>
+        <v>9692.833333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7173,22 +7393,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>9795</v>
+        <v>9800</v>
       </c>
       <c r="C194" t="n">
-        <v>9795</v>
+        <v>9805</v>
       </c>
       <c r="D194" t="n">
-        <v>9795</v>
+        <v>9805</v>
       </c>
       <c r="E194" t="n">
-        <v>9795</v>
+        <v>9800</v>
       </c>
       <c r="F194" t="n">
-        <v>14</v>
+        <v>31.7687</v>
       </c>
       <c r="G194" t="n">
-        <v>9766.25</v>
+        <v>9696.416666666666</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7208,22 +7428,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>9725</v>
+        <v>9795</v>
       </c>
       <c r="C195" t="n">
-        <v>9725</v>
+        <v>9795</v>
       </c>
       <c r="D195" t="n">
-        <v>9725</v>
+        <v>9795</v>
       </c>
       <c r="E195" t="n">
-        <v>9725</v>
+        <v>9795</v>
       </c>
       <c r="F195" t="n">
-        <v>42.0887</v>
+        <v>14</v>
       </c>
       <c r="G195" t="n">
-        <v>9762</v>
+        <v>9699.833333333334</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7246,19 +7466,19 @@
         <v>9725</v>
       </c>
       <c r="C196" t="n">
-        <v>9720</v>
+        <v>9725</v>
       </c>
       <c r="D196" t="n">
         <v>9725</v>
       </c>
       <c r="E196" t="n">
-        <v>9720</v>
+        <v>9725</v>
       </c>
       <c r="F196" t="n">
-        <v>61.9842</v>
+        <v>42.0887</v>
       </c>
       <c r="G196" t="n">
-        <v>9758.75</v>
+        <v>9702.083333333334</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7278,22 +7498,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>9775</v>
+        <v>9725</v>
       </c>
       <c r="C197" t="n">
         <v>9720</v>
       </c>
       <c r="D197" t="n">
-        <v>9775</v>
+        <v>9725</v>
       </c>
       <c r="E197" t="n">
         <v>9720</v>
       </c>
       <c r="F197" t="n">
-        <v>36.0677</v>
+        <v>61.9842</v>
       </c>
       <c r="G197" t="n">
-        <v>9758</v>
+        <v>9704.833333333334</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7313,22 +7533,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>9770</v>
+        <v>9775</v>
       </c>
       <c r="C198" t="n">
-        <v>9765</v>
+        <v>9720</v>
       </c>
       <c r="D198" t="n">
-        <v>9770</v>
+        <v>9775</v>
       </c>
       <c r="E198" t="n">
-        <v>9725</v>
+        <v>9720</v>
       </c>
       <c r="F198" t="n">
-        <v>45.0758</v>
+        <v>36.0677</v>
       </c>
       <c r="G198" t="n">
-        <v>9762</v>
+        <v>9707.583333333334</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7348,22 +7568,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>9770</v>
+      </c>
+      <c r="C199" t="n">
         <v>9765</v>
       </c>
-      <c r="C199" t="n">
-        <v>9730</v>
-      </c>
       <c r="D199" t="n">
-        <v>9765</v>
+        <v>9770</v>
       </c>
       <c r="E199" t="n">
         <v>9725</v>
       </c>
       <c r="F199" t="n">
-        <v>91.51949999999999</v>
+        <v>45.0758</v>
       </c>
       <c r="G199" t="n">
-        <v>9760.75</v>
+        <v>9709.75</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7383,22 +7603,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>9765</v>
+      </c>
+      <c r="C200" t="n">
         <v>9730</v>
       </c>
-      <c r="C200" t="n">
+      <c r="D200" t="n">
         <v>9765</v>
       </c>
-      <c r="D200" t="n">
-        <v>9770</v>
-      </c>
       <c r="E200" t="n">
-        <v>9730</v>
+        <v>9725</v>
       </c>
       <c r="F200" t="n">
-        <v>142.6664</v>
+        <v>91.51949999999999</v>
       </c>
       <c r="G200" t="n">
-        <v>9757.75</v>
+        <v>9712.583333333334</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7418,22 +7638,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>9775</v>
+        <v>9730</v>
       </c>
       <c r="C201" t="n">
-        <v>9775</v>
+        <v>9765</v>
       </c>
       <c r="D201" t="n">
-        <v>9775</v>
+        <v>9770</v>
       </c>
       <c r="E201" t="n">
-        <v>9775</v>
+        <v>9730</v>
       </c>
       <c r="F201" t="n">
-        <v>1</v>
+        <v>142.6664</v>
       </c>
       <c r="G201" t="n">
-        <v>9757</v>
+        <v>9716</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7453,22 +7673,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>9765</v>
+        <v>9775</v>
       </c>
       <c r="C202" t="n">
-        <v>9795</v>
+        <v>9775</v>
       </c>
       <c r="D202" t="n">
-        <v>9795</v>
+        <v>9775</v>
       </c>
       <c r="E202" t="n">
-        <v>9765</v>
+        <v>9775</v>
       </c>
       <c r="F202" t="n">
-        <v>67.86190000000001</v>
+        <v>1</v>
       </c>
       <c r="G202" t="n">
-        <v>9755.75</v>
+        <v>9718.333333333334</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7488,22 +7708,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>9755</v>
+        <v>9765</v>
       </c>
       <c r="C203" t="n">
-        <v>9755</v>
+        <v>9795</v>
       </c>
       <c r="D203" t="n">
-        <v>9755</v>
+        <v>9795</v>
       </c>
       <c r="E203" t="n">
-        <v>9755</v>
+        <v>9765</v>
       </c>
       <c r="F203" t="n">
-        <v>31.0583</v>
+        <v>67.86190000000001</v>
       </c>
       <c r="G203" t="n">
-        <v>9754</v>
+        <v>9720.083333333334</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7523,22 +7743,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>9740</v>
+        <v>9755</v>
       </c>
       <c r="C204" t="n">
-        <v>9740</v>
+        <v>9755</v>
       </c>
       <c r="D204" t="n">
-        <v>9740</v>
+        <v>9755</v>
       </c>
       <c r="E204" t="n">
-        <v>9740</v>
+        <v>9755</v>
       </c>
       <c r="F204" t="n">
-        <v>10</v>
+        <v>31.0583</v>
       </c>
       <c r="G204" t="n">
-        <v>9751.5</v>
+        <v>9723.25</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7561,19 +7781,19 @@
         <v>9740</v>
       </c>
       <c r="C205" t="n">
-        <v>9710</v>
+        <v>9740</v>
       </c>
       <c r="D205" t="n">
         <v>9740</v>
       </c>
       <c r="E205" t="n">
-        <v>9710</v>
+        <v>9740</v>
       </c>
       <c r="F205" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="G205" t="n">
-        <v>9754</v>
+        <v>9724.083333333334</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7593,22 +7813,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>9715</v>
+        <v>9740</v>
       </c>
       <c r="C206" t="n">
-        <v>9715</v>
+        <v>9710</v>
       </c>
       <c r="D206" t="n">
-        <v>9715</v>
+        <v>9740</v>
       </c>
       <c r="E206" t="n">
-        <v>9715</v>
+        <v>9710</v>
       </c>
       <c r="F206" t="n">
-        <v>0.2</v>
+        <v>8.5</v>
       </c>
       <c r="G206" t="n">
-        <v>9755.25</v>
+        <v>9724.416666666666</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7628,22 +7848,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>9720</v>
+        <v>9715</v>
       </c>
       <c r="C207" t="n">
-        <v>9700</v>
+        <v>9715</v>
       </c>
       <c r="D207" t="n">
-        <v>9720</v>
+        <v>9715</v>
       </c>
       <c r="E207" t="n">
-        <v>9700</v>
+        <v>9715</v>
       </c>
       <c r="F207" t="n">
-        <v>102</v>
+        <v>0.2</v>
       </c>
       <c r="G207" t="n">
-        <v>9755.25</v>
+        <v>9726.583333333334</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7663,22 +7883,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>9700</v>
+        <v>9720</v>
       </c>
       <c r="C208" t="n">
         <v>9700</v>
       </c>
       <c r="D208" t="n">
-        <v>9700</v>
+        <v>9720</v>
       </c>
       <c r="E208" t="n">
         <v>9700</v>
       </c>
       <c r="F208" t="n">
-        <v>31.0381</v>
+        <v>102</v>
       </c>
       <c r="G208" t="n">
-        <v>9754.5</v>
+        <v>9727.083333333334</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7701,19 +7921,19 @@
         <v>9700</v>
       </c>
       <c r="C209" t="n">
-        <v>9675</v>
+        <v>9700</v>
       </c>
       <c r="D209" t="n">
         <v>9700</v>
       </c>
       <c r="E209" t="n">
-        <v>9675</v>
+        <v>9700</v>
       </c>
       <c r="F209" t="n">
-        <v>8.5</v>
+        <v>31.0381</v>
       </c>
       <c r="G209" t="n">
-        <v>9752</v>
+        <v>9727.583333333334</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7733,22 +7953,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C210" t="n">
         <v>9675</v>
       </c>
-      <c r="C210" t="n">
-        <v>9670</v>
-      </c>
       <c r="D210" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E210" t="n">
         <v>9675</v>
       </c>
-      <c r="E210" t="n">
-        <v>9670</v>
-      </c>
       <c r="F210" t="n">
-        <v>279.3431</v>
+        <v>8.5</v>
       </c>
       <c r="G210" t="n">
-        <v>9748.5</v>
+        <v>9729.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7768,22 +7988,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>9670</v>
+        <v>9675</v>
       </c>
       <c r="C211" t="n">
         <v>9670</v>
       </c>
       <c r="D211" t="n">
-        <v>9670</v>
+        <v>9675</v>
       </c>
       <c r="E211" t="n">
         <v>9670</v>
       </c>
       <c r="F211" t="n">
-        <v>20</v>
+        <v>279.3431</v>
       </c>
       <c r="G211" t="n">
-        <v>9742.25</v>
+        <v>9731.333333333334</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7803,22 +8023,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>9700</v>
+        <v>9670</v>
       </c>
       <c r="C212" t="n">
-        <v>9700</v>
+        <v>9670</v>
       </c>
       <c r="D212" t="n">
-        <v>9700</v>
+        <v>9670</v>
       </c>
       <c r="E212" t="n">
-        <v>9700</v>
+        <v>9670</v>
       </c>
       <c r="F212" t="n">
         <v>20</v>
       </c>
       <c r="G212" t="n">
-        <v>9737</v>
+        <v>9733.25</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7838,22 +8058,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="C213" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="D213" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="E213" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="F213" t="n">
         <v>20</v>
       </c>
       <c r="G213" t="n">
-        <v>9732.5</v>
+        <v>9735.666666666666</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7873,22 +8093,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="C214" t="n">
-        <v>9670</v>
+        <v>9710</v>
       </c>
       <c r="D214" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="E214" t="n">
-        <v>9670</v>
+        <v>9710</v>
       </c>
       <c r="F214" t="n">
-        <v>160.4838</v>
+        <v>20</v>
       </c>
       <c r="G214" t="n">
-        <v>9728</v>
+        <v>9737.166666666666</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7908,22 +8128,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>9700</v>
+        <v>9705</v>
       </c>
       <c r="C215" t="n">
-        <v>9700</v>
+        <v>9670</v>
       </c>
       <c r="D215" t="n">
-        <v>9700</v>
+        <v>9705</v>
       </c>
       <c r="E215" t="n">
-        <v>9700</v>
+        <v>9670</v>
       </c>
       <c r="F215" t="n">
-        <v>15.464</v>
+        <v>160.4838</v>
       </c>
       <c r="G215" t="n">
-        <v>9726.75</v>
+        <v>9739.083333333334</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7943,22 +8163,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>9680</v>
+        <v>9700</v>
       </c>
       <c r="C216" t="n">
-        <v>9680</v>
+        <v>9700</v>
       </c>
       <c r="D216" t="n">
-        <v>9680</v>
+        <v>9700</v>
       </c>
       <c r="E216" t="n">
-        <v>9680</v>
+        <v>9700</v>
       </c>
       <c r="F216" t="n">
-        <v>11.308</v>
+        <v>15.464</v>
       </c>
       <c r="G216" t="n">
-        <v>9724.5</v>
+        <v>9739.166666666666</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7981,19 +8201,19 @@
         <v>9680</v>
       </c>
       <c r="C217" t="n">
-        <v>9565</v>
+        <v>9680</v>
       </c>
       <c r="D217" t="n">
         <v>9680</v>
       </c>
       <c r="E217" t="n">
-        <v>9565</v>
+        <v>9680</v>
       </c>
       <c r="F217" t="n">
-        <v>1201.8756</v>
+        <v>11.308</v>
       </c>
       <c r="G217" t="n">
-        <v>9719.75</v>
+        <v>9739.666666666666</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8013,22 +8233,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>9685</v>
+        <v>9680</v>
       </c>
       <c r="C218" t="n">
-        <v>9685</v>
+        <v>9565</v>
       </c>
       <c r="D218" t="n">
-        <v>9685</v>
+        <v>9680</v>
       </c>
       <c r="E218" t="n">
-        <v>9685</v>
+        <v>9565</v>
       </c>
       <c r="F218" t="n">
-        <v>9</v>
+        <v>1201.8756</v>
       </c>
       <c r="G218" t="n">
-        <v>9715.5</v>
+        <v>9736.833333333334</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8048,22 +8268,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>9700</v>
+        <v>9685</v>
       </c>
       <c r="C219" t="n">
-        <v>9700</v>
+        <v>9685</v>
       </c>
       <c r="D219" t="n">
-        <v>9700</v>
+        <v>9685</v>
       </c>
       <c r="E219" t="n">
-        <v>9700</v>
+        <v>9685</v>
       </c>
       <c r="F219" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G219" t="n">
-        <v>9712.25</v>
+        <v>9735.333333333334</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8083,22 +8303,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>9635</v>
+        <v>9700</v>
       </c>
       <c r="C220" t="n">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="D220" t="n">
-        <v>9635</v>
+        <v>9700</v>
       </c>
       <c r="E220" t="n">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="F220" t="n">
-        <v>71.2296</v>
+        <v>19</v>
       </c>
       <c r="G220" t="n">
-        <v>9707.5</v>
+        <v>9735.916666666666</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8118,22 +8338,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>9610</v>
+        <v>9635</v>
       </c>
       <c r="C221" t="n">
-        <v>9610</v>
+        <v>9600</v>
       </c>
       <c r="D221" t="n">
-        <v>9610</v>
+        <v>9635</v>
       </c>
       <c r="E221" t="n">
-        <v>9610</v>
+        <v>9600</v>
       </c>
       <c r="F221" t="n">
-        <v>30</v>
+        <v>71.2296</v>
       </c>
       <c r="G221" t="n">
-        <v>9699.25</v>
+        <v>9734.916666666666</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8153,22 +8373,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>9645</v>
+        <v>9610</v>
       </c>
       <c r="C222" t="n">
-        <v>9645</v>
+        <v>9610</v>
       </c>
       <c r="D222" t="n">
-        <v>9645</v>
+        <v>9610</v>
       </c>
       <c r="E222" t="n">
-        <v>9645</v>
+        <v>9610</v>
       </c>
       <c r="F222" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G222" t="n">
-        <v>9693.25</v>
+        <v>9732.666666666666</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8200,10 +8420,10 @@
         <v>9645</v>
       </c>
       <c r="F223" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G223" t="n">
-        <v>9687.75</v>
+        <v>9731</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8223,22 +8443,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>9615</v>
+        <v>9645</v>
       </c>
       <c r="C224" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="D224" t="n">
         <v>9645</v>
       </c>
       <c r="E224" t="n">
-        <v>9615</v>
+        <v>9645</v>
       </c>
       <c r="F224" t="n">
-        <v>77.9478</v>
+        <v>25</v>
       </c>
       <c r="G224" t="n">
-        <v>9681.5</v>
+        <v>9730.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8258,22 +8478,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
+        <v>9615</v>
+      </c>
+      <c r="C225" t="n">
         <v>9640</v>
-      </c>
-      <c r="C225" t="n">
-        <v>9645</v>
       </c>
       <c r="D225" t="n">
         <v>9645</v>
       </c>
       <c r="E225" t="n">
-        <v>9640</v>
+        <v>9615</v>
       </c>
       <c r="F225" t="n">
-        <v>33.04</v>
+        <v>77.9478</v>
       </c>
       <c r="G225" t="n">
-        <v>9676.5</v>
+        <v>9727.583333333334</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8293,7 +8513,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>9645</v>
+        <v>9640</v>
       </c>
       <c r="C226" t="n">
         <v>9645</v>
@@ -8302,13 +8522,13 @@
         <v>9645</v>
       </c>
       <c r="E226" t="n">
-        <v>9645</v>
+        <v>9640</v>
       </c>
       <c r="F226" t="n">
-        <v>22</v>
+        <v>33.04</v>
       </c>
       <c r="G226" t="n">
-        <v>9673</v>
+        <v>9726.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8340,10 +8560,10 @@
         <v>9645</v>
       </c>
       <c r="F227" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G227" t="n">
-        <v>9669.25</v>
+        <v>9725.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8366,19 +8586,19 @@
         <v>9645</v>
       </c>
       <c r="C228" t="n">
-        <v>9675</v>
+        <v>9645</v>
       </c>
       <c r="D228" t="n">
-        <v>9675</v>
+        <v>9645</v>
       </c>
       <c r="E228" t="n">
         <v>9645</v>
       </c>
       <c r="F228" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G228" t="n">
-        <v>9666.5</v>
+        <v>9722.416666666666</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8398,22 +8618,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
+        <v>9645</v>
+      </c>
+      <c r="C229" t="n">
         <v>9675</v>
       </c>
-      <c r="C229" t="n">
-        <v>9700</v>
-      </c>
       <c r="D229" t="n">
-        <v>9700</v>
+        <v>9675</v>
       </c>
       <c r="E229" t="n">
-        <v>9675</v>
+        <v>9645</v>
       </c>
       <c r="F229" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="G229" t="n">
-        <v>9665.25</v>
+        <v>9721.416666666666</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8433,22 +8653,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>9695</v>
+        <v>9675</v>
       </c>
       <c r="C230" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="D230" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="E230" t="n">
-        <v>9695</v>
+        <v>9675</v>
       </c>
       <c r="F230" t="n">
-        <v>18.0136</v>
+        <v>46</v>
       </c>
       <c r="G230" t="n">
-        <v>9666.25</v>
+        <v>9720.916666666666</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8468,22 +8688,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="C231" t="n">
-        <v>9770</v>
+        <v>9695</v>
       </c>
       <c r="D231" t="n">
-        <v>9770</v>
+        <v>9695</v>
       </c>
       <c r="E231" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="F231" t="n">
-        <v>180.0002</v>
+        <v>18.0136</v>
       </c>
       <c r="G231" t="n">
-        <v>9667.75</v>
+        <v>9719.583333333334</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8503,22 +8723,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>9795</v>
+        <v>9700</v>
       </c>
       <c r="C232" t="n">
-        <v>9825</v>
+        <v>9770</v>
       </c>
       <c r="D232" t="n">
-        <v>9825</v>
+        <v>9770</v>
       </c>
       <c r="E232" t="n">
-        <v>9795</v>
+        <v>9700</v>
       </c>
       <c r="F232" t="n">
-        <v>178</v>
+        <v>180.0002</v>
       </c>
       <c r="G232" t="n">
-        <v>9672.5</v>
+        <v>9719.916666666666</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8538,22 +8758,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
+        <v>9795</v>
+      </c>
+      <c r="C233" t="n">
         <v>9825</v>
       </c>
-      <c r="C233" t="n">
-        <v>9845</v>
-      </c>
       <c r="D233" t="n">
-        <v>9845</v>
+        <v>9825</v>
       </c>
       <c r="E233" t="n">
-        <v>9825</v>
+        <v>9795</v>
       </c>
       <c r="F233" t="n">
-        <v>355.5</v>
+        <v>178</v>
       </c>
       <c r="G233" t="n">
-        <v>9678.25</v>
+        <v>9720.416666666666</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8573,22 +8793,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>9740</v>
+        <v>9825</v>
       </c>
       <c r="C234" t="n">
-        <v>9740</v>
+        <v>9845</v>
       </c>
       <c r="D234" t="n">
-        <v>9740</v>
+        <v>9845</v>
       </c>
       <c r="E234" t="n">
-        <v>9740</v>
+        <v>9825</v>
       </c>
       <c r="F234" t="n">
-        <v>4</v>
+        <v>355.5</v>
       </c>
       <c r="G234" t="n">
-        <v>9680</v>
+        <v>9721.333333333334</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8608,22 +8828,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>9840</v>
+        <v>9740</v>
       </c>
       <c r="C235" t="n">
-        <v>9850</v>
+        <v>9740</v>
       </c>
       <c r="D235" t="n">
-        <v>9850</v>
+        <v>9740</v>
       </c>
       <c r="E235" t="n">
-        <v>9840</v>
+        <v>9740</v>
       </c>
       <c r="F235" t="n">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="G235" t="n">
-        <v>9687</v>
+        <v>9720.583333333334</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8643,22 +8863,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>9780</v>
+        <v>9840</v>
       </c>
       <c r="C236" t="n">
-        <v>9780</v>
+        <v>9850</v>
       </c>
       <c r="D236" t="n">
-        <v>9780</v>
+        <v>9850</v>
       </c>
       <c r="E236" t="n">
-        <v>9780</v>
+        <v>9840</v>
       </c>
       <c r="F236" t="n">
-        <v>200.21</v>
+        <v>177</v>
       </c>
       <c r="G236" t="n">
-        <v>9692</v>
+        <v>9721.583333333334</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8678,22 +8898,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>9790</v>
+        <v>9780</v>
       </c>
       <c r="C237" t="n">
-        <v>9850</v>
+        <v>9780</v>
       </c>
       <c r="D237" t="n">
-        <v>9850</v>
+        <v>9780</v>
       </c>
       <c r="E237" t="n">
-        <v>9790</v>
+        <v>9780</v>
       </c>
       <c r="F237" t="n">
-        <v>104.3221</v>
+        <v>200.21</v>
       </c>
       <c r="G237" t="n">
-        <v>9697.5</v>
+        <v>9721.416666666666</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8713,22 +8933,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>9795</v>
+        <v>9790</v>
       </c>
       <c r="C238" t="n">
-        <v>9795</v>
+        <v>9850</v>
       </c>
       <c r="D238" t="n">
-        <v>9795</v>
+        <v>9850</v>
       </c>
       <c r="E238" t="n">
-        <v>9795</v>
+        <v>9790</v>
       </c>
       <c r="F238" t="n">
-        <v>28.98</v>
+        <v>104.3221</v>
       </c>
       <c r="G238" t="n">
-        <v>9703</v>
+        <v>9724.25</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8748,22 +8968,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>9800</v>
+        <v>9795</v>
       </c>
       <c r="C239" t="n">
-        <v>9800</v>
+        <v>9795</v>
       </c>
       <c r="D239" t="n">
-        <v>9800</v>
+        <v>9795</v>
       </c>
       <c r="E239" t="n">
-        <v>9800</v>
+        <v>9795</v>
       </c>
       <c r="F239" t="n">
-        <v>3.9785</v>
+        <v>28.98</v>
       </c>
       <c r="G239" t="n">
-        <v>9708</v>
+        <v>9726</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8795,10 +9015,10 @@
         <v>9800</v>
       </c>
       <c r="F240" t="n">
-        <v>145.0639</v>
+        <v>3.9785</v>
       </c>
       <c r="G240" t="n">
-        <v>9716.25</v>
+        <v>9726.166666666666</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8830,10 +9050,10 @@
         <v>9800</v>
       </c>
       <c r="F241" t="n">
-        <v>14</v>
+        <v>145.0639</v>
       </c>
       <c r="G241" t="n">
-        <v>9725.75</v>
+        <v>9726.333333333334</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8853,22 +9073,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="C242" t="n">
-        <v>9845</v>
+        <v>9800</v>
       </c>
       <c r="D242" t="n">
-        <v>9845</v>
+        <v>9800</v>
       </c>
       <c r="E242" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="F242" t="n">
-        <v>62.61677024</v>
+        <v>14</v>
       </c>
       <c r="G242" t="n">
-        <v>9734</v>
+        <v>9726.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8888,22 +9108,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="C243" t="n">
-        <v>9820</v>
+        <v>9845</v>
       </c>
       <c r="D243" t="n">
-        <v>9820</v>
+        <v>9845</v>
       </c>
       <c r="E243" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="F243" t="n">
-        <v>11</v>
+        <v>62.61677024</v>
       </c>
       <c r="G243" t="n">
-        <v>9742.75</v>
+        <v>9727.416666666666</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8935,10 +9155,10 @@
         <v>9820</v>
       </c>
       <c r="F244" t="n">
-        <v>33.5527</v>
+        <v>11</v>
       </c>
       <c r="G244" t="n">
-        <v>9753</v>
+        <v>9727.916666666666</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8958,22 +9178,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>9845</v>
+        <v>9820</v>
       </c>
       <c r="C245" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="D245" t="n">
-        <v>9845</v>
+        <v>9820</v>
       </c>
       <c r="E245" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="F245" t="n">
-        <v>209.6891</v>
+        <v>33.5527</v>
       </c>
       <c r="G245" t="n">
-        <v>9763.25</v>
+        <v>9728.416666666666</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8993,22 +9213,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>9830</v>
+        <v>9845</v>
       </c>
       <c r="C246" t="n">
-        <v>9830</v>
+        <v>9805</v>
       </c>
       <c r="D246" t="n">
-        <v>9830</v>
+        <v>9845</v>
       </c>
       <c r="E246" t="n">
-        <v>9830</v>
+        <v>9805</v>
       </c>
       <c r="F246" t="n">
-        <v>4.5025</v>
+        <v>209.6891</v>
       </c>
       <c r="G246" t="n">
-        <v>9772.5</v>
+        <v>9730.416666666666</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9031,19 +9251,19 @@
         <v>9830</v>
       </c>
       <c r="C247" t="n">
-        <v>9805</v>
+        <v>9830</v>
       </c>
       <c r="D247" t="n">
         <v>9830</v>
       </c>
       <c r="E247" t="n">
-        <v>9805</v>
+        <v>9830</v>
       </c>
       <c r="F247" t="n">
-        <v>159.0639</v>
+        <v>4.5025</v>
       </c>
       <c r="G247" t="n">
-        <v>9781.75</v>
+        <v>9732.083333333334</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9063,22 +9283,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>9815</v>
+        <v>9830</v>
       </c>
       <c r="C248" t="n">
-        <v>9780</v>
+        <v>9805</v>
       </c>
       <c r="D248" t="n">
-        <v>9815</v>
+        <v>9830</v>
       </c>
       <c r="E248" t="n">
-        <v>9780</v>
+        <v>9805</v>
       </c>
       <c r="F248" t="n">
-        <v>184.1502</v>
+        <v>159.0639</v>
       </c>
       <c r="G248" t="n">
-        <v>9790.25</v>
+        <v>9733.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9098,22 +9318,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
+        <v>9815</v>
+      </c>
+      <c r="C249" t="n">
         <v>9780</v>
       </c>
-      <c r="C249" t="n">
-        <v>9715</v>
-      </c>
       <c r="D249" t="n">
+        <v>9815</v>
+      </c>
+      <c r="E249" t="n">
         <v>9780</v>
-      </c>
-      <c r="E249" t="n">
-        <v>9715</v>
       </c>
       <c r="F249" t="n">
         <v>184.1502</v>
       </c>
       <c r="G249" t="n">
-        <v>9795.5</v>
+        <v>9734.166666666666</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9133,22 +9353,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>9805</v>
+        <v>9780</v>
       </c>
       <c r="C250" t="n">
-        <v>9835</v>
+        <v>9715</v>
       </c>
       <c r="D250" t="n">
-        <v>9835</v>
+        <v>9780</v>
       </c>
       <c r="E250" t="n">
-        <v>9805</v>
+        <v>9715</v>
       </c>
       <c r="F250" t="n">
-        <v>208.5879</v>
+        <v>184.1502</v>
       </c>
       <c r="G250" t="n">
-        <v>9801</v>
+        <v>9733.416666666666</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9168,22 +9388,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>9830</v>
+        <v>9805</v>
       </c>
       <c r="C251" t="n">
-        <v>9830</v>
+        <v>9835</v>
       </c>
       <c r="D251" t="n">
-        <v>9830</v>
+        <v>9835</v>
       </c>
       <c r="E251" t="n">
-        <v>9830</v>
+        <v>9805</v>
       </c>
       <c r="F251" t="n">
-        <v>208.828</v>
+        <v>208.5879</v>
       </c>
       <c r="G251" t="n">
-        <v>9807.5</v>
+        <v>9734.916666666666</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9215,10 +9435,10 @@
         <v>9830</v>
       </c>
       <c r="F252" t="n">
-        <v>224.3461</v>
+        <v>208.828</v>
       </c>
       <c r="G252" t="n">
-        <v>9809.25</v>
+        <v>9735.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9238,22 +9458,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>9845</v>
+        <v>9830</v>
       </c>
       <c r="C253" t="n">
-        <v>9855</v>
+        <v>9830</v>
       </c>
       <c r="D253" t="n">
-        <v>9855</v>
+        <v>9830</v>
       </c>
       <c r="E253" t="n">
-        <v>9845</v>
+        <v>9830</v>
       </c>
       <c r="F253" t="n">
-        <v>254.2099</v>
+        <v>224.3461</v>
       </c>
       <c r="G253" t="n">
-        <v>9810.25</v>
+        <v>9737.583333333334</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9273,22 +9493,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>9805</v>
+        <v>9845</v>
       </c>
       <c r="C254" t="n">
-        <v>9805</v>
+        <v>9855</v>
       </c>
       <c r="D254" t="n">
-        <v>9805</v>
+        <v>9855</v>
       </c>
       <c r="E254" t="n">
-        <v>9805</v>
+        <v>9845</v>
       </c>
       <c r="F254" t="n">
-        <v>10</v>
+        <v>254.2099</v>
       </c>
       <c r="G254" t="n">
-        <v>9813.5</v>
+        <v>9738.416666666666</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9311,19 +9531,19 @@
         <v>9805</v>
       </c>
       <c r="C255" t="n">
-        <v>9855</v>
+        <v>9805</v>
       </c>
       <c r="D255" t="n">
-        <v>9855</v>
+        <v>9805</v>
       </c>
       <c r="E255" t="n">
         <v>9805</v>
       </c>
       <c r="F255" t="n">
-        <v>188.4637</v>
+        <v>10</v>
       </c>
       <c r="G255" t="n">
-        <v>9811.75</v>
+        <v>9738.583333333334</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9343,22 +9563,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>9830</v>
+        <v>9805</v>
       </c>
       <c r="C256" t="n">
-        <v>9830</v>
+        <v>9855</v>
       </c>
       <c r="D256" t="n">
-        <v>9830</v>
+        <v>9855</v>
       </c>
       <c r="E256" t="n">
-        <v>9830</v>
+        <v>9805</v>
       </c>
       <c r="F256" t="n">
-        <v>10</v>
+        <v>188.4637</v>
       </c>
       <c r="G256" t="n">
-        <v>9814.25</v>
+        <v>9740.75</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9373,6 +9593,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>9830</v>
+      </c>
+      <c r="C257" t="n">
+        <v>9830</v>
+      </c>
+      <c r="D257" t="n">
+        <v>9830</v>
+      </c>
+      <c r="E257" t="n">
+        <v>9830</v>
+      </c>
+      <c r="F257" t="n">
+        <v>10</v>
+      </c>
+      <c r="G257" t="n">
+        <v>9742.583333333334</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-30 BackTest BTG.xlsx
+++ b/BackTest/2019-10-30 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M257"/>
+  <dimension ref="A1:N267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>100</v>
       </c>
       <c r="G2" t="n">
+        <v>9729.333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>9723.916666666666</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>85.581</v>
       </c>
       <c r="G3" t="n">
+        <v>9733.666666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>9725.583333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>6.0005</v>
       </c>
       <c r="G4" t="n">
+        <v>9735</v>
+      </c>
+      <c r="H4" t="n">
         <v>9726.416666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>0.2714</v>
       </c>
       <c r="G5" t="n">
+        <v>9739</v>
+      </c>
+      <c r="H5" t="n">
         <v>9727.666666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>28.5208</v>
       </c>
       <c r="G6" t="n">
+        <v>9744</v>
+      </c>
+      <c r="H6" t="n">
         <v>9728.833333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>53.1216</v>
       </c>
       <c r="G7" t="n">
+        <v>9748</v>
+      </c>
+      <c r="H7" t="n">
         <v>9729.583333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>0.1919</v>
       </c>
       <c r="G8" t="n">
+        <v>9749.666666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>9729.75</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>352.5961</v>
       </c>
       <c r="G9" t="n">
+        <v>9755</v>
+      </c>
+      <c r="H9" t="n">
         <v>9730.25</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
+        <v>9756.666666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>9730.75</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>4</v>
       </c>
       <c r="G11" t="n">
+        <v>9758.333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>9732</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>12</v>
       </c>
       <c r="G12" t="n">
+        <v>9759</v>
+      </c>
+      <c r="H12" t="n">
         <v>9732.916666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>12</v>
       </c>
       <c r="G13" t="n">
+        <v>9764.666666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>9733.583333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>218</v>
       </c>
       <c r="G14" t="n">
+        <v>9768.333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>9734.416666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>48</v>
       </c>
       <c r="G15" t="n">
+        <v>9766</v>
+      </c>
+      <c r="H15" t="n">
         <v>9733.833333333334</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>65.2366</v>
       </c>
       <c r="G16" t="n">
+        <v>9762.333333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>9733</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>43.5642</v>
       </c>
       <c r="G17" t="n">
+        <v>9763</v>
+      </c>
+      <c r="H17" t="n">
         <v>9733.166666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>81.3747</v>
       </c>
       <c r="G18" t="n">
+        <v>9758.333333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>9732.25</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>181</v>
       </c>
       <c r="G19" t="n">
+        <v>9756</v>
+      </c>
+      <c r="H19" t="n">
         <v>9731.083333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>22.5827</v>
       </c>
       <c r="G20" t="n">
+        <v>9753</v>
+      </c>
+      <c r="H20" t="n">
         <v>9730.75</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>394.3674</v>
       </c>
       <c r="G21" t="n">
+        <v>9755.666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>9731.833333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>18.3</v>
       </c>
       <c r="G22" t="n">
+        <v>9753</v>
+      </c>
+      <c r="H22" t="n">
         <v>9732.083333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>12.1109</v>
       </c>
       <c r="G23" t="n">
+        <v>9752</v>
+      </c>
+      <c r="H23" t="n">
         <v>9732.166666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>25.49297352</v>
       </c>
       <c r="G24" t="n">
+        <v>9754.333333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>9734.583333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>24.36378872</v>
       </c>
       <c r="G25" t="n">
+        <v>9758.333333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>9737.333333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>190.6574</v>
       </c>
       <c r="G26" t="n">
+        <v>9762.333333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>9740.083333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>123.4355</v>
       </c>
       <c r="G27" t="n">
+        <v>9758</v>
+      </c>
+      <c r="H27" t="n">
         <v>9740.416666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>8.044600000000001</v>
       </c>
       <c r="G28" t="n">
+        <v>9752</v>
+      </c>
+      <c r="H28" t="n">
         <v>9740.666666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>2.4</v>
       </c>
       <c r="G29" t="n">
+        <v>9744</v>
+      </c>
+      <c r="H29" t="n">
         <v>9740</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>11.2704</v>
       </c>
       <c r="G30" t="n">
+        <v>9745.666666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>9740.416666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>11.6789</v>
       </c>
       <c r="G31" t="n">
+        <v>9748.333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>9740.333333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>20</v>
       </c>
       <c r="G32" t="n">
+        <v>9743.333333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>9739.5</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>2</v>
       </c>
       <c r="G33" t="n">
+        <v>9743.333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>9739.75</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>4.9297</v>
       </c>
       <c r="G34" t="n">
+        <v>9746.333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>9739.416666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>6.9779</v>
       </c>
       <c r="G35" t="n">
+        <v>9747</v>
+      </c>
+      <c r="H35" t="n">
         <v>9739.333333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>0.101</v>
       </c>
       <c r="G36" t="n">
+        <v>9739.333333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>9738</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>3.055</v>
       </c>
       <c r="G37" t="n">
+        <v>9746</v>
+      </c>
+      <c r="H37" t="n">
         <v>9738.833333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>266.9603</v>
       </c>
       <c r="G38" t="n">
+        <v>9746</v>
+      </c>
+      <c r="H38" t="n">
         <v>9737.833333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>174.1726</v>
       </c>
       <c r="G39" t="n">
+        <v>9737.333333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>9737.916666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>181</v>
       </c>
       <c r="G40" t="n">
+        <v>9721</v>
+      </c>
+      <c r="H40" t="n">
         <v>9736.333333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>35.311</v>
       </c>
       <c r="G41" t="n">
+        <v>9705</v>
+      </c>
+      <c r="H41" t="n">
         <v>9734.833333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>8.101599999999999</v>
       </c>
       <c r="G42" t="n">
+        <v>9700.666666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>9734</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>8</v>
       </c>
       <c r="G43" t="n">
+        <v>9698</v>
+      </c>
+      <c r="H43" t="n">
         <v>9733.25</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
+        <v>9693.333333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>9732.083333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>10</v>
       </c>
       <c r="G45" t="n">
+        <v>9685</v>
+      </c>
+      <c r="H45" t="n">
         <v>9730.166666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
+        <v>9676.666666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>9728.25</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1.0412</v>
       </c>
       <c r="G47" t="n">
+        <v>9676.666666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>9728.083333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>26.9579</v>
       </c>
       <c r="G48" t="n">
+        <v>9675.333333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>9727.666666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>10.2311</v>
       </c>
       <c r="G49" t="n">
+        <v>9671.666666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>9727.25</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>85.4782</v>
       </c>
       <c r="G50" t="n">
+        <v>9662.333333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>9725.333333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>0.4788</v>
       </c>
       <c r="G51" t="n">
+        <v>9658.666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>9724.416666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1.5197</v>
       </c>
       <c r="G52" t="n">
+        <v>9649.333333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>9724.083333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>0.1312</v>
       </c>
       <c r="G53" t="n">
+        <v>9643</v>
+      </c>
+      <c r="H53" t="n">
         <v>9722.666666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>0.4776</v>
       </c>
       <c r="G54" t="n">
+        <v>9638</v>
+      </c>
+      <c r="H54" t="n">
         <v>9721.166666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>0.2268</v>
       </c>
       <c r="G55" t="n">
+        <v>9644.666666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>9720.166666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>3.0266</v>
       </c>
       <c r="G56" t="n">
+        <v>9651</v>
+      </c>
+      <c r="H56" t="n">
         <v>9719.166666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>104.1742</v>
       </c>
       <c r="G57" t="n">
+        <v>9649.666666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>9716.833333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>23.8587</v>
       </c>
       <c r="G58" t="n">
+        <v>9652.666666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>9716.833333333334</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>37.92</v>
       </c>
       <c r="G59" t="n">
+        <v>9658</v>
+      </c>
+      <c r="H59" t="n">
         <v>9715.916666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>158.9946</v>
       </c>
       <c r="G60" t="n">
+        <v>9664.333333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>9715.25</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>46.9238</v>
       </c>
       <c r="G61" t="n">
+        <v>9671.666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>9714.75</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>1.7661</v>
       </c>
       <c r="G62" t="n">
+        <v>9674.333333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>9714.333333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>25.7322</v>
       </c>
       <c r="G63" t="n">
+        <v>9678</v>
+      </c>
+      <c r="H63" t="n">
         <v>9713.75</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>7</v>
       </c>
       <c r="G64" t="n">
+        <v>9677</v>
+      </c>
+      <c r="H64" t="n">
         <v>9712.75</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>164.7056</v>
       </c>
       <c r="G65" t="n">
+        <v>9678</v>
+      </c>
+      <c r="H65" t="n">
         <v>9710.083333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>150.3952</v>
       </c>
       <c r="G66" t="n">
+        <v>9676.333333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>9707.5</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>13.9105</v>
       </c>
       <c r="G67" t="n">
+        <v>9675.666666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>9706</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>2.0655</v>
       </c>
       <c r="G68" t="n">
+        <v>9676.666666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>9704.416666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>4.5376</v>
       </c>
       <c r="G69" t="n">
+        <v>9677.666666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>9701.833333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>38.7338</v>
       </c>
       <c r="G70" t="n">
+        <v>9674.666666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>9699.666666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>31.4278</v>
       </c>
       <c r="G71" t="n">
+        <v>9670.333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>9697.166666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>223.8597</v>
       </c>
       <c r="G72" t="n">
+        <v>9673</v>
+      </c>
+      <c r="H72" t="n">
         <v>9695.333333333334</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>6.929</v>
       </c>
       <c r="G73" t="n">
+        <v>9669.666666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>9693.083333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>10.3166</v>
       </c>
       <c r="G74" t="n">
+        <v>9667.666666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>9690.75</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>25.909</v>
       </c>
       <c r="G75" t="n">
+        <v>9664.333333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>9689.833333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>50.9841</v>
       </c>
       <c r="G76" t="n">
+        <v>9660</v>
+      </c>
+      <c r="H76" t="n">
         <v>9689.166666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>25.1006</v>
       </c>
       <c r="G77" t="n">
+        <v>9650.666666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>9686.25</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>134.7308</v>
       </c>
       <c r="G78" t="n">
+        <v>9645</v>
+      </c>
+      <c r="H78" t="n">
         <v>9685.416666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>75.3135</v>
       </c>
       <c r="G79" t="n">
+        <v>9645</v>
+      </c>
+      <c r="H79" t="n">
         <v>9685</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>6</v>
       </c>
       <c r="G80" t="n">
+        <v>9647</v>
+      </c>
+      <c r="H80" t="n">
         <v>9683.583333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>0.1173</v>
       </c>
       <c r="G81" t="n">
+        <v>9648.666666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>9680.75</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>14.6815</v>
       </c>
       <c r="G82" t="n">
+        <v>9648</v>
+      </c>
+      <c r="H82" t="n">
         <v>9679.75</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>30.6477</v>
       </c>
       <c r="G83" t="n">
+        <v>9650</v>
+      </c>
+      <c r="H83" t="n">
         <v>9678.916666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>39.4355</v>
       </c>
       <c r="G84" t="n">
+        <v>9652</v>
+      </c>
+      <c r="H84" t="n">
         <v>9676.25</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>90.1093</v>
       </c>
       <c r="G85" t="n">
+        <v>9651.666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>9673</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>11.3824</v>
       </c>
       <c r="G86" t="n">
+        <v>9651.333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>9669.416666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>234.7254</v>
       </c>
       <c r="G87" t="n">
+        <v>9649.666666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>9668.25</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>33.2404</v>
       </c>
       <c r="G88" t="n">
+        <v>9648</v>
+      </c>
+      <c r="H88" t="n">
         <v>9667.083333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>8.3536</v>
       </c>
       <c r="G89" t="n">
+        <v>9645</v>
+      </c>
+      <c r="H89" t="n">
         <v>9666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>2</v>
       </c>
       <c r="G90" t="n">
+        <v>9642</v>
+      </c>
+      <c r="H90" t="n">
         <v>9663.916666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>40.15337632</v>
       </c>
       <c r="G91" t="n">
+        <v>9639.666666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>9662</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>76.355</v>
       </c>
       <c r="G92" t="n">
+        <v>9644.333333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>9661.5</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>4</v>
       </c>
       <c r="G93" t="n">
+        <v>9641.666666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>9660</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>22</v>
       </c>
       <c r="G94" t="n">
+        <v>9638.333333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>9658</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>6</v>
       </c>
       <c r="G95" t="n">
+        <v>9635.333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>9655.666666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>4</v>
       </c>
       <c r="G96" t="n">
+        <v>9631.666666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>9653.833333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>32</v>
       </c>
       <c r="G97" t="n">
+        <v>9640.666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>9653.416666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>14.92122368</v>
       </c>
       <c r="G98" t="n">
+        <v>9652.333333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>9655.5</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>54.321</v>
       </c>
       <c r="G99" t="n">
+        <v>9651.666666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>9654.833333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>0.1</v>
       </c>
       <c r="G100" t="n">
+        <v>9650</v>
+      </c>
+      <c r="H100" t="n">
         <v>9655.25</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>7.44176053</v>
       </c>
       <c r="G101" t="n">
+        <v>9649.666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>9655.583333333334</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>0.225</v>
       </c>
       <c r="G102" t="n">
+        <v>9649.333333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>9655.416666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>19.763</v>
       </c>
       <c r="G103" t="n">
+        <v>9648</v>
+      </c>
+      <c r="H103" t="n">
         <v>9654.583333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>147.1182</v>
       </c>
       <c r="G104" t="n">
+        <v>9655.666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>9656.583333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>8.312799999999999</v>
       </c>
       <c r="G105" t="n">
+        <v>9671</v>
+      </c>
+      <c r="H105" t="n">
         <v>9660.416666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>6.1</v>
       </c>
       <c r="G106" t="n">
+        <v>9685</v>
+      </c>
+      <c r="H106" t="n">
         <v>9664.083333333334</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>32.5</v>
       </c>
       <c r="G107" t="n">
+        <v>9696</v>
+      </c>
+      <c r="H107" t="n">
         <v>9666.333333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>16.3</v>
       </c>
       <c r="G108" t="n">
+        <v>9696.333333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>9665.25</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>20.1031</v>
       </c>
       <c r="G109" t="n">
+        <v>9709</v>
+      </c>
+      <c r="H109" t="n">
         <v>9667.333333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>0.1</v>
       </c>
       <c r="G110" t="n">
+        <v>9724.666666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>9671.25</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>0.5</v>
       </c>
       <c r="G111" t="n">
+        <v>9727</v>
+      </c>
+      <c r="H111" t="n">
         <v>9670.916666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>0.9937</v>
       </c>
       <c r="G112" t="n">
+        <v>9716</v>
+      </c>
+      <c r="H112" t="n">
         <v>9670.083333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>107.1735</v>
       </c>
       <c r="G113" t="n">
+        <v>9703.333333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>9670.583333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>37.5</v>
       </c>
       <c r="G114" t="n">
+        <v>9703</v>
+      </c>
+      <c r="H114" t="n">
         <v>9671.083333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>0.4418</v>
       </c>
       <c r="G115" t="n">
+        <v>9704</v>
+      </c>
+      <c r="H115" t="n">
         <v>9670.083333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>9.2242</v>
       </c>
       <c r="G116" t="n">
+        <v>9705</v>
+      </c>
+      <c r="H116" t="n">
         <v>9669.083333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>182</v>
       </c>
       <c r="G117" t="n">
+        <v>9702</v>
+      </c>
+      <c r="H117" t="n">
         <v>9668.5</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>259</v>
       </c>
       <c r="G118" t="n">
+        <v>9700</v>
+      </c>
+      <c r="H118" t="n">
         <v>9666.416666666666</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>173.6321</v>
       </c>
       <c r="G119" t="n">
+        <v>9690.333333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>9664.666666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>49.9583</v>
       </c>
       <c r="G120" t="n">
+        <v>9670.333333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>9661.916666666666</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>85.3</v>
       </c>
       <c r="G121" t="n">
+        <v>9651</v>
+      </c>
+      <c r="H121" t="n">
         <v>9658.916666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,22 +5013,21 @@
         <v>29</v>
       </c>
       <c r="G122" t="n">
+        <v>9632.333333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>9655.833333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>9550</v>
-      </c>
-      <c r="K122" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4687,1379 +5051,1293 @@
         <v>86.9494</v>
       </c>
       <c r="G123" t="n">
+        <v>9628</v>
+      </c>
+      <c r="H123" t="n">
         <v>9652.75</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
         <v>9550</v>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="C124" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D124" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F124" t="n">
+        <v>147.6525</v>
+      </c>
+      <c r="G124" t="n">
+        <v>9611.333333333334</v>
+      </c>
+      <c r="H124" t="n">
+        <v>9650.916666666666</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9565</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9565</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F125" t="n">
+        <v>84.4032</v>
+      </c>
+      <c r="G125" t="n">
+        <v>9593</v>
+      </c>
+      <c r="H125" t="n">
+        <v>9650</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9555</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9565</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9565</v>
+      </c>
+      <c r="E126" t="n">
+        <v>9555</v>
+      </c>
+      <c r="F126" t="n">
+        <v>24</v>
+      </c>
+      <c r="G126" t="n">
+        <v>9588.666666666666</v>
+      </c>
+      <c r="H126" t="n">
+        <v>9649</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9565</v>
+      </c>
+      <c r="C127" t="n">
+        <v>9560</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9565</v>
+      </c>
+      <c r="E127" t="n">
+        <v>9560</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2</v>
+      </c>
+      <c r="G127" t="n">
+        <v>9584</v>
+      </c>
+      <c r="H127" t="n">
+        <v>9647.166666666666</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>9570</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9570</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9570</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9570</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10</v>
+      </c>
+      <c r="G128" t="n">
+        <v>9579</v>
+      </c>
+      <c r="H128" t="n">
+        <v>9646.166666666666</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9600</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9600</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9600</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2.8125</v>
+      </c>
+      <c r="G129" t="n">
+        <v>9576</v>
+      </c>
+      <c r="H129" t="n">
+        <v>9645.666666666666</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9575</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9575</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9575</v>
+      </c>
+      <c r="F130" t="n">
+        <v>28</v>
+      </c>
+      <c r="G130" t="n">
+        <v>9571.666666666666</v>
+      </c>
+      <c r="H130" t="n">
+        <v>9644.333333333334</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9575</v>
+      </c>
+      <c r="F131" t="n">
+        <v>46.7765</v>
+      </c>
+      <c r="G131" t="n">
+        <v>9567.666666666666</v>
+      </c>
+      <c r="H131" t="n">
+        <v>9643.416666666666</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9590</v>
+      </c>
+      <c r="F132" t="n">
+        <v>22.8415</v>
+      </c>
+      <c r="G132" t="n">
+        <v>9568.333333333334</v>
+      </c>
+      <c r="H132" t="n">
+        <v>9642.333333333334</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9570</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9570</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9570</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9570</v>
+      </c>
+      <c r="F133" t="n">
+        <v>7</v>
+      </c>
+      <c r="G133" t="n">
+        <v>9568</v>
+      </c>
+      <c r="H133" t="n">
+        <v>9641</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9590</v>
+      </c>
+      <c r="F134" t="n">
+        <v>7.249827</v>
+      </c>
+      <c r="G134" t="n">
+        <v>9567.666666666666</v>
+      </c>
+      <c r="H134" t="n">
+        <v>9639.666666666666</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9590</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3.0869</v>
+      </c>
+      <c r="G135" t="n">
+        <v>9570.333333333334</v>
+      </c>
+      <c r="H135" t="n">
+        <v>9638.416666666666</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9570</v>
+      </c>
+      <c r="F136" t="n">
+        <v>30.337773</v>
+      </c>
+      <c r="G136" t="n">
+        <v>9573</v>
+      </c>
+      <c r="H136" t="n">
+        <v>9637.166666666666</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9555</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9555</v>
+      </c>
+      <c r="F137" t="n">
+        <v>24.4448</v>
+      </c>
+      <c r="G137" t="n">
+        <v>9573.333333333334</v>
+      </c>
+      <c r="H137" t="n">
+        <v>9636.5</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9570</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9555</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9570</v>
+      </c>
+      <c r="E138" t="n">
+        <v>9555</v>
+      </c>
+      <c r="F138" t="n">
+        <v>268.7819</v>
+      </c>
+      <c r="G138" t="n">
+        <v>9573.666666666666</v>
+      </c>
+      <c r="H138" t="n">
+        <v>9634.916666666666</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9635</v>
+      </c>
+      <c r="C139" t="n">
+        <v>9635</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9635</v>
+      </c>
+      <c r="E139" t="n">
+        <v>9635</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.4075</v>
+      </c>
+      <c r="G139" t="n">
+        <v>9579.333333333334</v>
+      </c>
+      <c r="H139" t="n">
+        <v>9634.5</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9565</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9560</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9565</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9560</v>
+      </c>
+      <c r="F140" t="n">
+        <v>136.6796</v>
+      </c>
+      <c r="G140" t="n">
+        <v>9579</v>
+      </c>
+      <c r="H140" t="n">
+        <v>9633</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9560</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9560</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9560</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.2179</v>
+      </c>
+      <c r="G141" t="n">
+        <v>9578.666666666666</v>
+      </c>
+      <c r="H141" t="n">
+        <v>9631.5</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>9635</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9635</v>
+      </c>
+      <c r="D142" t="n">
+        <v>9635</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9635</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15.583</v>
+      </c>
+      <c r="G142" t="n">
+        <v>9583.666666666666</v>
+      </c>
+      <c r="H142" t="n">
+        <v>9631.083333333334</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9690</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9690</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9690</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9690</v>
+      </c>
+      <c r="F143" t="n">
+        <v>15.4945</v>
+      </c>
+      <c r="G143" t="n">
+        <v>9591.666666666666</v>
+      </c>
+      <c r="H143" t="n">
+        <v>9631.583333333334</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>9565</v>
+      </c>
+      <c r="C144" t="n">
+        <v>9565</v>
+      </c>
+      <c r="D144" t="n">
+        <v>9565</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9565</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.1557</v>
+      </c>
+      <c r="G144" t="n">
+        <v>9589.333333333334</v>
+      </c>
+      <c r="H144" t="n">
+        <v>9630</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>9690</v>
+      </c>
+      <c r="C145" t="n">
+        <v>9690</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9690</v>
+      </c>
+      <c r="E145" t="n">
+        <v>9690</v>
+      </c>
+      <c r="F145" t="n">
+        <v>10</v>
+      </c>
+      <c r="G145" t="n">
+        <v>9597</v>
+      </c>
+      <c r="H145" t="n">
+        <v>9630.666666666666</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>9690</v>
+      </c>
+      <c r="C146" t="n">
+        <v>9690</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9690</v>
+      </c>
+      <c r="E146" t="n">
+        <v>9690</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10</v>
+      </c>
+      <c r="G146" t="n">
+        <v>9604.333333333334</v>
+      </c>
+      <c r="H146" t="n">
+        <v>9631.666666666666</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9585</v>
+      </c>
+      <c r="C147" t="n">
+        <v>9585</v>
+      </c>
+      <c r="D147" t="n">
+        <v>9585</v>
+      </c>
+      <c r="E147" t="n">
+        <v>9585</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.9046999999999999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>9604</v>
+      </c>
+      <c r="H147" t="n">
+        <v>9630.916666666666</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>9670</v>
+      </c>
+      <c r="C148" t="n">
+        <v>9670</v>
+      </c>
+      <c r="D148" t="n">
+        <v>9670</v>
+      </c>
+      <c r="E148" t="n">
+        <v>9670</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5</v>
+      </c>
+      <c r="G148" t="n">
+        <v>9610.666666666666</v>
+      </c>
+      <c r="H148" t="n">
+        <v>9631.666666666666</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C149" t="n">
+        <v>9670</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9670</v>
+      </c>
+      <c r="E149" t="n">
+        <v>9555</v>
+      </c>
+      <c r="F149" t="n">
+        <v>189.712</v>
+      </c>
+      <c r="G149" t="n">
+        <v>9616</v>
+      </c>
+      <c r="H149" t="n">
+        <v>9632.416666666666</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C150" t="n">
+        <v>9560</v>
+      </c>
+      <c r="D150" t="n">
+        <v>9560</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9560</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2</v>
+      </c>
+      <c r="G150" t="n">
+        <v>9614</v>
+      </c>
+      <c r="H150" t="n">
+        <v>9631.416666666666</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C151" t="n">
+        <v>9560</v>
+      </c>
+      <c r="D151" t="n">
+        <v>9560</v>
+      </c>
+      <c r="E151" t="n">
+        <v>9560</v>
+      </c>
+      <c r="F151" t="n">
+        <v>10</v>
+      </c>
+      <c r="G151" t="n">
+        <v>9612</v>
+      </c>
+      <c r="H151" t="n">
+        <v>9630.25</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C152" t="n">
+        <v>9555</v>
+      </c>
+      <c r="D152" t="n">
+        <v>9560</v>
+      </c>
+      <c r="E152" t="n">
+        <v>9555</v>
+      </c>
+      <c r="F152" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="G152" t="n">
+        <v>9612</v>
+      </c>
+      <c r="H152" t="n">
+        <v>9628.416666666666</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>9555</v>
+      </c>
+      <c r="C153" t="n">
+        <v>9555</v>
+      </c>
+      <c r="D153" t="n">
+        <v>9555</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9555</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6.8554</v>
+      </c>
+      <c r="G153" t="n">
+        <v>9612</v>
+      </c>
+      <c r="H153" t="n">
+        <v>9627.5</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>9620</v>
+      </c>
+      <c r="C154" t="n">
+        <v>9620</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9620</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9620</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1.0335</v>
+      </c>
+      <c r="G154" t="n">
+        <v>9611</v>
+      </c>
+      <c r="H154" t="n">
+        <v>9627.666666666666</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>9555</v>
+      </c>
+      <c r="L154" t="n">
+        <v>9555</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9555</v>
+      </c>
+      <c r="C155" t="n">
+        <v>9555</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9555</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9555</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.1295</v>
+      </c>
+      <c r="G155" t="n">
+        <v>9610.666666666666</v>
+      </c>
+      <c r="H155" t="n">
+        <v>9626.833333333334</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>9620</v>
+      </c>
+      <c r="L155" t="n">
+        <v>9555</v>
+      </c>
+      <c r="M155" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>9550</v>
-      </c>
-      <c r="C124" t="n">
-        <v>9550</v>
-      </c>
-      <c r="D124" t="n">
-        <v>9550</v>
-      </c>
-      <c r="E124" t="n">
-        <v>9550</v>
-      </c>
-      <c r="F124" t="n">
-        <v>147.6525</v>
-      </c>
-      <c r="G124" t="n">
-        <v>9650.916666666666</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>9630</v>
+      </c>
+      <c r="C156" t="n">
+        <v>9695</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9695</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9630</v>
+      </c>
+      <c r="F156" t="n">
+        <v>64</v>
+      </c>
+      <c r="G156" t="n">
+        <v>9619.666666666666</v>
+      </c>
+      <c r="H156" t="n">
+        <v>9628.5</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>9555</v>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>9550</v>
-      </c>
-      <c r="C125" t="n">
-        <v>9565</v>
-      </c>
-      <c r="D125" t="n">
-        <v>9565</v>
-      </c>
-      <c r="E125" t="n">
-        <v>9550</v>
-      </c>
-      <c r="F125" t="n">
-        <v>84.4032</v>
-      </c>
-      <c r="G125" t="n">
-        <v>9650</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>9550</v>
-      </c>
-      <c r="K125" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>9555</v>
-      </c>
-      <c r="C126" t="n">
-        <v>9565</v>
-      </c>
-      <c r="D126" t="n">
-        <v>9565</v>
-      </c>
-      <c r="E126" t="n">
-        <v>9555</v>
-      </c>
-      <c r="F126" t="n">
-        <v>24</v>
-      </c>
-      <c r="G126" t="n">
-        <v>9649</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>9565</v>
-      </c>
-      <c r="C127" t="n">
-        <v>9560</v>
-      </c>
-      <c r="D127" t="n">
-        <v>9565</v>
-      </c>
-      <c r="E127" t="n">
-        <v>9560</v>
-      </c>
-      <c r="F127" t="n">
-        <v>2</v>
-      </c>
-      <c r="G127" t="n">
-        <v>9647.166666666666</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>9570</v>
-      </c>
-      <c r="C128" t="n">
-        <v>9570</v>
-      </c>
-      <c r="D128" t="n">
-        <v>9570</v>
-      </c>
-      <c r="E128" t="n">
-        <v>9570</v>
-      </c>
-      <c r="F128" t="n">
-        <v>10</v>
-      </c>
-      <c r="G128" t="n">
-        <v>9646.166666666666</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>9600</v>
-      </c>
-      <c r="C129" t="n">
-        <v>9600</v>
-      </c>
-      <c r="D129" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E129" t="n">
-        <v>9600</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2.8125</v>
-      </c>
-      <c r="G129" t="n">
-        <v>9645.666666666666</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>9575</v>
-      </c>
-      <c r="C130" t="n">
-        <v>9575</v>
-      </c>
-      <c r="D130" t="n">
-        <v>9575</v>
-      </c>
-      <c r="E130" t="n">
-        <v>9575</v>
-      </c>
-      <c r="F130" t="n">
-        <v>28</v>
-      </c>
-      <c r="G130" t="n">
-        <v>9644.333333333334</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>9575</v>
-      </c>
-      <c r="C131" t="n">
-        <v>9580</v>
-      </c>
-      <c r="D131" t="n">
-        <v>9580</v>
-      </c>
-      <c r="E131" t="n">
-        <v>9575</v>
-      </c>
-      <c r="F131" t="n">
-        <v>46.7765</v>
-      </c>
-      <c r="G131" t="n">
-        <v>9643.416666666666</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>9590</v>
-      </c>
-      <c r="C132" t="n">
-        <v>9590</v>
-      </c>
-      <c r="D132" t="n">
-        <v>9590</v>
-      </c>
-      <c r="E132" t="n">
-        <v>9590</v>
-      </c>
-      <c r="F132" t="n">
-        <v>22.8415</v>
-      </c>
-      <c r="G132" t="n">
-        <v>9642.333333333334</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>9570</v>
-      </c>
-      <c r="C133" t="n">
-        <v>9570</v>
-      </c>
-      <c r="D133" t="n">
-        <v>9570</v>
-      </c>
-      <c r="E133" t="n">
-        <v>9570</v>
-      </c>
-      <c r="F133" t="n">
-        <v>7</v>
-      </c>
-      <c r="G133" t="n">
-        <v>9641</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>9590</v>
-      </c>
-      <c r="C134" t="n">
-        <v>9590</v>
-      </c>
-      <c r="D134" t="n">
-        <v>9590</v>
-      </c>
-      <c r="E134" t="n">
-        <v>9590</v>
-      </c>
-      <c r="F134" t="n">
-        <v>7.249827</v>
-      </c>
-      <c r="G134" t="n">
-        <v>9639.666666666666</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>9590</v>
-      </c>
-      <c r="C135" t="n">
-        <v>9590</v>
-      </c>
-      <c r="D135" t="n">
-        <v>9590</v>
-      </c>
-      <c r="E135" t="n">
-        <v>9590</v>
-      </c>
-      <c r="F135" t="n">
-        <v>3.0869</v>
-      </c>
-      <c r="G135" t="n">
-        <v>9638.416666666666</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>9590</v>
-      </c>
-      <c r="C136" t="n">
-        <v>9590</v>
-      </c>
-      <c r="D136" t="n">
-        <v>9590</v>
-      </c>
-      <c r="E136" t="n">
-        <v>9570</v>
-      </c>
-      <c r="F136" t="n">
-        <v>30.337773</v>
-      </c>
-      <c r="G136" t="n">
-        <v>9637.166666666666</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>9590</v>
-      </c>
-      <c r="C137" t="n">
-        <v>9555</v>
-      </c>
-      <c r="D137" t="n">
-        <v>9590</v>
-      </c>
-      <c r="E137" t="n">
-        <v>9555</v>
-      </c>
-      <c r="F137" t="n">
-        <v>24.4448</v>
-      </c>
-      <c r="G137" t="n">
-        <v>9636.5</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>9570</v>
-      </c>
-      <c r="C138" t="n">
-        <v>9555</v>
-      </c>
-      <c r="D138" t="n">
-        <v>9570</v>
-      </c>
-      <c r="E138" t="n">
-        <v>9555</v>
-      </c>
-      <c r="F138" t="n">
-        <v>268.7819</v>
-      </c>
-      <c r="G138" t="n">
-        <v>9634.916666666666</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>9635</v>
-      </c>
-      <c r="C139" t="n">
-        <v>9635</v>
-      </c>
-      <c r="D139" t="n">
-        <v>9635</v>
-      </c>
-      <c r="E139" t="n">
-        <v>9635</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1.4075</v>
-      </c>
-      <c r="G139" t="n">
-        <v>9634.5</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>9565</v>
-      </c>
-      <c r="C140" t="n">
-        <v>9560</v>
-      </c>
-      <c r="D140" t="n">
-        <v>9565</v>
-      </c>
-      <c r="E140" t="n">
-        <v>9560</v>
-      </c>
-      <c r="F140" t="n">
-        <v>136.6796</v>
-      </c>
-      <c r="G140" t="n">
-        <v>9633</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>9560</v>
-      </c>
-      <c r="C141" t="n">
-        <v>9560</v>
-      </c>
-      <c r="D141" t="n">
-        <v>9560</v>
-      </c>
-      <c r="E141" t="n">
-        <v>9560</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2.2179</v>
-      </c>
-      <c r="G141" t="n">
-        <v>9631.5</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>9635</v>
-      </c>
-      <c r="C142" t="n">
-        <v>9635</v>
-      </c>
-      <c r="D142" t="n">
-        <v>9635</v>
-      </c>
-      <c r="E142" t="n">
-        <v>9635</v>
-      </c>
-      <c r="F142" t="n">
-        <v>15.583</v>
-      </c>
-      <c r="G142" t="n">
-        <v>9631.083333333334</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>9690</v>
-      </c>
-      <c r="C143" t="n">
-        <v>9690</v>
-      </c>
-      <c r="D143" t="n">
-        <v>9690</v>
-      </c>
-      <c r="E143" t="n">
-        <v>9690</v>
-      </c>
-      <c r="F143" t="n">
-        <v>15.4945</v>
-      </c>
-      <c r="G143" t="n">
-        <v>9631.583333333334</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>9565</v>
-      </c>
-      <c r="C144" t="n">
-        <v>9565</v>
-      </c>
-      <c r="D144" t="n">
-        <v>9565</v>
-      </c>
-      <c r="E144" t="n">
-        <v>9565</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.1557</v>
-      </c>
-      <c r="G144" t="n">
-        <v>9630</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>9690</v>
-      </c>
-      <c r="C145" t="n">
-        <v>9690</v>
-      </c>
-      <c r="D145" t="n">
-        <v>9690</v>
-      </c>
-      <c r="E145" t="n">
-        <v>9690</v>
-      </c>
-      <c r="F145" t="n">
-        <v>10</v>
-      </c>
-      <c r="G145" t="n">
-        <v>9630.666666666666</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>9690</v>
-      </c>
-      <c r="C146" t="n">
-        <v>9690</v>
-      </c>
-      <c r="D146" t="n">
-        <v>9690</v>
-      </c>
-      <c r="E146" t="n">
-        <v>9690</v>
-      </c>
-      <c r="F146" t="n">
-        <v>10</v>
-      </c>
-      <c r="G146" t="n">
-        <v>9631.666666666666</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>9585</v>
-      </c>
-      <c r="C147" t="n">
-        <v>9585</v>
-      </c>
-      <c r="D147" t="n">
-        <v>9585</v>
-      </c>
-      <c r="E147" t="n">
-        <v>9585</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.9046999999999999</v>
-      </c>
-      <c r="G147" t="n">
-        <v>9630.916666666666</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>9670</v>
-      </c>
-      <c r="C148" t="n">
-        <v>9670</v>
-      </c>
-      <c r="D148" t="n">
-        <v>9670</v>
-      </c>
-      <c r="E148" t="n">
-        <v>9670</v>
-      </c>
-      <c r="F148" t="n">
-        <v>5</v>
-      </c>
-      <c r="G148" t="n">
-        <v>9631.666666666666</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>9580</v>
-      </c>
-      <c r="C149" t="n">
-        <v>9670</v>
-      </c>
-      <c r="D149" t="n">
-        <v>9670</v>
-      </c>
-      <c r="E149" t="n">
-        <v>9555</v>
-      </c>
-      <c r="F149" t="n">
-        <v>189.712</v>
-      </c>
-      <c r="G149" t="n">
-        <v>9632.416666666666</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>9560</v>
-      </c>
-      <c r="C150" t="n">
-        <v>9560</v>
-      </c>
-      <c r="D150" t="n">
-        <v>9560</v>
-      </c>
-      <c r="E150" t="n">
-        <v>9560</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2</v>
-      </c>
-      <c r="G150" t="n">
-        <v>9631.416666666666</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>9560</v>
-      </c>
-      <c r="C151" t="n">
-        <v>9560</v>
-      </c>
-      <c r="D151" t="n">
-        <v>9560</v>
-      </c>
-      <c r="E151" t="n">
-        <v>9560</v>
-      </c>
-      <c r="F151" t="n">
-        <v>10</v>
-      </c>
-      <c r="G151" t="n">
-        <v>9630.25</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>9560</v>
-      </c>
-      <c r="C152" t="n">
-        <v>9555</v>
-      </c>
-      <c r="D152" t="n">
-        <v>9560</v>
-      </c>
-      <c r="E152" t="n">
-        <v>9555</v>
-      </c>
-      <c r="F152" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="G152" t="n">
-        <v>9628.416666666666</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>9555</v>
-      </c>
-      <c r="C153" t="n">
-        <v>9555</v>
-      </c>
-      <c r="D153" t="n">
-        <v>9555</v>
-      </c>
-      <c r="E153" t="n">
-        <v>9555</v>
-      </c>
-      <c r="F153" t="n">
-        <v>6.8554</v>
-      </c>
-      <c r="G153" t="n">
-        <v>9627.5</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>9620</v>
-      </c>
-      <c r="C154" t="n">
-        <v>9620</v>
-      </c>
-      <c r="D154" t="n">
-        <v>9620</v>
-      </c>
-      <c r="E154" t="n">
-        <v>9620</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1.0335</v>
-      </c>
-      <c r="G154" t="n">
-        <v>9627.666666666666</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>9555</v>
-      </c>
-      <c r="C155" t="n">
-        <v>9555</v>
-      </c>
-      <c r="D155" t="n">
-        <v>9555</v>
-      </c>
-      <c r="E155" t="n">
-        <v>9555</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.1295</v>
-      </c>
-      <c r="G155" t="n">
-        <v>9626.833333333334</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>9630</v>
-      </c>
-      <c r="C156" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D156" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E156" t="n">
-        <v>9630</v>
-      </c>
-      <c r="F156" t="n">
-        <v>64</v>
-      </c>
-      <c r="G156" t="n">
-        <v>9628.5</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,24 +6361,21 @@
         <v>2.7828</v>
       </c>
       <c r="G157" t="n">
+        <v>9620.666666666666</v>
+      </c>
+      <c r="H157" t="n">
         <v>9626.083333333334</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6124,24 +6399,21 @@
         <v>16.5</v>
       </c>
       <c r="G158" t="n">
+        <v>9623.666666666666</v>
+      </c>
+      <c r="H158" t="n">
         <v>9624.416666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6165,24 +6437,21 @@
         <v>29.91025534</v>
       </c>
       <c r="G159" t="n">
+        <v>9637.666666666666</v>
+      </c>
+      <c r="H159" t="n">
         <v>9626.5</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6206,24 +6475,21 @@
         <v>3.3659</v>
       </c>
       <c r="G160" t="n">
+        <v>9636</v>
+      </c>
+      <c r="H160" t="n">
         <v>9627.166666666666</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6247,25 +6513,22 @@
         <v>36.1348</v>
       </c>
       <c r="G161" t="n">
+        <v>9634</v>
+      </c>
+      <c r="H161" t="n">
         <v>9627.75</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1.00651832460733</v>
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -6288,18 +6551,21 @@
         <v>119.4727</v>
       </c>
       <c r="G162" t="n">
+        <v>9644.666666666666</v>
+      </c>
+      <c r="H162" t="n">
         <v>9629.75</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6323,18 +6589,21 @@
         <v>31.9097</v>
       </c>
       <c r="G163" t="n">
+        <v>9649.666666666666</v>
+      </c>
+      <c r="H163" t="n">
         <v>9632.083333333334</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6358,18 +6627,21 @@
         <v>86.8969</v>
       </c>
       <c r="G164" t="n">
+        <v>9650</v>
+      </c>
+      <c r="H164" t="n">
         <v>9631</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6393,18 +6665,21 @@
         <v>0.1111</v>
       </c>
       <c r="G165" t="n">
+        <v>9667</v>
+      </c>
+      <c r="H165" t="n">
         <v>9630.416666666666</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6428,18 +6703,21 @@
         <v>0.1003</v>
       </c>
       <c r="G166" t="n">
+        <v>9677</v>
+      </c>
+      <c r="H166" t="n">
         <v>9628.25</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6463,18 +6741,21 @@
         <v>27.5215</v>
       </c>
       <c r="G167" t="n">
+        <v>9687</v>
+      </c>
+      <c r="H167" t="n">
         <v>9626.166666666666</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6498,18 +6779,21 @@
         <v>0.1</v>
       </c>
       <c r="G168" t="n">
+        <v>9705.333333333334</v>
+      </c>
+      <c r="H168" t="n">
         <v>9629.75</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6533,18 +6817,21 @@
         <v>10</v>
       </c>
       <c r="G169" t="n">
+        <v>9713</v>
+      </c>
+      <c r="H169" t="n">
         <v>9628.666666666666</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,18 +6855,21 @@
         <v>57.9852</v>
       </c>
       <c r="G170" t="n">
+        <v>9724.666666666666</v>
+      </c>
+      <c r="H170" t="n">
         <v>9626.833333333334</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6603,18 +6893,21 @@
         <v>44.4896</v>
       </c>
       <c r="G171" t="n">
+        <v>9730</v>
+      </c>
+      <c r="H171" t="n">
         <v>9629.25</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6638,18 +6931,21 @@
         <v>2</v>
       </c>
       <c r="G172" t="n">
+        <v>9736.666666666666</v>
+      </c>
+      <c r="H172" t="n">
         <v>9631.25</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6673,18 +6969,21 @@
         <v>10.1936</v>
       </c>
       <c r="G173" t="n">
+        <v>9740.666666666666</v>
+      </c>
+      <c r="H173" t="n">
         <v>9633.75</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6708,18 +7007,21 @@
         <v>22</v>
       </c>
       <c r="G174" t="n">
+        <v>9741.666666666666</v>
+      </c>
+      <c r="H174" t="n">
         <v>9636.166666666666</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6743,18 +7045,21 @@
         <v>42.04</v>
       </c>
       <c r="G175" t="n">
+        <v>9749.666666666666</v>
+      </c>
+      <c r="H175" t="n">
         <v>9638.583333333334</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6778,18 +7083,21 @@
         <v>9</v>
       </c>
       <c r="G176" t="n">
+        <v>9758.333333333334</v>
+      </c>
+      <c r="H176" t="n">
         <v>9641.083333333334</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6813,18 +7121,21 @@
         <v>2</v>
       </c>
       <c r="G177" t="n">
+        <v>9761.333333333334</v>
+      </c>
+      <c r="H177" t="n">
         <v>9644.583333333334</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6848,18 +7159,21 @@
         <v>60.7837</v>
       </c>
       <c r="G178" t="n">
+        <v>9757</v>
+      </c>
+      <c r="H178" t="n">
         <v>9646.333333333334</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6883,18 +7197,21 @@
         <v>7.0671</v>
       </c>
       <c r="G179" t="n">
+        <v>9758</v>
+      </c>
+      <c r="H179" t="n">
         <v>9647.916666666666</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6918,18 +7235,21 @@
         <v>1</v>
       </c>
       <c r="G180" t="n">
+        <v>9756.333333333334</v>
+      </c>
+      <c r="H180" t="n">
         <v>9651.916666666666</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6953,18 +7273,21 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
+        <v>9761.666666666666</v>
+      </c>
+      <c r="H181" t="n">
         <v>9655.916666666666</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6988,18 +7311,21 @@
         <v>1</v>
       </c>
       <c r="G182" t="n">
+        <v>9767.333333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>9659.916666666666</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7023,18 +7349,21 @@
         <v>2</v>
       </c>
       <c r="G183" t="n">
+        <v>9764.666666666666</v>
+      </c>
+      <c r="H183" t="n">
         <v>9663.916666666666</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7058,18 +7387,21 @@
         <v>2</v>
       </c>
       <c r="G184" t="n">
+        <v>9768.333333333334</v>
+      </c>
+      <c r="H184" t="n">
         <v>9667.916666666666</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7093,18 +7425,21 @@
         <v>1</v>
       </c>
       <c r="G185" t="n">
+        <v>9772.333333333334</v>
+      </c>
+      <c r="H185" t="n">
         <v>9671.666666666666</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7128,18 +7463,21 @@
         <v>59.66</v>
       </c>
       <c r="G186" t="n">
+        <v>9766.333333333334</v>
+      </c>
+      <c r="H186" t="n">
         <v>9673.666666666666</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7163,18 +7501,21 @@
         <v>34.2022</v>
       </c>
       <c r="G187" t="n">
+        <v>9765</v>
+      </c>
+      <c r="H187" t="n">
         <v>9676.5</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7198,18 +7539,21 @@
         <v>2</v>
       </c>
       <c r="G188" t="n">
+        <v>9760</v>
+      </c>
+      <c r="H188" t="n">
         <v>9679</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7233,18 +7577,21 @@
         <v>4</v>
       </c>
       <c r="G189" t="n">
+        <v>9756.666666666666</v>
+      </c>
+      <c r="H189" t="n">
         <v>9681.333333333334</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7268,18 +7615,21 @@
         <v>27.3785</v>
       </c>
       <c r="G190" t="n">
+        <v>9755</v>
+      </c>
+      <c r="H190" t="n">
         <v>9684.416666666666</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7303,18 +7653,21 @@
         <v>3.3275</v>
       </c>
       <c r="G191" t="n">
+        <v>9752</v>
+      </c>
+      <c r="H191" t="n">
         <v>9687.166666666666</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7338,18 +7691,21 @@
         <v>151.2593</v>
       </c>
       <c r="G192" t="n">
+        <v>9752.333333333334</v>
+      </c>
+      <c r="H192" t="n">
         <v>9690.583333333334</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7373,18 +7729,21 @@
         <v>9.099399999999999</v>
       </c>
       <c r="G193" t="n">
+        <v>9754</v>
+      </c>
+      <c r="H193" t="n">
         <v>9692.833333333334</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7408,18 +7767,21 @@
         <v>31.7687</v>
       </c>
       <c r="G194" t="n">
+        <v>9761.666666666666</v>
+      </c>
+      <c r="H194" t="n">
         <v>9696.416666666666</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7443,18 +7805,21 @@
         <v>14</v>
       </c>
       <c r="G195" t="n">
+        <v>9762</v>
+      </c>
+      <c r="H195" t="n">
         <v>9699.833333333334</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7478,18 +7843,21 @@
         <v>42.0887</v>
       </c>
       <c r="G196" t="n">
+        <v>9757.666666666666</v>
+      </c>
+      <c r="H196" t="n">
         <v>9702.083333333334</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7513,18 +7881,21 @@
         <v>61.9842</v>
       </c>
       <c r="G197" t="n">
+        <v>9753</v>
+      </c>
+      <c r="H197" t="n">
         <v>9704.833333333334</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7548,18 +7919,21 @@
         <v>36.0677</v>
       </c>
       <c r="G198" t="n">
+        <v>9748.333333333334</v>
+      </c>
+      <c r="H198" t="n">
         <v>9707.583333333334</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7583,18 +7957,21 @@
         <v>45.0758</v>
       </c>
       <c r="G199" t="n">
+        <v>9746.666666666666</v>
+      </c>
+      <c r="H199" t="n">
         <v>9709.75</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7618,18 +7995,21 @@
         <v>91.51949999999999</v>
       </c>
       <c r="G200" t="n">
+        <v>9742.666666666666</v>
+      </c>
+      <c r="H200" t="n">
         <v>9712.583333333334</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7653,18 +8033,21 @@
         <v>142.6664</v>
       </c>
       <c r="G201" t="n">
+        <v>9748</v>
+      </c>
+      <c r="H201" t="n">
         <v>9716</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7688,18 +8071,21 @@
         <v>1</v>
       </c>
       <c r="G202" t="n">
+        <v>9751</v>
+      </c>
+      <c r="H202" t="n">
         <v>9718.333333333334</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7723,18 +8109,21 @@
         <v>67.86190000000001</v>
       </c>
       <c r="G203" t="n">
+        <v>9756</v>
+      </c>
+      <c r="H203" t="n">
         <v>9720.083333333334</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7758,18 +8147,21 @@
         <v>31.0583</v>
       </c>
       <c r="G204" t="n">
+        <v>9757</v>
+      </c>
+      <c r="H204" t="n">
         <v>9723.25</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7793,18 +8185,21 @@
         <v>10</v>
       </c>
       <c r="G205" t="n">
+        <v>9755.666666666666</v>
+      </c>
+      <c r="H205" t="n">
         <v>9724.083333333334</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7828,18 +8223,21 @@
         <v>8.5</v>
       </c>
       <c r="G206" t="n">
+        <v>9753.333333333334</v>
+      </c>
+      <c r="H206" t="n">
         <v>9724.416666666666</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7863,18 +8261,21 @@
         <v>0.2</v>
       </c>
       <c r="G207" t="n">
+        <v>9748</v>
+      </c>
+      <c r="H207" t="n">
         <v>9726.583333333334</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7898,18 +8299,21 @@
         <v>102</v>
       </c>
       <c r="G208" t="n">
+        <v>9747.666666666666</v>
+      </c>
+      <c r="H208" t="n">
         <v>9727.083333333334</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7933,18 +8337,21 @@
         <v>31.0381</v>
       </c>
       <c r="G209" t="n">
+        <v>9740.666666666666</v>
+      </c>
+      <c r="H209" t="n">
         <v>9727.583333333334</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7968,18 +8375,21 @@
         <v>8.5</v>
       </c>
       <c r="G210" t="n">
+        <v>9732.666666666666</v>
+      </c>
+      <c r="H210" t="n">
         <v>9729.5</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8003,18 +8413,21 @@
         <v>279.3431</v>
       </c>
       <c r="G211" t="n">
+        <v>9729</v>
+      </c>
+      <c r="H211" t="n">
         <v>9731.333333333334</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8038,18 +8451,21 @@
         <v>20</v>
       </c>
       <c r="G212" t="n">
+        <v>9725.666666666666</v>
+      </c>
+      <c r="H212" t="n">
         <v>9733.25</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8073,18 +8489,21 @@
         <v>20</v>
       </c>
       <c r="G213" t="n">
+        <v>9724.333333333334</v>
+      </c>
+      <c r="H213" t="n">
         <v>9735.666666666666</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8108,18 +8527,21 @@
         <v>20</v>
       </c>
       <c r="G214" t="n">
+        <v>9720.666666666666</v>
+      </c>
+      <c r="H214" t="n">
         <v>9737.166666666666</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8143,18 +8565,21 @@
         <v>160.4838</v>
       </c>
       <c r="G215" t="n">
+        <v>9716.666666666666</v>
+      </c>
+      <c r="H215" t="n">
         <v>9739.083333333334</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8178,18 +8603,21 @@
         <v>15.464</v>
       </c>
       <c r="G216" t="n">
+        <v>9712.333333333334</v>
+      </c>
+      <c r="H216" t="n">
         <v>9739.166666666666</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8213,18 +8641,21 @@
         <v>11.308</v>
       </c>
       <c r="G217" t="n">
+        <v>9706</v>
+      </c>
+      <c r="H217" t="n">
         <v>9739.666666666666</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8248,18 +8679,21 @@
         <v>1201.8756</v>
       </c>
       <c r="G218" t="n">
+        <v>9690.666666666666</v>
+      </c>
+      <c r="H218" t="n">
         <v>9736.833333333334</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8283,18 +8717,21 @@
         <v>9</v>
       </c>
       <c r="G219" t="n">
+        <v>9686</v>
+      </c>
+      <c r="H219" t="n">
         <v>9735.333333333334</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8318,18 +8755,21 @@
         <v>19</v>
       </c>
       <c r="G220" t="n">
+        <v>9683.333333333334</v>
+      </c>
+      <c r="H220" t="n">
         <v>9735.916666666666</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8353,18 +8793,21 @@
         <v>71.2296</v>
       </c>
       <c r="G221" t="n">
+        <v>9676</v>
+      </c>
+      <c r="H221" t="n">
         <v>9734.916666666666</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8388,18 +8831,21 @@
         <v>30</v>
       </c>
       <c r="G222" t="n">
+        <v>9669</v>
+      </c>
+      <c r="H222" t="n">
         <v>9732.666666666666</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8423,18 +8869,21 @@
         <v>23</v>
       </c>
       <c r="G223" t="n">
+        <v>9665.333333333334</v>
+      </c>
+      <c r="H223" t="n">
         <v>9731</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8458,18 +8907,21 @@
         <v>25</v>
       </c>
       <c r="G224" t="n">
+        <v>9661.666666666666</v>
+      </c>
+      <c r="H224" t="n">
         <v>9730.5</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8493,18 +8945,21 @@
         <v>77.9478</v>
       </c>
       <c r="G225" t="n">
+        <v>9659.333333333334</v>
+      </c>
+      <c r="H225" t="n">
         <v>9727.583333333334</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8528,18 +8983,21 @@
         <v>33.04</v>
       </c>
       <c r="G226" t="n">
+        <v>9657.666666666666</v>
+      </c>
+      <c r="H226" t="n">
         <v>9726.5</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8563,18 +9021,21 @@
         <v>22</v>
       </c>
       <c r="G227" t="n">
+        <v>9656</v>
+      </c>
+      <c r="H227" t="n">
         <v>9725.5</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8598,18 +9059,21 @@
         <v>20</v>
       </c>
       <c r="G228" t="n">
+        <v>9652.333333333334</v>
+      </c>
+      <c r="H228" t="n">
         <v>9722.416666666666</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8633,18 +9097,21 @@
         <v>3</v>
       </c>
       <c r="G229" t="n">
+        <v>9650</v>
+      </c>
+      <c r="H229" t="n">
         <v>9721.416666666666</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8668,18 +9135,21 @@
         <v>46</v>
       </c>
       <c r="G230" t="n">
+        <v>9652</v>
+      </c>
+      <c r="H230" t="n">
         <v>9720.916666666666</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8703,18 +9173,21 @@
         <v>18.0136</v>
       </c>
       <c r="G231" t="n">
+        <v>9651.666666666666</v>
+      </c>
+      <c r="H231" t="n">
         <v>9719.583333333334</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8738,18 +9211,21 @@
         <v>180.0002</v>
       </c>
       <c r="G232" t="n">
+        <v>9657.666666666666</v>
+      </c>
+      <c r="H232" t="n">
         <v>9719.916666666666</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8773,18 +9249,21 @@
         <v>178</v>
       </c>
       <c r="G233" t="n">
+        <v>9675</v>
+      </c>
+      <c r="H233" t="n">
         <v>9720.416666666666</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8808,18 +9287,21 @@
         <v>355.5</v>
       </c>
       <c r="G234" t="n">
+        <v>9685.666666666666</v>
+      </c>
+      <c r="H234" t="n">
         <v>9721.333333333334</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8843,18 +9325,21 @@
         <v>4</v>
       </c>
       <c r="G235" t="n">
+        <v>9688.333333333334</v>
+      </c>
+      <c r="H235" t="n">
         <v>9720.583333333334</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8878,18 +9363,21 @@
         <v>177</v>
       </c>
       <c r="G236" t="n">
+        <v>9705</v>
+      </c>
+      <c r="H236" t="n">
         <v>9721.583333333334</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8913,18 +9401,21 @@
         <v>200.21</v>
       </c>
       <c r="G237" t="n">
+        <v>9716.333333333334</v>
+      </c>
+      <c r="H237" t="n">
         <v>9721.416666666666</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8948,18 +9439,21 @@
         <v>104.3221</v>
       </c>
       <c r="G238" t="n">
+        <v>9730</v>
+      </c>
+      <c r="H238" t="n">
         <v>9724.25</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8983,18 +9477,21 @@
         <v>28.98</v>
       </c>
       <c r="G239" t="n">
+        <v>9740</v>
+      </c>
+      <c r="H239" t="n">
         <v>9726</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9018,18 +9515,21 @@
         <v>3.9785</v>
       </c>
       <c r="G240" t="n">
+        <v>9750.666666666666</v>
+      </c>
+      <c r="H240" t="n">
         <v>9726.166666666666</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9053,18 +9553,21 @@
         <v>145.0639</v>
       </c>
       <c r="G241" t="n">
+        <v>9761</v>
+      </c>
+      <c r="H241" t="n">
         <v>9726.333333333334</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9088,18 +9591,21 @@
         <v>14</v>
       </c>
       <c r="G242" t="n">
+        <v>9771.333333333334</v>
+      </c>
+      <c r="H242" t="n">
         <v>9726.5</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9123,18 +9629,21 @@
         <v>62.61677024</v>
       </c>
       <c r="G243" t="n">
+        <v>9784.666666666666</v>
+      </c>
+      <c r="H243" t="n">
         <v>9727.416666666666</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9158,18 +9667,21 @@
         <v>11</v>
       </c>
       <c r="G244" t="n">
+        <v>9794.333333333334</v>
+      </c>
+      <c r="H244" t="n">
         <v>9727.916666666666</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9193,18 +9705,21 @@
         <v>33.5527</v>
       </c>
       <c r="G245" t="n">
+        <v>9802.333333333334</v>
+      </c>
+      <c r="H245" t="n">
         <v>9728.416666666666</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9228,18 +9743,21 @@
         <v>209.6891</v>
       </c>
       <c r="G246" t="n">
+        <v>9809.666666666666</v>
+      </c>
+      <c r="H246" t="n">
         <v>9730.416666666666</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9263,18 +9781,21 @@
         <v>4.5025</v>
       </c>
       <c r="G247" t="n">
+        <v>9813.666666666666</v>
+      </c>
+      <c r="H247" t="n">
         <v>9732.083333333334</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9298,18 +9819,21 @@
         <v>159.0639</v>
       </c>
       <c r="G248" t="n">
+        <v>9812.333333333334</v>
+      </c>
+      <c r="H248" t="n">
         <v>9733.5</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9333,18 +9857,21 @@
         <v>184.1502</v>
       </c>
       <c r="G249" t="n">
+        <v>9808</v>
+      </c>
+      <c r="H249" t="n">
         <v>9734.166666666666</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9368,18 +9895,21 @@
         <v>184.1502</v>
       </c>
       <c r="G250" t="n">
+        <v>9806.333333333334</v>
+      </c>
+      <c r="H250" t="n">
         <v>9733.416666666666</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9403,18 +9933,21 @@
         <v>208.5879</v>
       </c>
       <c r="G251" t="n">
+        <v>9805.333333333334</v>
+      </c>
+      <c r="H251" t="n">
         <v>9734.916666666666</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9438,18 +9971,21 @@
         <v>208.828</v>
       </c>
       <c r="G252" t="n">
+        <v>9808.666666666666</v>
+      </c>
+      <c r="H252" t="n">
         <v>9735.5</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9473,18 +10009,21 @@
         <v>224.3461</v>
       </c>
       <c r="G253" t="n">
+        <v>9807.333333333334</v>
+      </c>
+      <c r="H253" t="n">
         <v>9737.583333333334</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9508,18 +10047,21 @@
         <v>254.2099</v>
       </c>
       <c r="G254" t="n">
+        <v>9811.333333333334</v>
+      </c>
+      <c r="H254" t="n">
         <v>9738.416666666666</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9543,18 +10085,21 @@
         <v>10</v>
       </c>
       <c r="G255" t="n">
+        <v>9811.666666666666</v>
+      </c>
+      <c r="H255" t="n">
         <v>9738.583333333334</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9578,18 +10123,21 @@
         <v>188.4637</v>
       </c>
       <c r="G256" t="n">
+        <v>9815.333333333334</v>
+      </c>
+      <c r="H256" t="n">
         <v>9740.75</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9613,18 +10161,401 @@
         <v>10</v>
       </c>
       <c r="G257" t="n">
+        <v>9817.333333333334</v>
+      </c>
+      <c r="H257" t="n">
         <v>9742.583333333334</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>1</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>9810</v>
+      </c>
+      <c r="C258" t="n">
+        <v>9810</v>
+      </c>
+      <c r="D258" t="n">
+        <v>9810</v>
+      </c>
+      <c r="E258" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F258" t="n">
+        <v>4.4896</v>
+      </c>
+      <c r="G258" t="n">
+        <v>9815</v>
+      </c>
+      <c r="H258" t="n">
+        <v>9744.083333333334</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>1</v>
+      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>9800</v>
+      </c>
+      <c r="C259" t="n">
+        <v>9800</v>
+      </c>
+      <c r="D259" t="n">
+        <v>9800</v>
+      </c>
+      <c r="E259" t="n">
+        <v>9800</v>
+      </c>
+      <c r="F259" t="n">
+        <v>10</v>
+      </c>
+      <c r="G259" t="n">
+        <v>9813.666666666666</v>
+      </c>
+      <c r="H259" t="n">
+        <v>9744.666666666666</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>9810</v>
+      </c>
+      <c r="C260" t="n">
+        <v>9850</v>
+      </c>
+      <c r="D260" t="n">
+        <v>9850</v>
+      </c>
+      <c r="E260" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F260" t="n">
+        <v>31.0208</v>
+      </c>
+      <c r="G260" t="n">
+        <v>9815.666666666666</v>
+      </c>
+      <c r="H260" t="n">
+        <v>9746.666666666666</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>9820</v>
+      </c>
+      <c r="C261" t="n">
+        <v>9820</v>
+      </c>
+      <c r="D261" t="n">
+        <v>9820</v>
+      </c>
+      <c r="E261" t="n">
+        <v>9820</v>
+      </c>
+      <c r="F261" t="n">
+        <v>4</v>
+      </c>
+      <c r="G261" t="n">
+        <v>9816.666666666666</v>
+      </c>
+      <c r="H261" t="n">
+        <v>9747.583333333334</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>1</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>9850</v>
+      </c>
+      <c r="C262" t="n">
+        <v>9850</v>
+      </c>
+      <c r="D262" t="n">
+        <v>9850</v>
+      </c>
+      <c r="E262" t="n">
+        <v>9850</v>
+      </c>
+      <c r="F262" t="n">
+        <v>21</v>
+      </c>
+      <c r="G262" t="n">
+        <v>9818</v>
+      </c>
+      <c r="H262" t="n">
+        <v>9748.833333333334</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>9815</v>
+      </c>
+      <c r="C263" t="n">
+        <v>9815</v>
+      </c>
+      <c r="D263" t="n">
+        <v>9815</v>
+      </c>
+      <c r="E263" t="n">
+        <v>9815</v>
+      </c>
+      <c r="F263" t="n">
+        <v>4</v>
+      </c>
+      <c r="G263" t="n">
+        <v>9818.666666666666</v>
+      </c>
+      <c r="H263" t="n">
+        <v>9749.166666666666</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>9845</v>
+      </c>
+      <c r="C264" t="n">
+        <v>9845</v>
+      </c>
+      <c r="D264" t="n">
+        <v>9845</v>
+      </c>
+      <c r="E264" t="n">
+        <v>9845</v>
+      </c>
+      <c r="F264" t="n">
+        <v>15.5104</v>
+      </c>
+      <c r="G264" t="n">
+        <v>9823</v>
+      </c>
+      <c r="H264" t="n">
+        <v>9750.666666666666</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>9805</v>
+      </c>
+      <c r="C265" t="n">
+        <v>9805</v>
+      </c>
+      <c r="D265" t="n">
+        <v>9805</v>
+      </c>
+      <c r="E265" t="n">
+        <v>9805</v>
+      </c>
+      <c r="F265" t="n">
+        <v>31.0208</v>
+      </c>
+      <c r="G265" t="n">
+        <v>9829</v>
+      </c>
+      <c r="H265" t="n">
+        <v>9751.75</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>9805</v>
+      </c>
+      <c r="C266" t="n">
+        <v>9805</v>
+      </c>
+      <c r="D266" t="n">
+        <v>9805</v>
+      </c>
+      <c r="E266" t="n">
+        <v>9805</v>
+      </c>
+      <c r="F266" t="n">
+        <v>50</v>
+      </c>
+      <c r="G266" t="n">
+        <v>9827</v>
+      </c>
+      <c r="H266" t="n">
+        <v>9753.333333333334</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>9800</v>
+      </c>
+      <c r="C267" t="n">
+        <v>9800</v>
+      </c>
+      <c r="D267" t="n">
+        <v>9800</v>
+      </c>
+      <c r="E267" t="n">
+        <v>9800</v>
+      </c>
+      <c r="F267" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G267" t="n">
+        <v>9825</v>
+      </c>
+      <c r="H267" t="n">
+        <v>9754.75</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>1</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest BTG.xlsx
+++ b/BackTest/2019-10-30 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3111.261021639999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -486,8 +486,12 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>9670</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9670</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -520,8 +524,14 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>9670</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +563,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>9670</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -649,7 +665,7 @@
         <v>3694.657021639999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +731,7 @@
         <v>3634.079321639999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +764,7 @@
         <v>3711.579321639999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +797,7 @@
         <v>3737.32672164</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +830,7 @@
         <v>3479.472621639999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +863,7 @@
         <v>3479.472621639999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +896,7 @@
         <v>3484.380621639999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +929,7 @@
         <v>3460.380621639999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +962,7 @@
         <v>3460.380621639999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +995,7 @@
         <v>3460.380621639999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1028,7 @@
         <v>3460.380621639999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1061,7 @@
         <v>3458.247321639999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1127,7 @@
         <v>3369.827721639999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1226,7 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1259,7 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1540,7 +1556,7 @@
         <v>3953.263021639999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1672,7 +1688,7 @@
         <v>3958.746821639999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1721,7 @@
         <v>3858.746821639999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1754,7 @@
         <v>3862.746821639999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1820,7 @@
         <v>3715.974921639999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1936,7 +1952,7 @@
         <v>3697.774921639999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1985,7 @@
         <v>3702.547921639999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2018,7 @@
         <v>3698.177321639999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2051,7 @@
         <v>3646.056221639999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2084,7 @@
         <v>3646.056221639999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2117,7 @@
         <v>3699.33822164</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2150,7 @@
         <v>3798.601421639999</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2183,7 @@
         <v>3798.601421639999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2216,7 @@
         <v>3792.374321639999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2249,7 @@
         <v>3790.237121639999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2282,7 @@
         <v>3953.295721639999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2315,7 @@
         <v>3953.295721639999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2348,7 @@
         <v>4034.718721639999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2381,7 @@
         <v>4034.718721639999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2414,7 @@
         <v>4120.299721639999</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2447,7 @@
         <v>4114.299221639999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2480,7 @@
         <v>4114.570621639999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2513,7 @@
         <v>4114.570621639999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2579,7 @@
         <v>4061.257121639999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2612,7 @@
         <v>4413.853221639999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2645,7 @@
         <v>4413.853221639999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2678,7 @@
         <v>4413.853221639999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2711,7 @@
         <v>4401.853221639999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2744,7 @@
         <v>4413.853221639999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2777,7 @@
         <v>4631.853221639999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2810,7 @@
         <v>4583.853221639999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2843,7 @@
         <v>4518.616621639999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2876,7 @@
         <v>4562.180821639999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2909,7 @@
         <v>4480.806121639998</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2942,7 @@
         <v>4299.806121639998</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2975,7 @@
         <v>4322.388821639998</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3008,7 @@
         <v>4716.756221639998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3041,7 @@
         <v>4698.456221639998</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3074,7 @@
         <v>4686.345321639998</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3107,7 @@
         <v>4711.838295159999</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3140,7 @@
         <v>4736.202083879999</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3173,7 @@
         <v>4736.202083879999</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3206,7 @@
         <v>4612.766583879999</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3239,7 @@
         <v>4604.721983879999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3272,7 @@
         <v>4602.32198388</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3305,7 @@
         <v>4613.59238388</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3338,7 @@
         <v>4613.59238388</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3371,7 @@
         <v>4593.59238388</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3404,7 @@
         <v>4595.59238388</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3437,7 @@
         <v>4600.52208388</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3470,7 @@
         <v>4607.499983879999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3503,7 @@
         <v>4607.39898388</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3536,7 @@
         <v>4610.45398388</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3569,7 @@
         <v>4343.49368388</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3602,7 @@
         <v>4169.321083880001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3635,7 @@
         <v>3988.321083880001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3668,7 @@
         <v>4023.632083880001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3701,7 @@
         <v>4031.733683880001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3734,7 @@
         <v>4039.733683880001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3767,7 @@
         <v>4029.733683880001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3800,7 @@
         <v>4029.733683880001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3833,7 @@
         <v>4029.733683880001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3866,7 @@
         <v>4030.774883880001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3899,7 @@
         <v>4003.816983880001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3932,7 @@
         <v>3993.585883880001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3965,7 @@
         <v>3908.107683880001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3998,7 @@
         <v>3908.586483880001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4031,7 @@
         <v>3910.106183880001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4064,7 @@
         <v>3909.974983880001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4114,7 +4130,7 @@
         <v>3910.201783880001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4312,7 +4328,7 @@
         <v>4035.804683880001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4361,7 @@
         <v>4037.57078388</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4394,7 @@
         <v>4037.57078388</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5137,14 +5153,10 @@
         <v>4328.883183880001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>9650</v>
-      </c>
-      <c r="J144" t="n">
-        <v>9650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5177,14 +5189,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5216,14 +5222,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5252,19 +5252,11 @@
         <v>4295.642783880001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>9625</v>
-      </c>
-      <c r="J147" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5296,14 +5288,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5332,19 +5318,11 @@
         <v>4333.7961602</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>9620</v>
-      </c>
-      <c r="J149" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5373,19 +5351,11 @@
         <v>4410.1511602</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>9630</v>
-      </c>
-      <c r="J150" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5414,19 +5384,11 @@
         <v>4406.1511602</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>9665</v>
-      </c>
-      <c r="J151" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5455,19 +5417,11 @@
         <v>4406.1511602</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>9610</v>
-      </c>
-      <c r="J152" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5496,19 +5450,11 @@
         <v>4400.1511602</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>9610</v>
-      </c>
-      <c r="J153" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5537,19 +5483,11 @@
         <v>4396.1511602</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>9605</v>
-      </c>
-      <c r="J154" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5578,19 +5516,11 @@
         <v>4428.1511602</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>9595</v>
-      </c>
-      <c r="J155" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5622,14 +5552,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5661,14 +5585,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5700,14 +5618,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5739,14 +5651,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5778,14 +5684,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5817,14 +5717,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5856,14 +5750,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5895,14 +5783,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5934,14 +5816,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5973,14 +5849,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6012,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6051,14 +5915,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6087,19 +5945,13 @@
         <v>4489.62248388</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>9650</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>1.014689119170985</v>
+        <v>1</v>
       </c>
       <c r="M168" t="inlineStr"/>
     </row>
@@ -6126,7 +5978,7 @@
         <v>4489.12248388</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6159,7 +6011,7 @@
         <v>4489.12248388</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6192,7 +6044,7 @@
         <v>4596.29598388</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6357,7 +6209,7 @@
         <v>4154.85418388</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6390,7 +6242,7 @@
         <v>4328.48628388</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6456,7 +6308,7 @@
         <v>4278.52798388</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6489,14 +6341,10 @@
         <v>4278.52798388</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>9550</v>
-      </c>
-      <c r="J180" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
@@ -6526,17 +6374,11 @@
         <v>4278.52798388</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>9550</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6568,14 +6410,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>9550</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6670,17 +6506,11 @@
         <v>4360.931183879999</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>9565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6709,17 +6539,11 @@
         <v>4370.931183879999</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>9560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6748,17 +6572,11 @@
         <v>4373.743683879999</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>9570</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6787,17 +6605,11 @@
         <v>4345.743683879999</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>9600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6826,17 +6638,11 @@
         <v>4392.520183879999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>9575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6869,11 +6675,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6906,11 +6708,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6939,17 +6737,11 @@
         <v>4415.61151088</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>9570</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6978,17 +6770,11 @@
         <v>4415.61151088</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>9590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7017,17 +6803,11 @@
         <v>4415.61151088</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>9590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7060,11 +6840,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7097,11 +6873,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7134,11 +6906,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7167,17 +6935,11 @@
         <v>4255.894610879999</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>9635</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7210,11 +6972,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7243,17 +7001,11 @@
         <v>4271.477610879999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>9560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7282,17 +7034,11 @@
         <v>4286.972110879999</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>9635</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7325,11 +7071,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7362,11 +7104,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7399,11 +7137,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7436,11 +7170,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7473,11 +7203,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7510,11 +7236,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7547,11 +7269,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7584,11 +7302,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7621,11 +7335,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7658,11 +7368,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7695,11 +7401,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7732,11 +7434,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7769,11 +7467,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7806,11 +7500,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +7533,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7880,11 +7566,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7917,11 +7599,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7954,11 +7632,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7991,11 +7665,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8028,11 +7698,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8065,11 +7731,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8102,11 +7764,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8139,11 +7797,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8176,11 +7830,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8213,11 +7863,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8250,11 +7896,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8287,11 +7929,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8324,11 +7962,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8361,11 +7995,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8398,11 +8028,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8435,11 +8061,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8472,11 +8094,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8509,11 +8127,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8546,11 +8160,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8583,11 +8193,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8620,11 +8226,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8657,11 +8259,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8690,15 +8288,11 @@
         <v>4203.548966219999</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8731,11 +8325,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8764,16 +8354,14 @@
         <v>4203.548966219999</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
       <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
@@ -8832,7 +8420,7 @@
         <v>4203.548966219999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8865,7 +8453,7 @@
         <v>4143.888966219999</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8898,7 +8486,7 @@
         <v>4178.091166219999</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8931,7 +8519,7 @@
         <v>4176.091166219999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8964,7 +8552,7 @@
         <v>4180.091166219999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8997,7 +8585,7 @@
         <v>4207.469666219999</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9030,7 +8618,7 @@
         <v>4204.142166219998</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9063,7 +8651,7 @@
         <v>4355.401466219998</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9096,7 +8684,7 @@
         <v>4346.302066219998</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9624,7 +9212,7 @@
         <v>4273.724166219997</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9657,7 +9245,7 @@
         <v>4265.224166219997</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9690,7 +9278,7 @@
         <v>3985.881066219997</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9723,7 +9311,7 @@
         <v>3985.881066219997</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9756,7 +9344,7 @@
         <v>4005.881066219997</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9789,7 +9377,7 @@
         <v>4025.881066219997</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9822,7 +9410,7 @@
         <v>3865.397266219997</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9855,7 +9443,7 @@
         <v>3880.861266219997</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9888,7 +9476,7 @@
         <v>3869.553266219997</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9921,7 +9509,7 @@
         <v>2667.677666219996</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9954,7 +9542,7 @@
         <v>2676.677666219996</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9987,7 +9575,7 @@
         <v>2695.677666219996</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10020,7 +9608,7 @@
         <v>2624.448066219996</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10053,7 +9641,7 @@
         <v>2654.448066219996</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10086,7 +9674,7 @@
         <v>2677.448066219996</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10119,7 +9707,7 @@
         <v>2677.448066219996</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10152,7 +9740,7 @@
         <v>2599.500266219996</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10185,7 +9773,7 @@
         <v>2632.540266219996</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10218,7 +9806,7 @@
         <v>2632.540266219996</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10251,7 +9839,7 @@
         <v>2632.540266219996</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10284,7 +9872,7 @@
         <v>2635.540266219996</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10317,7 +9905,7 @@
         <v>2681.540266219996</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10350,7 +9938,7 @@
         <v>2663.526666219996</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10383,7 +9971,7 @@
         <v>2843.526866219996</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10416,7 +10004,7 @@
         <v>3021.526866219996</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10482,7 +10070,7 @@
         <v>3373.026866219996</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10515,7 +10103,7 @@
         <v>3550.026866219996</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10548,7 +10136,7 @@
         <v>3349.816866219996</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10581,7 +10169,7 @@
         <v>3454.138966219996</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10614,7 +10202,7 @@
         <v>3425.158966219996</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10647,7 +10235,7 @@
         <v>3429.137466219996</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10680,7 +10268,7 @@
         <v>3429.137466219996</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10713,7 +10301,7 @@
         <v>3429.137466219996</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10746,7 +10334,7 @@
         <v>3491.754236459996</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10779,7 +10367,7 @@
         <v>3480.754236459996</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10845,7 +10433,7 @@
         <v>3271.065136459996</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10878,7 +10466,7 @@
         <v>3275.567636459996</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10911,7 +10499,7 @@
         <v>3116.503736459996</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10944,7 +10532,7 @@
         <v>2932.353536459996</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10977,7 +10565,7 @@
         <v>2748.203336459996</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11010,7 +10598,7 @@
         <v>2956.791236459996</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11043,7 +10631,7 @@
         <v>2747.963236459996</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11076,7 +10664,7 @@
         <v>2747.963236459996</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11109,7 +10697,7 @@
         <v>3002.173136459995</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11142,7 +10730,7 @@
         <v>2992.173136459995</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11175,7 +10763,7 @@
         <v>3180.636836459995</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11208,7 +10796,7 @@
         <v>3170.636836459995</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11241,7 +10829,7 @@
         <v>3166.147236459995</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11274,7 +10862,7 @@
         <v>3156.147236459995</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11307,7 +10895,7 @@
         <v>3187.168036459995</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11340,7 +10928,7 @@
         <v>3183.168036459995</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11373,7 +10961,7 @@
         <v>3204.168036459995</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11406,7 +10994,7 @@
         <v>3200.168036459995</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11439,7 +11027,7 @@
         <v>3215.678436459995</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11472,7 +11060,7 @@
         <v>3184.657636459996</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11505,7 +11093,7 @@
         <v>3184.657636459996</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11538,7 +11126,7 @@
         <v>3153.157636459996</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11549,6 +11137,6 @@
       <c r="M325" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest BTG.xlsx
+++ b/BackTest/2019-10-30 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3111.261021639999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>3147.996821639999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9670</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>9670</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>9670</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -665,7 +649,7 @@
         <v>3694.657021639999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -731,7 +715,7 @@
         <v>3634.079321639999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -764,7 +748,7 @@
         <v>3711.579321639999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -797,7 +781,7 @@
         <v>3737.32672164</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -830,7 +814,7 @@
         <v>3479.472621639999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -863,7 +847,7 @@
         <v>3479.472621639999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -896,7 +880,7 @@
         <v>3484.380621639999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -929,7 +913,7 @@
         <v>3460.380621639999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -962,7 +946,7 @@
         <v>3460.380621639999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -995,7 +979,7 @@
         <v>3460.380621639999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1028,7 +1012,7 @@
         <v>3460.380621639999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1061,7 +1045,7 @@
         <v>3458.247321639999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1094,10 +1078,14 @@
         <v>3458.247321639999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9705</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9705</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1127,11 +1115,17 @@
         <v>3369.827721639999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1160,11 +1154,19 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9675</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1195,19 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9680</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1226,11 +1236,19 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9680</v>
+      </c>
+      <c r="J25" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1259,11 +1277,19 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9680</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1292,11 +1318,19 @@
         <v>3613.344821639999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9680</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1328,8 +1362,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1361,8 +1401,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1394,8 +1440,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1427,8 +1479,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1460,8 +1518,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1493,8 +1557,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1526,8 +1596,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1556,11 +1632,17 @@
         <v>3953.263021639999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1592,8 +1674,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1625,8 +1713,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1658,8 +1752,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1688,11 +1788,17 @@
         <v>3958.746821639999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1721,11 +1827,17 @@
         <v>3858.746821639999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1866,17 @@
         <v>3862.746821639999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1790,8 +1908,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1820,11 +1944,17 @@
         <v>3715.974921639999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1856,8 +1986,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1889,8 +2025,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1922,8 +2064,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1952,11 +2100,17 @@
         <v>3697.774921639999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1985,11 +2139,17 @@
         <v>3702.547921639999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +2178,17 @@
         <v>3698.177321639999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2051,11 +2217,17 @@
         <v>3646.056221639999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2084,11 +2256,17 @@
         <v>3646.056221639999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2117,11 +2295,17 @@
         <v>3699.33822164</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2150,11 +2334,17 @@
         <v>3798.601421639999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2183,11 +2373,17 @@
         <v>3798.601421639999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2216,11 +2412,17 @@
         <v>3792.374321639999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2249,11 +2451,17 @@
         <v>3790.237121639999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2282,11 +2490,17 @@
         <v>3953.295721639999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2315,11 +2529,17 @@
         <v>3953.295721639999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2348,11 +2568,17 @@
         <v>4034.718721639999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2381,11 +2607,17 @@
         <v>4034.718721639999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2414,11 +2646,17 @@
         <v>4120.299721639999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2447,11 +2685,17 @@
         <v>4114.299221639999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2480,11 +2724,17 @@
         <v>4114.570621639999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2513,11 +2763,17 @@
         <v>4114.570621639999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2549,8 +2805,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2579,11 +2841,17 @@
         <v>4061.257121639999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2612,11 +2880,17 @@
         <v>4413.853221639999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2645,11 +2919,17 @@
         <v>4413.853221639999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2678,11 +2958,17 @@
         <v>4413.853221639999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2711,11 +2997,17 @@
         <v>4401.853221639999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2744,11 +3036,17 @@
         <v>4413.853221639999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2777,11 +3075,17 @@
         <v>4631.853221639999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2810,11 +3114,17 @@
         <v>4583.853221639999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2843,11 +3153,17 @@
         <v>4518.616621639999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2876,11 +3192,17 @@
         <v>4562.180821639999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2909,11 +3231,17 @@
         <v>4480.806121639998</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2942,11 +3270,17 @@
         <v>4299.806121639998</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2975,11 +3309,17 @@
         <v>4322.388821639998</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3008,11 +3348,17 @@
         <v>4716.756221639998</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3041,11 +3387,17 @@
         <v>4698.456221639998</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3074,11 +3426,17 @@
         <v>4686.345321639998</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3107,11 +3465,17 @@
         <v>4711.838295159999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3140,11 +3504,17 @@
         <v>4736.202083879999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3173,11 +3543,17 @@
         <v>4736.202083879999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3206,11 +3582,17 @@
         <v>4612.766583879999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3239,11 +3621,17 @@
         <v>4604.721983879999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3272,11 +3660,17 @@
         <v>4602.32198388</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3305,11 +3699,17 @@
         <v>4613.59238388</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3338,11 +3738,17 @@
         <v>4613.59238388</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3371,11 +3777,17 @@
         <v>4593.59238388</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3404,11 +3816,17 @@
         <v>4595.59238388</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3437,11 +3855,17 @@
         <v>4600.52208388</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3470,11 +3894,17 @@
         <v>4607.499983879999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3503,11 +3933,17 @@
         <v>4607.39898388</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3536,11 +3972,17 @@
         <v>4610.45398388</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3569,11 +4011,17 @@
         <v>4343.49368388</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3602,11 +4050,17 @@
         <v>4169.321083880001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3635,11 +4089,17 @@
         <v>3988.321083880001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3668,11 +4128,17 @@
         <v>4023.632083880001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3701,11 +4167,17 @@
         <v>4031.733683880001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3734,11 +4206,17 @@
         <v>4039.733683880001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3767,11 +4245,17 @@
         <v>4029.733683880001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3800,11 +4284,17 @@
         <v>4029.733683880001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3833,11 +4323,17 @@
         <v>4029.733683880001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3866,11 +4362,17 @@
         <v>4030.774883880001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3899,11 +4401,17 @@
         <v>4003.816983880001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3932,11 +4440,17 @@
         <v>3993.585883880001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3965,11 +4479,17 @@
         <v>3908.107683880001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3998,11 +4518,17 @@
         <v>3908.586483880001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4031,11 +4557,17 @@
         <v>3910.106183880001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4064,11 +4596,17 @@
         <v>3909.974983880001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4100,8 +4638,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4130,11 +4674,17 @@
         <v>3910.201783880001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4166,8 +4716,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4199,8 +4755,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4232,8 +4794,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4265,8 +4833,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4298,8 +4872,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4328,11 +4908,17 @@
         <v>4035.804683880001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4361,11 +4947,17 @@
         <v>4037.57078388</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4394,11 +4986,17 @@
         <v>4037.57078388</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4430,8 +5028,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4463,8 +5067,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4496,8 +5106,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4529,8 +5145,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4562,8 +5184,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4595,8 +5223,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4628,8 +5262,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4661,8 +5301,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4694,8 +5340,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4727,8 +5379,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4760,8 +5418,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4793,8 +5457,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4826,8 +5496,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4859,8 +5535,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4892,8 +5574,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4925,8 +5613,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4958,8 +5652,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4991,8 +5691,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5024,8 +5730,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5057,8 +5769,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5090,8 +5808,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5123,8 +5847,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5156,8 +5886,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5189,8 +5925,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5222,8 +5964,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5255,8 +6003,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5288,8 +6042,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5321,8 +6081,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5354,8 +6120,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5387,8 +6159,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5420,8 +6198,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5453,8 +6237,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5486,8 +6276,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5519,8 +6315,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5552,8 +6354,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5585,8 +6393,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5618,8 +6432,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5651,8 +6471,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5684,8 +6510,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5717,8 +6549,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5750,8 +6588,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5783,8 +6627,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5816,8 +6666,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5849,8 +6705,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5882,8 +6744,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5915,8 +6783,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5948,8 +6822,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5978,11 +6858,17 @@
         <v>4489.12248388</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6014,8 +6900,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6047,8 +6939,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6080,8 +6978,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6113,8 +7017,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6146,8 +7056,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6179,8 +7095,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6212,8 +7134,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6245,8 +7173,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6278,8 +7212,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6308,11 +7248,17 @@
         <v>4278.52798388</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6344,8 +7290,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6374,11 +7326,17 @@
         <v>4278.52798388</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6410,8 +7368,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6443,8 +7407,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6476,8 +7446,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6509,8 +7485,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6542,8 +7524,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6575,8 +7563,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6608,8 +7602,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6641,8 +7641,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6674,8 +7680,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6707,8 +7719,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6740,8 +7758,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6773,8 +7797,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6806,8 +7836,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6839,8 +7875,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6872,8 +7914,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6905,8 +7953,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6938,8 +7992,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6971,8 +8031,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7004,8 +8070,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7037,8 +8109,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7070,8 +8148,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7103,8 +8187,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7136,8 +8226,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7169,8 +8265,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7202,8 +8304,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7235,8 +8343,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7268,8 +8382,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7301,8 +8421,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7334,8 +8460,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7367,8 +8499,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7400,8 +8538,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7433,8 +8577,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7466,8 +8616,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7499,8 +8655,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7532,8 +8694,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7565,8 +8733,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7598,8 +8772,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7631,8 +8811,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7664,8 +8850,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7697,8 +8889,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7730,8 +8928,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7763,8 +8967,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7796,8 +9006,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7829,8 +9045,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7862,8 +9084,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7892,13 +9120,19 @@
         <v>4316.607566219999</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L227" t="n">
-        <v>1</v>
+        <v>0.9980911901081916</v>
       </c>
       <c r="M227" t="inlineStr"/>
     </row>
@@ -7925,7 +9159,7 @@
         <v>4258.622366219999</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7958,7 +9192,7 @@
         <v>4303.111966219999</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7991,7 +9225,7 @@
         <v>4301.111966219999</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8024,7 +9258,7 @@
         <v>4311.305566219999</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8057,7 +9291,7 @@
         <v>4289.305566219999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8090,7 +9324,7 @@
         <v>4247.265566219999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8123,7 +9357,7 @@
         <v>4256.265566219999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8156,7 +9390,7 @@
         <v>4256.265566219999</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8189,7 +9423,7 @@
         <v>4195.481866219999</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8222,7 +9456,7 @@
         <v>4202.548966219999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8255,7 +9489,7 @@
         <v>4203.548966219999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8321,7 +9555,7 @@
         <v>4203.548966219999</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8420,7 +9654,7 @@
         <v>4203.548966219999</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8453,7 +9687,7 @@
         <v>4143.888966219999</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8486,7 +9720,7 @@
         <v>4178.091166219999</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8519,7 +9753,7 @@
         <v>4176.091166219999</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8552,7 +9786,7 @@
         <v>4180.091166219999</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8585,7 +9819,7 @@
         <v>4207.469666219999</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8618,7 +9852,7 @@
         <v>4204.142166219998</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8651,7 +9885,7 @@
         <v>4355.401466219998</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8684,7 +9918,7 @@
         <v>4346.302066219998</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9212,7 +10446,7 @@
         <v>4273.724166219997</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9245,7 +10479,7 @@
         <v>4265.224166219997</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9278,7 +10512,7 @@
         <v>3985.881066219997</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9311,7 +10545,7 @@
         <v>3985.881066219997</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9344,7 +10578,7 @@
         <v>4005.881066219997</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9377,7 +10611,7 @@
         <v>4025.881066219997</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9410,7 +10644,7 @@
         <v>3865.397266219997</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9443,7 +10677,7 @@
         <v>3880.861266219997</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9476,7 +10710,7 @@
         <v>3869.553266219997</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9509,7 +10743,7 @@
         <v>2667.677666219996</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9542,7 +10776,7 @@
         <v>2676.677666219996</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9575,7 +10809,7 @@
         <v>2695.677666219996</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9608,7 +10842,7 @@
         <v>2624.448066219996</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9641,7 +10875,7 @@
         <v>2654.448066219996</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9674,7 +10908,7 @@
         <v>2677.448066219996</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9707,7 +10941,7 @@
         <v>2677.448066219996</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9740,7 +10974,7 @@
         <v>2599.500266219996</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9773,7 +11007,7 @@
         <v>2632.540266219996</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9806,7 +11040,7 @@
         <v>2632.540266219996</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9839,7 +11073,7 @@
         <v>2632.540266219996</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9872,7 +11106,7 @@
         <v>2635.540266219996</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9905,7 +11139,7 @@
         <v>2681.540266219996</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9938,7 +11172,7 @@
         <v>2663.526666219996</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9971,7 +11205,7 @@
         <v>2843.526866219996</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10004,7 +11238,7 @@
         <v>3021.526866219996</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10136,7 +11370,7 @@
         <v>3349.816866219996</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10169,7 +11403,7 @@
         <v>3454.138966219996</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10202,7 +11436,7 @@
         <v>3425.158966219996</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10235,7 +11469,7 @@
         <v>3429.137466219996</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10268,7 +11502,7 @@
         <v>3429.137466219996</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10301,7 +11535,7 @@
         <v>3429.137466219996</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10334,7 +11568,7 @@
         <v>3491.754236459996</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10367,7 +11601,7 @@
         <v>3480.754236459996</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10433,7 +11667,7 @@
         <v>3271.065136459996</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10466,7 +11700,7 @@
         <v>3275.567636459996</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10598,7 +11832,7 @@
         <v>2956.791236459996</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10631,7 +11865,7 @@
         <v>2747.963236459996</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10664,7 +11898,7 @@
         <v>2747.963236459996</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10697,7 +11931,7 @@
         <v>3002.173136459995</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10730,7 +11964,7 @@
         <v>2992.173136459995</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10763,7 +11997,7 @@
         <v>3180.636836459995</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10796,7 +12030,7 @@
         <v>3170.636836459995</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10829,7 +12063,7 @@
         <v>3166.147236459995</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10862,7 +12096,7 @@
         <v>3156.147236459995</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10895,7 +12129,7 @@
         <v>3187.168036459995</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10928,7 +12162,7 @@
         <v>3183.168036459995</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10961,7 +12195,7 @@
         <v>3204.168036459995</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10994,7 +12228,7 @@
         <v>3200.168036459995</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11027,7 +12261,7 @@
         <v>3215.678436459995</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11060,7 +12294,7 @@
         <v>3184.657636459996</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11093,7 +12327,7 @@
         <v>3184.657636459996</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11126,7 +12360,7 @@
         <v>3153.157636459996</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11137,6 +12371,6 @@
       <c r="M325" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest BTG.xlsx
+++ b/BackTest/2019-10-30 BackTest BTG.xlsx
@@ -451,7 +451,7 @@
         <v>3111.261021639999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>3147.996821639999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9670</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9670</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>3321.213321639999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9705</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9670</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>3349.333321639999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9710</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9670</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>3349.333321639999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9715</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9715</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>3694.657021639999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9715</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9715</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>3694.657021639999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9755</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9715</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -781,10 +821,14 @@
         <v>3737.32672164</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9745</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9745</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -817,8 +861,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>9745</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +900,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>9745</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -1078,14 +1134,10 @@
         <v>3458.247321639999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9705</v>
-      </c>
-      <c r="J21" t="n">
-        <v>9705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1118,14 +1170,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1154,19 +1200,11 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9675</v>
-      </c>
-      <c r="J23" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1195,19 +1233,11 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9680</v>
-      </c>
-      <c r="J24" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1236,19 +1266,11 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9680</v>
-      </c>
-      <c r="J25" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1277,19 +1299,11 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9680</v>
-      </c>
-      <c r="J26" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1318,19 +1332,11 @@
         <v>3613.344821639999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9680</v>
-      </c>
-      <c r="J27" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1362,14 +1368,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1401,14 +1401,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1440,14 +1434,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1479,14 +1467,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1518,14 +1500,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1557,14 +1533,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1596,14 +1566,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1635,14 +1599,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1674,14 +1632,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1713,14 +1665,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1752,14 +1698,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1791,14 +1731,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1830,14 +1764,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1869,14 +1797,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1908,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1947,14 +1863,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1986,14 +1896,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2025,14 +1929,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2064,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2103,14 +1995,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2139,17 +2025,15 @@
         <v>3702.547921639999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9700</v>
+      </c>
       <c r="J48" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>9700</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2182,11 +2066,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2221,11 +2105,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2260,7 +2144,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2295,11 +2179,13 @@
         <v>3699.33822164</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>9700</v>
+      </c>
       <c r="J52" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2338,7 +2224,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2377,7 +2263,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2416,7 +2302,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2455,7 +2341,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2494,7 +2380,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2533,7 +2419,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2572,7 +2458,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2611,7 +2497,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2650,7 +2536,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2689,7 +2575,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2728,7 +2614,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2767,7 +2653,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2806,7 +2692,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2845,7 +2731,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2884,7 +2770,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2923,7 +2809,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2962,7 +2848,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3001,7 +2887,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3040,7 +2926,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3079,7 +2965,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3114,19 +3000,19 @@
         <v>4583.853221639999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0.9970618556701031</v>
       </c>
       <c r="M73" t="inlineStr"/>
     </row>
@@ -3156,14 +3042,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3195,14 +3075,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3234,14 +3108,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3273,14 +3141,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3312,14 +3174,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3351,14 +3207,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3390,14 +3240,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3429,14 +3273,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3468,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3507,14 +3339,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3543,17 +3369,11 @@
         <v>4736.202083879999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3582,17 +3402,11 @@
         <v>4612.766583879999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3624,14 +3438,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3663,14 +3471,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3702,14 +3504,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3741,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3780,14 +3570,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3819,14 +3603,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3858,14 +3636,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3897,14 +3669,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3936,14 +3702,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3975,14 +3735,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4014,14 +3768,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4053,14 +3801,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4092,14 +3834,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4131,14 +3867,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4170,14 +3900,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4209,14 +3933,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4248,14 +3966,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4287,14 +3999,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4326,14 +4032,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4365,14 +4065,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4404,14 +4098,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4443,14 +4131,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4482,14 +4164,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4521,14 +4197,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4560,14 +4230,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4599,14 +4263,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4638,14 +4296,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4677,14 +4329,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4716,14 +4362,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4755,14 +4395,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4794,14 +4428,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4833,14 +4461,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4872,14 +4494,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4911,14 +4527,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4950,14 +4560,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4989,14 +4593,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5028,14 +4626,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5067,14 +4659,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5106,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5145,14 +4725,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5184,14 +4758,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5223,14 +4791,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5262,14 +4824,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5301,14 +4857,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5340,14 +4890,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5379,14 +4923,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5418,14 +4956,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5457,14 +4989,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5496,14 +5022,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5535,14 +5055,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5574,14 +5088,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5613,14 +5121,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5652,14 +5154,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5691,14 +5187,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5730,14 +5220,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5769,14 +5253,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5808,14 +5286,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5847,14 +5319,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5886,14 +5352,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5925,14 +5385,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5964,14 +5418,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6003,14 +5451,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6042,14 +5484,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6081,14 +5517,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6120,14 +5550,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6159,14 +5583,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6195,17 +5613,15 @@
         <v>4406.1511602</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>9610</v>
+      </c>
       <c r="J152" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>9610</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6234,15 +5650,17 @@
         <v>4400.1511602</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>9610</v>
+      </c>
       <c r="J153" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -6273,11 +5691,13 @@
         <v>4396.1511602</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>9605</v>
+      </c>
       <c r="J154" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6312,11 +5732,13 @@
         <v>4428.1511602</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>9595</v>
+      </c>
       <c r="J155" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6355,7 +5777,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6394,7 +5816,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6433,7 +5855,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6472,7 +5894,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6511,7 +5933,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6550,7 +5972,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6589,7 +6011,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6628,7 +6050,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6667,7 +6089,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6706,7 +6128,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6745,7 +6167,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6784,7 +6206,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6823,7 +6245,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6862,7 +6284,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6901,7 +6323,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6940,7 +6362,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6979,7 +6401,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7018,7 +6440,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7057,7 +6479,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7096,7 +6518,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7135,7 +6557,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7170,11 +6592,13 @@
         <v>4328.48628388</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>9575</v>
+      </c>
       <c r="J177" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7213,7 +6637,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7252,7 +6676,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7291,7 +6715,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7330,7 +6754,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7369,7 +6793,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7408,7 +6832,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7447,7 +6871,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7486,7 +6910,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7525,7 +6949,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7564,7 +6988,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7603,7 +7027,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7642,7 +7066,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7681,7 +7105,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7720,7 +7144,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7759,7 +7183,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7798,7 +7222,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7837,7 +7261,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7876,7 +7300,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7915,7 +7339,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7954,7 +7378,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7993,7 +7417,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8032,7 +7456,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8071,7 +7495,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8110,7 +7534,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8149,7 +7573,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8188,7 +7612,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8227,7 +7651,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8266,7 +7690,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8305,7 +7729,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8344,7 +7768,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8383,7 +7807,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8422,7 +7846,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8461,7 +7885,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8500,7 +7924,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8539,7 +7963,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8578,7 +8002,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8617,7 +8041,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8656,7 +8080,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8695,7 +8119,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8734,7 +8158,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8773,7 +8197,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8812,7 +8236,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8851,7 +8275,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8890,7 +8314,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8929,7 +8353,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8968,7 +8392,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9007,7 +8431,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9046,7 +8470,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9085,7 +8509,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9120,19 +8544,19 @@
         <v>4316.607566219999</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>9705</v>
+        <v>9610</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L227" t="n">
-        <v>0.9980911901081916</v>
+        <v>1</v>
       </c>
       <c r="M227" t="inlineStr"/>
     </row>
@@ -9159,11 +8583,17 @@
         <v>4258.622366219999</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9192,11 +8622,17 @@
         <v>4303.111966219999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9225,11 +8661,17 @@
         <v>4301.111966219999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9258,11 +8700,17 @@
         <v>4311.305566219999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9291,11 +8739,17 @@
         <v>4289.305566219999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9324,11 +8778,17 @@
         <v>4247.265566219999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9357,11 +8817,17 @@
         <v>4256.265566219999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9390,11 +8856,17 @@
         <v>4256.265566219999</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9423,11 +8895,17 @@
         <v>4195.481866219999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9456,11 +8934,17 @@
         <v>4202.548966219999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9489,11 +8973,17 @@
         <v>4203.548966219999</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9522,11 +9012,17 @@
         <v>4203.548966219999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9555,11 +9051,17 @@
         <v>4203.548966219999</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9591,8 +9093,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9624,8 +9132,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9657,8 +9171,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9690,8 +9210,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9723,8 +9249,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9756,8 +9288,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9789,8 +9327,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9822,8 +9366,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9855,8 +9405,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9888,8 +9444,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9921,8 +9483,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9954,8 +9522,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9987,8 +9561,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10020,8 +9600,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10053,8 +9639,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10086,8 +9678,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10119,8 +9717,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10152,8 +9756,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10185,8 +9795,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10218,8 +9834,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10251,8 +9873,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10284,8 +9912,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10317,8 +9951,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10350,8 +9990,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10383,8 +10029,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10416,8 +10068,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10449,8 +10107,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10482,8 +10146,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10515,8 +10185,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10548,8 +10224,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10581,8 +10263,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10614,8 +10302,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10647,8 +10341,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10680,8 +10380,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10713,8 +10419,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10746,8 +10458,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10779,8 +10497,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10812,8 +10536,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10845,8 +10575,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10878,8 +10614,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10911,8 +10653,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10944,8 +10692,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10977,8 +10731,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11010,8 +10770,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11043,8 +10809,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11076,8 +10848,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11109,8 +10887,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11142,8 +10926,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11175,8 +10965,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11208,8 +11004,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11241,8 +11043,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11274,8 +11082,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11307,8 +11121,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11340,8 +11160,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11373,8 +11199,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11406,8 +11238,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11439,8 +11277,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11472,8 +11316,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11505,8 +11355,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11538,8 +11394,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11571,8 +11433,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11604,8 +11472,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11637,8 +11511,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11670,8 +11550,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11703,8 +11589,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11736,8 +11628,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11769,8 +11667,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11802,8 +11706,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11835,8 +11745,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11868,8 +11784,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11901,8 +11823,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11934,8 +11862,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11967,8 +11901,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12000,8 +11940,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12030,13 +11976,19 @@
         <v>3170.636836459995</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L315" t="n">
-        <v>1</v>
+        <v>1.017892819979188</v>
       </c>
       <c r="M315" t="inlineStr"/>
     </row>
@@ -12129,7 +12081,7 @@
         <v>3187.168036459995</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12162,7 +12114,7 @@
         <v>3183.168036459995</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12195,7 +12147,7 @@
         <v>3204.168036459995</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12228,7 +12180,7 @@
         <v>3200.168036459995</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12261,7 +12213,7 @@
         <v>3215.678436459995</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12294,7 +12246,7 @@
         <v>3184.657636459996</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12327,7 +12279,7 @@
         <v>3184.657636459996</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12360,7 +12312,7 @@
         <v>3153.157636459996</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>

--- a/BackTest/2019-10-30 BackTest BTG.xlsx
+++ b/BackTest/2019-10-30 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M325"/>
+  <dimension ref="A1:L325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>15.2269</v>
       </c>
       <c r="G2" t="n">
-        <v>3111.261021639999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>36.7358</v>
       </c>
       <c r="G3" t="n">
-        <v>3147.996821639999</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9670</v>
       </c>
       <c r="I3" t="n">
         <v>9670</v>
       </c>
-      <c r="J3" t="n">
-        <v>9670</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>173.2165</v>
       </c>
       <c r="G4" t="n">
-        <v>3321.213321639999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>9705</v>
       </c>
       <c r="I4" t="n">
-        <v>9705</v>
-      </c>
-      <c r="J4" t="n">
         <v>9670</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,21 @@
         <v>28.12</v>
       </c>
       <c r="G5" t="n">
-        <v>3349.333321639999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>9710</v>
-      </c>
-      <c r="J5" t="n">
         <v>9670</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +581,15 @@
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>3349.333321639999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9715</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9715</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +611,15 @@
         <v>345.3237</v>
       </c>
       <c r="G7" t="n">
-        <v>3694.657021639999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9715</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9715</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +641,15 @@
         <v>41.5842</v>
       </c>
       <c r="G8" t="n">
-        <v>3694.657021639999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9755</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9715</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,18 +671,15 @@
         <v>60.5777</v>
       </c>
       <c r="G9" t="n">
-        <v>3634.079321639999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -752,18 +701,15 @@
         <v>41.4803</v>
       </c>
       <c r="G10" t="n">
-        <v>3634.079321639999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -785,18 +731,15 @@
         <v>77.5</v>
       </c>
       <c r="G11" t="n">
-        <v>3711.579321639999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,22 +761,15 @@
         <v>25.7474</v>
       </c>
       <c r="G12" t="n">
-        <v>3737.32672164</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9745</v>
-      </c>
-      <c r="J12" t="n">
-        <v>9745</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -855,24 +791,15 @@
         <v>257.8541</v>
       </c>
       <c r="G13" t="n">
-        <v>3479.472621639999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>9745</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -894,24 +821,15 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>3479.472621639999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>9745</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -933,18 +851,15 @@
         <v>4.908</v>
       </c>
       <c r="G15" t="n">
-        <v>3484.380621639999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -966,18 +881,15 @@
         <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>3460.380621639999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -999,18 +911,15 @@
         <v>58.7236</v>
       </c>
       <c r="G17" t="n">
-        <v>3460.380621639999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +941,15 @@
         <v>35.9819</v>
       </c>
       <c r="G18" t="n">
-        <v>3460.380621639999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1065,18 +971,15 @@
         <v>2.1897</v>
       </c>
       <c r="G19" t="n">
-        <v>3460.380621639999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1098,18 +1001,15 @@
         <v>2.1333</v>
       </c>
       <c r="G20" t="n">
-        <v>3458.247321639999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1131,18 +1031,15 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>3458.247321639999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1164,18 +1061,15 @@
         <v>88.4196</v>
       </c>
       <c r="G22" t="n">
-        <v>3369.827721639999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,18 +1091,15 @@
         <v>234.356</v>
       </c>
       <c r="G23" t="n">
-        <v>3604.183721639999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1230,18 +1121,15 @@
         <v>21.1093</v>
       </c>
       <c r="G24" t="n">
-        <v>3604.183721639999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1263,18 +1151,15 @@
         <v>4.5609</v>
       </c>
       <c r="G25" t="n">
-        <v>3604.183721639999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1296,18 +1181,15 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>3604.183721639999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1329,18 +1211,15 @@
         <v>9.161099999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>3613.344821639999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1362,18 +1241,15 @@
         <v>1.7648</v>
       </c>
       <c r="G28" t="n">
-        <v>3611.580021639999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1395,18 +1271,15 @@
         <v>434.2714</v>
       </c>
       <c r="G29" t="n">
-        <v>4045.851421639999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,18 +1301,15 @@
         <v>100.169</v>
       </c>
       <c r="G30" t="n">
-        <v>3945.682421639999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1461,18 +1331,15 @@
         <v>77.2167</v>
       </c>
       <c r="G31" t="n">
-        <v>3868.465721639999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1494,18 +1361,15 @@
         <v>79.8069</v>
       </c>
       <c r="G32" t="n">
-        <v>3948.272621639999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1527,18 +1391,15 @@
         <v>8.827</v>
       </c>
       <c r="G33" t="n">
-        <v>3948.272621639999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1560,18 +1421,15 @@
         <v>20.3072</v>
       </c>
       <c r="G34" t="n">
-        <v>3968.579821639999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1593,18 +1451,15 @@
         <v>15.3168</v>
       </c>
       <c r="G35" t="n">
-        <v>3953.263021639999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1626,18 +1481,15 @@
         <v>1.419</v>
       </c>
       <c r="G36" t="n">
-        <v>3953.263021639999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1659,18 +1511,15 @@
         <v>0.5162</v>
       </c>
       <c r="G37" t="n">
-        <v>3952.746821639999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1692,18 +1541,15 @@
         <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>3958.746821639999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1725,18 +1571,15 @@
         <v>6</v>
       </c>
       <c r="G39" t="n">
-        <v>3958.746821639999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1758,18 +1601,15 @@
         <v>100</v>
       </c>
       <c r="G40" t="n">
-        <v>3858.746821639999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1791,18 +1631,15 @@
         <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>3862.746821639999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1824,18 +1661,15 @@
         <v>148.7719</v>
       </c>
       <c r="G42" t="n">
-        <v>3713.974921639999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1857,18 +1691,15 @@
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>3715.974921639999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1890,18 +1721,15 @@
         <v>0.20287621</v>
       </c>
       <c r="G44" t="n">
-        <v>3715.974921639999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1923,18 +1751,15 @@
         <v>18</v>
       </c>
       <c r="G45" t="n">
-        <v>3697.974921639999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1956,18 +1781,15 @@
         <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>3697.974921639999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1989,18 +1811,15 @@
         <v>0.2</v>
       </c>
       <c r="G47" t="n">
-        <v>3697.774921639999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2022,22 +1841,15 @@
         <v>4.773</v>
       </c>
       <c r="G48" t="n">
-        <v>3702.547921639999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9700</v>
-      </c>
-      <c r="J48" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2059,24 +1871,15 @@
         <v>4.3706</v>
       </c>
       <c r="G49" t="n">
-        <v>3698.177321639999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2098,24 +1901,15 @@
         <v>52.1211</v>
       </c>
       <c r="G50" t="n">
-        <v>3646.056221639999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2137,24 +1931,15 @@
         <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>3646.056221639999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2176,26 +1961,15 @@
         <v>53.282</v>
       </c>
       <c r="G52" t="n">
-        <v>3699.33822164</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>9700</v>
-      </c>
-      <c r="J52" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2217,24 +1991,15 @@
         <v>99.2632</v>
       </c>
       <c r="G53" t="n">
-        <v>3798.601421639999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2256,24 +2021,15 @@
         <v>39.4</v>
       </c>
       <c r="G54" t="n">
-        <v>3798.601421639999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2295,24 +2051,15 @@
         <v>6.2271</v>
       </c>
       <c r="G55" t="n">
-        <v>3792.374321639999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2334,24 +2081,15 @@
         <v>2.1372</v>
       </c>
       <c r="G56" t="n">
-        <v>3790.237121639999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2373,24 +2111,15 @@
         <v>163.0586</v>
       </c>
       <c r="G57" t="n">
-        <v>3953.295721639999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2412,24 +2141,15 @@
         <v>7.1207</v>
       </c>
       <c r="G58" t="n">
-        <v>3953.295721639999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2451,24 +2171,15 @@
         <v>81.423</v>
       </c>
       <c r="G59" t="n">
-        <v>4034.718721639999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2490,24 +2201,15 @@
         <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>4034.718721639999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2529,24 +2231,15 @@
         <v>85.581</v>
       </c>
       <c r="G61" t="n">
-        <v>4120.299721639999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2568,24 +2261,15 @@
         <v>6.0005</v>
       </c>
       <c r="G62" t="n">
-        <v>4114.299221639999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2607,24 +2291,15 @@
         <v>0.2714</v>
       </c>
       <c r="G63" t="n">
-        <v>4114.570621639999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2646,24 +2321,15 @@
         <v>28.5208</v>
       </c>
       <c r="G64" t="n">
-        <v>4114.570621639999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2685,24 +2351,15 @@
         <v>53.1216</v>
       </c>
       <c r="G65" t="n">
-        <v>4061.449021639999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2724,24 +2381,15 @@
         <v>0.1919</v>
       </c>
       <c r="G66" t="n">
-        <v>4061.257121639999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2763,24 +2411,15 @@
         <v>352.5961</v>
       </c>
       <c r="G67" t="n">
-        <v>4413.853221639999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2802,24 +2441,15 @@
         <v>100</v>
       </c>
       <c r="G68" t="n">
-        <v>4413.853221639999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2841,24 +2471,15 @@
         <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>4413.853221639999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2880,24 +2501,15 @@
         <v>12</v>
       </c>
       <c r="G70" t="n">
-        <v>4401.853221639999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2919,24 +2531,15 @@
         <v>12</v>
       </c>
       <c r="G71" t="n">
-        <v>4413.853221639999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2958,24 +2561,15 @@
         <v>218</v>
       </c>
       <c r="G72" t="n">
-        <v>4631.853221639999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2997,24 +2591,15 @@
         <v>48</v>
       </c>
       <c r="G73" t="n">
-        <v>4583.853221639999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>0.9970618556701031</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3036,18 +2621,15 @@
         <v>65.2366</v>
       </c>
       <c r="G74" t="n">
-        <v>4518.616621639999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3069,18 +2651,15 @@
         <v>43.5642</v>
       </c>
       <c r="G75" t="n">
-        <v>4562.180821639999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3102,18 +2681,15 @@
         <v>81.3747</v>
       </c>
       <c r="G76" t="n">
-        <v>4480.806121639998</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3135,18 +2711,15 @@
         <v>181</v>
       </c>
       <c r="G77" t="n">
-        <v>4299.806121639998</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3168,18 +2741,15 @@
         <v>22.5827</v>
       </c>
       <c r="G78" t="n">
-        <v>4322.388821639998</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3201,18 +2771,15 @@
         <v>394.3674</v>
       </c>
       <c r="G79" t="n">
-        <v>4716.756221639998</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3234,18 +2801,15 @@
         <v>18.3</v>
       </c>
       <c r="G80" t="n">
-        <v>4698.456221639998</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3267,18 +2831,15 @@
         <v>12.1109</v>
       </c>
       <c r="G81" t="n">
-        <v>4686.345321639998</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3300,18 +2861,15 @@
         <v>25.49297352</v>
       </c>
       <c r="G82" t="n">
-        <v>4711.838295159999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3333,18 +2891,15 @@
         <v>24.36378872</v>
       </c>
       <c r="G83" t="n">
-        <v>4736.202083879999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3366,18 +2921,15 @@
         <v>190.6574</v>
       </c>
       <c r="G84" t="n">
-        <v>4736.202083879999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3399,18 +2951,15 @@
         <v>123.4355</v>
       </c>
       <c r="G85" t="n">
-        <v>4612.766583879999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3432,18 +2981,15 @@
         <v>8.044600000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>4604.721983879999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3465,18 +3011,15 @@
         <v>2.4</v>
       </c>
       <c r="G87" t="n">
-        <v>4602.32198388</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3498,18 +3041,15 @@
         <v>11.2704</v>
       </c>
       <c r="G88" t="n">
-        <v>4613.59238388</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3531,18 +3071,15 @@
         <v>11.6789</v>
       </c>
       <c r="G89" t="n">
-        <v>4613.59238388</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3564,18 +3101,15 @@
         <v>20</v>
       </c>
       <c r="G90" t="n">
-        <v>4593.59238388</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3597,18 +3131,15 @@
         <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>4595.59238388</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3630,18 +3161,15 @@
         <v>4.9297</v>
       </c>
       <c r="G92" t="n">
-        <v>4600.52208388</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3663,18 +3191,15 @@
         <v>6.9779</v>
       </c>
       <c r="G93" t="n">
-        <v>4607.499983879999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3696,18 +3221,15 @@
         <v>0.101</v>
       </c>
       <c r="G94" t="n">
-        <v>4607.39898388</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3729,18 +3251,15 @@
         <v>3.055</v>
       </c>
       <c r="G95" t="n">
-        <v>4610.45398388</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3762,18 +3281,15 @@
         <v>266.9603</v>
       </c>
       <c r="G96" t="n">
-        <v>4343.49368388</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3795,18 +3311,15 @@
         <v>174.1726</v>
       </c>
       <c r="G97" t="n">
-        <v>4169.321083880001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3828,18 +3341,15 @@
         <v>181</v>
       </c>
       <c r="G98" t="n">
-        <v>3988.321083880001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3861,18 +3371,15 @@
         <v>35.311</v>
       </c>
       <c r="G99" t="n">
-        <v>4023.632083880001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3894,18 +3401,15 @@
         <v>8.101599999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>4031.733683880001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3927,18 +3431,15 @@
         <v>8</v>
       </c>
       <c r="G101" t="n">
-        <v>4039.733683880001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3960,18 +3461,15 @@
         <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>4029.733683880001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3993,18 +3491,15 @@
         <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>4029.733683880001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4026,18 +3521,15 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>4029.733683880001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4059,18 +3551,15 @@
         <v>1.0412</v>
       </c>
       <c r="G105" t="n">
-        <v>4030.774883880001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4092,18 +3581,15 @@
         <v>26.9579</v>
       </c>
       <c r="G106" t="n">
-        <v>4003.816983880001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4125,18 +3611,15 @@
         <v>10.2311</v>
       </c>
       <c r="G107" t="n">
-        <v>3993.585883880001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4158,18 +3641,15 @@
         <v>85.4782</v>
       </c>
       <c r="G108" t="n">
-        <v>3908.107683880001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4191,18 +3671,15 @@
         <v>0.4788</v>
       </c>
       <c r="G109" t="n">
-        <v>3908.586483880001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4224,18 +3701,15 @@
         <v>1.5197</v>
       </c>
       <c r="G110" t="n">
-        <v>3910.106183880001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4257,18 +3731,15 @@
         <v>0.1312</v>
       </c>
       <c r="G111" t="n">
-        <v>3909.974983880001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4290,18 +3761,15 @@
         <v>0.4776</v>
       </c>
       <c r="G112" t="n">
-        <v>3909.974983880001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4323,18 +3791,15 @@
         <v>0.2268</v>
       </c>
       <c r="G113" t="n">
-        <v>3910.201783880001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4356,18 +3821,15 @@
         <v>3.0266</v>
       </c>
       <c r="G114" t="n">
-        <v>3910.201783880001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4389,18 +3851,15 @@
         <v>104.1742</v>
       </c>
       <c r="G115" t="n">
-        <v>3806.027583880001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4422,18 +3881,15 @@
         <v>23.8587</v>
       </c>
       <c r="G116" t="n">
-        <v>3829.886283880001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4455,18 +3911,15 @@
         <v>37.92</v>
       </c>
       <c r="G117" t="n">
-        <v>3829.886283880001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4488,18 +3941,15 @@
         <v>158.9946</v>
       </c>
       <c r="G118" t="n">
-        <v>3988.880883880001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4521,18 +3971,15 @@
         <v>46.9238</v>
       </c>
       <c r="G119" t="n">
-        <v>4035.804683880001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4554,18 +4001,15 @@
         <v>1.7661</v>
       </c>
       <c r="G120" t="n">
-        <v>4037.57078388</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4587,18 +4031,15 @@
         <v>25.7322</v>
       </c>
       <c r="G121" t="n">
-        <v>4037.57078388</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4620,18 +4061,15 @@
         <v>7</v>
       </c>
       <c r="G122" t="n">
-        <v>4030.57078388</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4653,18 +4091,15 @@
         <v>164.7056</v>
       </c>
       <c r="G123" t="n">
-        <v>3865.865183880001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4686,18 +4121,15 @@
         <v>150.3952</v>
       </c>
       <c r="G124" t="n">
-        <v>4016.260383880001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4719,18 +4151,15 @@
         <v>13.9105</v>
       </c>
       <c r="G125" t="n">
-        <v>4030.17088388</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4752,18 +4181,15 @@
         <v>2.0655</v>
       </c>
       <c r="G126" t="n">
-        <v>4028.10538388</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4785,18 +4211,15 @@
         <v>4.5376</v>
       </c>
       <c r="G127" t="n">
-        <v>4028.10538388</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4818,18 +4241,15 @@
         <v>38.7338</v>
       </c>
       <c r="G128" t="n">
-        <v>4066.83918388</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4851,18 +4271,15 @@
         <v>31.4278</v>
       </c>
       <c r="G129" t="n">
-        <v>4035.41138388</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4884,18 +4301,15 @@
         <v>223.8597</v>
       </c>
       <c r="G130" t="n">
-        <v>4259.27108388</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4917,18 +4331,15 @@
         <v>6.929</v>
       </c>
       <c r="G131" t="n">
-        <v>4252.34208388</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4950,18 +4361,15 @@
         <v>10.3166</v>
       </c>
       <c r="G132" t="n">
-        <v>4262.65868388</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4983,18 +4391,15 @@
         <v>25.909</v>
       </c>
       <c r="G133" t="n">
-        <v>4236.749683880001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5016,18 +4421,15 @@
         <v>50.9841</v>
       </c>
       <c r="G134" t="n">
-        <v>4236.749683880001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5049,18 +4451,15 @@
         <v>25.1006</v>
       </c>
       <c r="G135" t="n">
-        <v>4211.649083880001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5082,18 +4481,15 @@
         <v>134.7308</v>
       </c>
       <c r="G136" t="n">
-        <v>4346.379883880001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5115,18 +4511,15 @@
         <v>75.3135</v>
       </c>
       <c r="G137" t="n">
-        <v>4421.693383880001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5148,18 +4541,15 @@
         <v>6</v>
       </c>
       <c r="G138" t="n">
-        <v>4415.693383880001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5181,18 +4571,15 @@
         <v>0.1173</v>
       </c>
       <c r="G139" t="n">
-        <v>4415.693383880001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5214,18 +4601,15 @@
         <v>14.6815</v>
       </c>
       <c r="G140" t="n">
-        <v>4430.374883880001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5247,18 +4631,15 @@
         <v>30.6477</v>
       </c>
       <c r="G141" t="n">
-        <v>4430.374883880001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5280,18 +4661,15 @@
         <v>39.4355</v>
       </c>
       <c r="G142" t="n">
-        <v>4430.374883880001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5313,18 +4691,15 @@
         <v>90.1093</v>
       </c>
       <c r="G143" t="n">
-        <v>4340.265583880001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5346,18 +4721,15 @@
         <v>11.3824</v>
       </c>
       <c r="G144" t="n">
-        <v>4328.883183880001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5379,18 +4751,15 @@
         <v>234.7254</v>
       </c>
       <c r="G145" t="n">
-        <v>4328.883183880001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5412,18 +4781,15 @@
         <v>33.2404</v>
       </c>
       <c r="G146" t="n">
-        <v>4295.642783880001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5445,18 +4811,15 @@
         <v>8.3536</v>
       </c>
       <c r="G147" t="n">
-        <v>4295.642783880001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5478,18 +4841,15 @@
         <v>2</v>
       </c>
       <c r="G148" t="n">
-        <v>4293.642783880001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5511,18 +4871,15 @@
         <v>40.15337632</v>
       </c>
       <c r="G149" t="n">
-        <v>4333.7961602</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5544,18 +4901,15 @@
         <v>76.355</v>
       </c>
       <c r="G150" t="n">
-        <v>4410.1511602</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5577,18 +4931,15 @@
         <v>4</v>
       </c>
       <c r="G151" t="n">
-        <v>4406.1511602</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5610,22 +4961,15 @@
         <v>22</v>
       </c>
       <c r="G152" t="n">
-        <v>4406.1511602</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>9610</v>
-      </c>
-      <c r="J152" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5647,26 +4991,15 @@
         <v>6</v>
       </c>
       <c r="G153" t="n">
-        <v>4400.1511602</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>9610</v>
-      </c>
-      <c r="J153" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5688,26 +5021,15 @@
         <v>4</v>
       </c>
       <c r="G154" t="n">
-        <v>4396.1511602</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>9605</v>
-      </c>
-      <c r="J154" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5729,26 +5051,15 @@
         <v>32</v>
       </c>
       <c r="G155" t="n">
-        <v>4428.1511602</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>9595</v>
-      </c>
-      <c r="J155" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5770,24 +5081,15 @@
         <v>14.92122368</v>
       </c>
       <c r="G156" t="n">
-        <v>4443.07238388</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5809,24 +5111,15 @@
         <v>54.321</v>
       </c>
       <c r="G157" t="n">
-        <v>4388.751383880001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5848,24 +5141,15 @@
         <v>0.1</v>
       </c>
       <c r="G158" t="n">
-        <v>4388.65138388</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5887,24 +5171,15 @@
         <v>7.44176053</v>
       </c>
       <c r="G159" t="n">
-        <v>4388.65138388</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5926,24 +5201,15 @@
         <v>0.225</v>
       </c>
       <c r="G160" t="n">
-        <v>4388.65138388</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5965,24 +5231,15 @@
         <v>19.763</v>
       </c>
       <c r="G161" t="n">
-        <v>4368.88838388</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6004,24 +5261,15 @@
         <v>147.1182</v>
       </c>
       <c r="G162" t="n">
-        <v>4516.00658388</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6043,24 +5291,15 @@
         <v>8.312799999999999</v>
       </c>
       <c r="G163" t="n">
-        <v>4524.31938388</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6082,24 +5321,15 @@
         <v>6.1</v>
       </c>
       <c r="G164" t="n">
-        <v>4518.219383879999</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6121,24 +5351,15 @@
         <v>32.5</v>
       </c>
       <c r="G165" t="n">
-        <v>4485.719383879999</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6160,24 +5381,15 @@
         <v>16.3</v>
       </c>
       <c r="G166" t="n">
-        <v>4469.419383879999</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6199,24 +5411,15 @@
         <v>20.1031</v>
       </c>
       <c r="G167" t="n">
-        <v>4489.52248388</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6238,24 +5441,15 @@
         <v>0.1</v>
       </c>
       <c r="G168" t="n">
-        <v>4489.62248388</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6277,24 +5471,15 @@
         <v>0.5</v>
       </c>
       <c r="G169" t="n">
-        <v>4489.12248388</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6316,24 +5501,15 @@
         <v>0.9937</v>
       </c>
       <c r="G170" t="n">
-        <v>4489.12248388</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6355,24 +5531,15 @@
         <v>107.1735</v>
       </c>
       <c r="G171" t="n">
-        <v>4596.29598388</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6394,24 +5561,15 @@
         <v>37.5</v>
       </c>
       <c r="G172" t="n">
-        <v>4596.29598388</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6433,24 +5591,15 @@
         <v>0.4418</v>
       </c>
       <c r="G173" t="n">
-        <v>4595.85418388</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6472,24 +5621,15 @@
         <v>9.2242</v>
       </c>
       <c r="G174" t="n">
-        <v>4595.85418388</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6511,24 +5651,15 @@
         <v>182</v>
       </c>
       <c r="G175" t="n">
-        <v>4413.85418388</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6550,24 +5681,15 @@
         <v>259</v>
       </c>
       <c r="G176" t="n">
-        <v>4154.85418388</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6589,26 +5711,15 @@
         <v>173.6321</v>
       </c>
       <c r="G177" t="n">
-        <v>4328.48628388</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>9575</v>
-      </c>
-      <c r="J177" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6630,24 +5741,15 @@
         <v>49.9583</v>
       </c>
       <c r="G178" t="n">
-        <v>4278.52798388</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6669,24 +5771,15 @@
         <v>85.3</v>
       </c>
       <c r="G179" t="n">
-        <v>4278.52798388</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6708,24 +5801,15 @@
         <v>29</v>
       </c>
       <c r="G180" t="n">
-        <v>4278.52798388</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6747,24 +5831,15 @@
         <v>86.9494</v>
       </c>
       <c r="G181" t="n">
-        <v>4278.52798388</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6786,24 +5861,15 @@
         <v>147.6525</v>
       </c>
       <c r="G182" t="n">
-        <v>4278.52798388</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6825,24 +5891,15 @@
         <v>84.4032</v>
       </c>
       <c r="G183" t="n">
-        <v>4362.931183879999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6864,24 +5921,15 @@
         <v>24</v>
       </c>
       <c r="G184" t="n">
-        <v>4362.931183879999</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6903,24 +5951,15 @@
         <v>2</v>
       </c>
       <c r="G185" t="n">
-        <v>4360.931183879999</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6942,24 +5981,15 @@
         <v>10</v>
       </c>
       <c r="G186" t="n">
-        <v>4370.931183879999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6981,24 +6011,15 @@
         <v>2.8125</v>
       </c>
       <c r="G187" t="n">
-        <v>4373.743683879999</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7020,24 +6041,15 @@
         <v>28</v>
       </c>
       <c r="G188" t="n">
-        <v>4345.743683879999</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7059,24 +6071,15 @@
         <v>46.7765</v>
       </c>
       <c r="G189" t="n">
-        <v>4392.520183879999</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7098,24 +6101,15 @@
         <v>22.8415</v>
       </c>
       <c r="G190" t="n">
-        <v>4415.36168388</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7137,24 +6131,15 @@
         <v>7</v>
       </c>
       <c r="G191" t="n">
-        <v>4408.36168388</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7176,24 +6161,15 @@
         <v>7.249827</v>
       </c>
       <c r="G192" t="n">
-        <v>4415.61151088</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7215,24 +6191,15 @@
         <v>3.0869</v>
       </c>
       <c r="G193" t="n">
-        <v>4415.61151088</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7254,24 +6221,15 @@
         <v>30.337773</v>
       </c>
       <c r="G194" t="n">
-        <v>4415.61151088</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7293,24 +6251,15 @@
         <v>24.4448</v>
       </c>
       <c r="G195" t="n">
-        <v>4391.166710879999</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7332,24 +6281,15 @@
         <v>268.7819</v>
       </c>
       <c r="G196" t="n">
-        <v>4391.166710879999</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7371,24 +6311,15 @@
         <v>1.4075</v>
       </c>
       <c r="G197" t="n">
-        <v>4392.57421088</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7410,24 +6341,15 @@
         <v>136.6796</v>
       </c>
       <c r="G198" t="n">
-        <v>4255.894610879999</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7449,24 +6371,15 @@
         <v>2.2179</v>
       </c>
       <c r="G199" t="n">
-        <v>4255.894610879999</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7488,24 +6401,15 @@
         <v>15.583</v>
       </c>
       <c r="G200" t="n">
-        <v>4271.477610879999</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7527,24 +6431,15 @@
         <v>15.4945</v>
       </c>
       <c r="G201" t="n">
-        <v>4286.972110879999</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7566,24 +6461,15 @@
         <v>0.1557</v>
       </c>
       <c r="G202" t="n">
-        <v>4286.816410879998</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7605,24 +6491,15 @@
         <v>10</v>
       </c>
       <c r="G203" t="n">
-        <v>4296.816410879998</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7644,24 +6521,15 @@
         <v>10</v>
       </c>
       <c r="G204" t="n">
-        <v>4296.816410879998</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7683,24 +6551,15 @@
         <v>0.9046999999999999</v>
       </c>
       <c r="G205" t="n">
-        <v>4295.911710879998</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7722,24 +6581,15 @@
         <v>5</v>
       </c>
       <c r="G206" t="n">
-        <v>4300.911710879998</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7761,24 +6611,15 @@
         <v>189.712</v>
       </c>
       <c r="G207" t="n">
-        <v>4300.911710879998</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7800,24 +6641,15 @@
         <v>2</v>
       </c>
       <c r="G208" t="n">
-        <v>4298.911710879998</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7839,24 +6671,15 @@
         <v>10</v>
       </c>
       <c r="G209" t="n">
-        <v>4298.911710879998</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7878,24 +6701,15 @@
         <v>46.5</v>
       </c>
       <c r="G210" t="n">
-        <v>4252.411710879998</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7917,24 +6731,15 @@
         <v>6.8554</v>
       </c>
       <c r="G211" t="n">
-        <v>4252.411710879998</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7956,24 +6761,15 @@
         <v>1.0335</v>
       </c>
       <c r="G212" t="n">
-        <v>4253.445210879998</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7995,24 +6791,15 @@
         <v>0.1295</v>
       </c>
       <c r="G213" t="n">
-        <v>4253.315710879998</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8034,24 +6821,15 @@
         <v>64</v>
       </c>
       <c r="G214" t="n">
-        <v>4317.315710879998</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8073,24 +6851,15 @@
         <v>2.7828</v>
       </c>
       <c r="G215" t="n">
-        <v>4314.532910879998</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8112,24 +6881,15 @@
         <v>16.5</v>
       </c>
       <c r="G216" t="n">
-        <v>4331.032910879998</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8151,24 +6911,15 @@
         <v>29.91025534</v>
       </c>
       <c r="G217" t="n">
-        <v>4360.943166219998</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8190,24 +6941,15 @@
         <v>3.3659</v>
       </c>
       <c r="G218" t="n">
-        <v>4357.577266219998</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8229,24 +6971,15 @@
         <v>36.1348</v>
       </c>
       <c r="G219" t="n">
-        <v>4321.442466219998</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8268,24 +7001,15 @@
         <v>119.4727</v>
       </c>
       <c r="G220" t="n">
-        <v>4440.915166219998</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8307,24 +7031,15 @@
         <v>31.9097</v>
       </c>
       <c r="G221" t="n">
-        <v>4440.915166219998</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8346,24 +7061,15 @@
         <v>86.8969</v>
       </c>
       <c r="G222" t="n">
-        <v>4354.018266219999</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8385,24 +7091,15 @@
         <v>0.1111</v>
       </c>
       <c r="G223" t="n">
-        <v>4354.129366219999</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8424,24 +7121,15 @@
         <v>0.1003</v>
       </c>
       <c r="G224" t="n">
-        <v>4354.029066219999</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8463,24 +7151,15 @@
         <v>27.5215</v>
       </c>
       <c r="G225" t="n">
-        <v>4326.507566219999</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8502,24 +7181,15 @@
         <v>0.1</v>
       </c>
       <c r="G226" t="n">
-        <v>4326.607566219999</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8541,24 +7211,15 @@
         <v>10</v>
       </c>
       <c r="G227" t="n">
-        <v>4316.607566219999</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8580,24 +7241,15 @@
         <v>57.9852</v>
       </c>
       <c r="G228" t="n">
-        <v>4258.622366219999</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8619,24 +7271,15 @@
         <v>44.4896</v>
       </c>
       <c r="G229" t="n">
-        <v>4303.111966219999</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8658,24 +7301,15 @@
         <v>2</v>
       </c>
       <c r="G230" t="n">
-        <v>4301.111966219999</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8697,24 +7331,15 @@
         <v>10.1936</v>
       </c>
       <c r="G231" t="n">
-        <v>4311.305566219999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8736,24 +7361,15 @@
         <v>22</v>
       </c>
       <c r="G232" t="n">
-        <v>4289.305566219999</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8775,24 +7391,15 @@
         <v>42.04</v>
       </c>
       <c r="G233" t="n">
-        <v>4247.265566219999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8814,24 +7421,15 @@
         <v>9</v>
       </c>
       <c r="G234" t="n">
-        <v>4256.265566219999</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8853,24 +7451,15 @@
         <v>2</v>
       </c>
       <c r="G235" t="n">
-        <v>4256.265566219999</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8892,24 +7481,15 @@
         <v>60.7837</v>
       </c>
       <c r="G236" t="n">
-        <v>4195.481866219999</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8931,24 +7511,15 @@
         <v>7.0671</v>
       </c>
       <c r="G237" t="n">
-        <v>4202.548966219999</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8970,24 +7541,15 @@
         <v>1</v>
       </c>
       <c r="G238" t="n">
-        <v>4203.548966219999</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9009,24 +7571,15 @@
         <v>1</v>
       </c>
       <c r="G239" t="n">
-        <v>4203.548966219999</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9048,24 +7601,15 @@
         <v>1</v>
       </c>
       <c r="G240" t="n">
-        <v>4203.548966219999</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9087,24 +7631,15 @@
         <v>2</v>
       </c>
       <c r="G241" t="n">
-        <v>4203.548966219999</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9126,24 +7661,15 @@
         <v>2</v>
       </c>
       <c r="G242" t="n">
-        <v>4203.548966219999</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9165,24 +7691,15 @@
         <v>1</v>
       </c>
       <c r="G243" t="n">
-        <v>4203.548966219999</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9204,24 +7721,15 @@
         <v>59.66</v>
       </c>
       <c r="G244" t="n">
-        <v>4143.888966219999</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9243,24 +7751,15 @@
         <v>34.2022</v>
       </c>
       <c r="G245" t="n">
-        <v>4178.091166219999</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9282,24 +7781,15 @@
         <v>2</v>
       </c>
       <c r="G246" t="n">
-        <v>4176.091166219999</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9321,24 +7811,15 @@
         <v>4</v>
       </c>
       <c r="G247" t="n">
-        <v>4180.091166219999</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9360,24 +7841,15 @@
         <v>27.3785</v>
       </c>
       <c r="G248" t="n">
-        <v>4207.469666219999</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9399,24 +7871,15 @@
         <v>3.3275</v>
       </c>
       <c r="G249" t="n">
-        <v>4204.142166219998</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9438,24 +7901,15 @@
         <v>151.2593</v>
       </c>
       <c r="G250" t="n">
-        <v>4355.401466219998</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9477,24 +7931,15 @@
         <v>9.099399999999999</v>
       </c>
       <c r="G251" t="n">
-        <v>4346.302066219998</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9516,24 +7961,15 @@
         <v>31.7687</v>
       </c>
       <c r="G252" t="n">
-        <v>4378.070766219997</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9555,24 +7991,15 @@
         <v>14</v>
       </c>
       <c r="G253" t="n">
-        <v>4364.070766219997</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9594,24 +8021,15 @@
         <v>42.0887</v>
       </c>
       <c r="G254" t="n">
-        <v>4321.982066219997</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9633,24 +8051,15 @@
         <v>61.9842</v>
       </c>
       <c r="G255" t="n">
-        <v>4259.997866219997</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9672,24 +8081,15 @@
         <v>36.0677</v>
       </c>
       <c r="G256" t="n">
-        <v>4259.997866219997</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9711,24 +8111,15 @@
         <v>45.0758</v>
       </c>
       <c r="G257" t="n">
-        <v>4305.073666219997</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9750,24 +8141,15 @@
         <v>91.51949999999999</v>
       </c>
       <c r="G258" t="n">
-        <v>4213.554166219997</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9789,24 +8171,15 @@
         <v>142.6664</v>
       </c>
       <c r="G259" t="n">
-        <v>4356.220566219997</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9828,24 +8201,15 @@
         <v>1</v>
       </c>
       <c r="G260" t="n">
-        <v>4357.220566219997</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9867,24 +8231,15 @@
         <v>67.86190000000001</v>
       </c>
       <c r="G261" t="n">
-        <v>4425.082466219997</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9906,24 +8261,15 @@
         <v>31.0583</v>
       </c>
       <c r="G262" t="n">
-        <v>4394.024166219997</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9945,24 +8291,15 @@
         <v>10</v>
       </c>
       <c r="G263" t="n">
-        <v>4384.024166219997</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9984,24 +8321,15 @@
         <v>8.5</v>
       </c>
       <c r="G264" t="n">
-        <v>4375.524166219997</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10023,24 +8351,15 @@
         <v>0.2</v>
       </c>
       <c r="G265" t="n">
-        <v>4375.724166219997</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10062,24 +8381,15 @@
         <v>102</v>
       </c>
       <c r="G266" t="n">
-        <v>4273.724166219997</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10101,24 +8411,15 @@
         <v>31.0381</v>
       </c>
       <c r="G267" t="n">
-        <v>4273.724166219997</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10140,24 +8441,15 @@
         <v>8.5</v>
       </c>
       <c r="G268" t="n">
-        <v>4265.224166219997</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10179,24 +8471,15 @@
         <v>279.3431</v>
       </c>
       <c r="G269" t="n">
-        <v>3985.881066219997</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10218,24 +8501,15 @@
         <v>20</v>
       </c>
       <c r="G270" t="n">
-        <v>3985.881066219997</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10257,24 +8531,15 @@
         <v>20</v>
       </c>
       <c r="G271" t="n">
-        <v>4005.881066219997</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10296,24 +8561,15 @@
         <v>20</v>
       </c>
       <c r="G272" t="n">
-        <v>4025.881066219997</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10335,24 +8591,15 @@
         <v>160.4838</v>
       </c>
       <c r="G273" t="n">
-        <v>3865.397266219997</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10374,24 +8621,15 @@
         <v>15.464</v>
       </c>
       <c r="G274" t="n">
-        <v>3880.861266219997</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10413,24 +8651,15 @@
         <v>11.308</v>
       </c>
       <c r="G275" t="n">
-        <v>3869.553266219997</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10452,24 +8681,15 @@
         <v>1201.8756</v>
       </c>
       <c r="G276" t="n">
-        <v>2667.677666219996</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10491,24 +8711,15 @@
         <v>9</v>
       </c>
       <c r="G277" t="n">
-        <v>2676.677666219996</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10530,24 +8741,15 @@
         <v>19</v>
       </c>
       <c r="G278" t="n">
-        <v>2695.677666219996</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10569,24 +8771,15 @@
         <v>71.2296</v>
       </c>
       <c r="G279" t="n">
-        <v>2624.448066219996</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10608,24 +8801,15 @@
         <v>30</v>
       </c>
       <c r="G280" t="n">
-        <v>2654.448066219996</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10647,24 +8831,15 @@
         <v>23</v>
       </c>
       <c r="G281" t="n">
-        <v>2677.448066219996</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10686,24 +8861,15 @@
         <v>25</v>
       </c>
       <c r="G282" t="n">
-        <v>2677.448066219996</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10725,24 +8891,15 @@
         <v>77.9478</v>
       </c>
       <c r="G283" t="n">
-        <v>2599.500266219996</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10764,24 +8921,15 @@
         <v>33.04</v>
       </c>
       <c r="G284" t="n">
-        <v>2632.540266219996</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10803,24 +8951,15 @@
         <v>22</v>
       </c>
       <c r="G285" t="n">
-        <v>2632.540266219996</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10842,24 +8981,15 @@
         <v>20</v>
       </c>
       <c r="G286" t="n">
-        <v>2632.540266219996</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10881,24 +9011,15 @@
         <v>3</v>
       </c>
       <c r="G287" t="n">
-        <v>2635.540266219996</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10920,24 +9041,15 @@
         <v>46</v>
       </c>
       <c r="G288" t="n">
-        <v>2681.540266219996</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10959,24 +9071,15 @@
         <v>18.0136</v>
       </c>
       <c r="G289" t="n">
-        <v>2663.526666219996</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10998,24 +9101,15 @@
         <v>180.0002</v>
       </c>
       <c r="G290" t="n">
-        <v>2843.526866219996</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11037,24 +9131,15 @@
         <v>178</v>
       </c>
       <c r="G291" t="n">
-        <v>3021.526866219996</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11076,24 +9161,15 @@
         <v>355.5</v>
       </c>
       <c r="G292" t="n">
-        <v>3377.026866219996</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11115,24 +9191,15 @@
         <v>4</v>
       </c>
       <c r="G293" t="n">
-        <v>3373.026866219996</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11154,24 +9221,15 @@
         <v>177</v>
       </c>
       <c r="G294" t="n">
-        <v>3550.026866219996</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11193,24 +9251,15 @@
         <v>200.21</v>
       </c>
       <c r="G295" t="n">
-        <v>3349.816866219996</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11232,24 +9281,15 @@
         <v>104.3221</v>
       </c>
       <c r="G296" t="n">
-        <v>3454.138966219996</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11271,24 +9311,15 @@
         <v>28.98</v>
       </c>
       <c r="G297" t="n">
-        <v>3425.158966219996</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11310,24 +9341,15 @@
         <v>3.9785</v>
       </c>
       <c r="G298" t="n">
-        <v>3429.137466219996</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11349,24 +9371,15 @@
         <v>145.0639</v>
       </c>
       <c r="G299" t="n">
-        <v>3429.137466219996</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11388,24 +9401,15 @@
         <v>14</v>
       </c>
       <c r="G300" t="n">
-        <v>3429.137466219996</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11427,24 +9431,15 @@
         <v>62.61677024</v>
       </c>
       <c r="G301" t="n">
-        <v>3491.754236459996</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11466,24 +9461,15 @@
         <v>11</v>
       </c>
       <c r="G302" t="n">
-        <v>3480.754236459996</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11505,24 +9491,15 @@
         <v>33.5527</v>
       </c>
       <c r="G303" t="n">
-        <v>3480.754236459996</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11544,24 +9521,15 @@
         <v>209.6891</v>
       </c>
       <c r="G304" t="n">
-        <v>3271.065136459996</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11583,24 +9551,15 @@
         <v>4.5025</v>
       </c>
       <c r="G305" t="n">
-        <v>3275.567636459996</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11622,24 +9581,15 @@
         <v>159.0639</v>
       </c>
       <c r="G306" t="n">
-        <v>3116.503736459996</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11661,24 +9611,15 @@
         <v>184.1502</v>
       </c>
       <c r="G307" t="n">
-        <v>2932.353536459996</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11700,24 +9641,15 @@
         <v>184.1502</v>
       </c>
       <c r="G308" t="n">
-        <v>2748.203336459996</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11739,24 +9671,15 @@
         <v>208.5879</v>
       </c>
       <c r="G309" t="n">
-        <v>2956.791236459996</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11778,24 +9701,15 @@
         <v>208.828</v>
       </c>
       <c r="G310" t="n">
-        <v>2747.963236459996</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11817,24 +9731,15 @@
         <v>224.3461</v>
       </c>
       <c r="G311" t="n">
-        <v>2747.963236459996</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11856,24 +9761,15 @@
         <v>254.2099</v>
       </c>
       <c r="G312" t="n">
-        <v>3002.173136459995</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11895,24 +9791,15 @@
         <v>10</v>
       </c>
       <c r="G313" t="n">
-        <v>2992.173136459995</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11934,24 +9821,15 @@
         <v>188.4637</v>
       </c>
       <c r="G314" t="n">
-        <v>3180.636836459995</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11973,24 +9851,15 @@
         <v>10</v>
       </c>
       <c r="G315" t="n">
-        <v>3170.636836459995</v>
-      </c>
-      <c r="H315" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1.017892819979188</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12012,18 +9881,15 @@
         <v>4.4896</v>
       </c>
       <c r="G316" t="n">
-        <v>3166.147236459995</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12045,18 +9911,15 @@
         <v>10</v>
       </c>
       <c r="G317" t="n">
-        <v>3156.147236459995</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12078,18 +9941,15 @@
         <v>31.0208</v>
       </c>
       <c r="G318" t="n">
-        <v>3187.168036459995</v>
-      </c>
-      <c r="H318" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12111,18 +9971,15 @@
         <v>4</v>
       </c>
       <c r="G319" t="n">
-        <v>3183.168036459995</v>
-      </c>
-      <c r="H319" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12144,18 +10001,15 @@
         <v>21</v>
       </c>
       <c r="G320" t="n">
-        <v>3204.168036459995</v>
-      </c>
-      <c r="H320" t="n">
         <v>2</v>
       </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12177,18 +10031,15 @@
         <v>4</v>
       </c>
       <c r="G321" t="n">
-        <v>3200.168036459995</v>
-      </c>
-      <c r="H321" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12210,18 +10061,15 @@
         <v>15.5104</v>
       </c>
       <c r="G322" t="n">
-        <v>3215.678436459995</v>
-      </c>
-      <c r="H322" t="n">
         <v>2</v>
       </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12243,18 +10091,15 @@
         <v>31.0208</v>
       </c>
       <c r="G323" t="n">
-        <v>3184.657636459996</v>
-      </c>
-      <c r="H323" t="n">
         <v>2</v>
       </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12276,18 +10121,15 @@
         <v>50</v>
       </c>
       <c r="G324" t="n">
-        <v>3184.657636459996</v>
-      </c>
-      <c r="H324" t="n">
         <v>2</v>
       </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12309,18 +10151,15 @@
         <v>31.5</v>
       </c>
       <c r="G325" t="n">
-        <v>3153.157636459996</v>
-      </c>
-      <c r="H325" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
